--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="504">
   <si>
     <t>sheet名</t>
   </si>
@@ -1749,6 +1749,18 @@
   </si>
   <si>
     <t>防御分母</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6278,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
@@ -28167,22 +28179,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J176" sqref="J176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>358</v>
       </c>
@@ -28199,10 +28213,16 @@
         <v>445</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -28216,13 +28236,19 @@
         <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>358</v>
       </c>
@@ -28232,17 +28258,19 @@
       <c r="C3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
@@ -28252,17 +28280,23 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>1701001</v>
+      <c r="D4" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1101001</v>
       </c>
@@ -28272,17 +28306,23 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
-        <v>1701001</v>
+      <c r="D5" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1101001</v>
       </c>
@@ -28292,17 +28332,23 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>1701001</v>
+      <c r="D6" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1101001</v>
       </c>
@@ -28312,17 +28358,23 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>1701001</v>
+      <c r="D7" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="3">
         <v>80</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1101001</v>
       </c>
@@ -28332,17 +28384,23 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <v>1701001</v>
+      <c r="D8" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="3">
         <v>120</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1101002</v>
       </c>
@@ -28352,17 +28410,23 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>1701002</v>
+      <c r="D9" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1101002</v>
       </c>
@@ -28372,17 +28436,23 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
-        <v>1701002</v>
+      <c r="D10" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="3">
         <v>30</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1101002</v>
       </c>
@@ -28392,17 +28462,23 @@
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <v>1701002</v>
+      <c r="D11" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E11" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="3">
         <v>50</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1101002</v>
       </c>
@@ -28412,17 +28488,23 @@
       <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
-        <v>1701002</v>
+      <c r="D12" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="3">
         <v>80</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1101002</v>
       </c>
@@ -28432,17 +28514,23 @@
       <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
-        <v>1701002</v>
+      <c r="D13" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="3">
         <v>120</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1101003</v>
       </c>
@@ -28452,17 +28540,23 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>1701003</v>
+      <c r="D14" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="3">
         <v>30</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1101003</v>
       </c>
@@ -28472,17 +28566,23 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
-        <v>1701003</v>
+      <c r="D15" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="3">
         <v>30</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1101003</v>
       </c>
@@ -28492,17 +28592,23 @@
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
-        <v>1701003</v>
+      <c r="D16" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E16" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="3">
         <v>50</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1101003</v>
       </c>
@@ -28512,17 +28618,23 @@
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
-        <v>1701003</v>
+      <c r="D17" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E17" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="3">
         <v>80</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1101003</v>
       </c>
@@ -28532,17 +28644,23 @@
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
-        <v>1701003</v>
+      <c r="D18" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="3">
         <v>120</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1101004</v>
       </c>
@@ -28552,17 +28670,23 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>1701004</v>
+      <c r="D19" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="3">
         <v>30</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1101004</v>
       </c>
@@ -28572,17 +28696,23 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
-        <v>1701004</v>
+      <c r="D20" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="3">
         <v>30</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1101004</v>
       </c>
@@ -28592,17 +28722,23 @@
       <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
-        <v>1701004</v>
+      <c r="D21" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="3">
         <v>50</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1101004</v>
       </c>
@@ -28612,17 +28748,23 @@
       <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>1701004</v>
+      <c r="D22" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" s="3">
         <v>80</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1101004</v>
       </c>
@@ -28632,17 +28774,23 @@
       <c r="C23" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
-        <v>1701004</v>
+      <c r="D23" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="3">
         <v>120</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1101005</v>
       </c>
@@ -28652,17 +28800,23 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
-        <v>1701005</v>
+      <c r="D24" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="3">
         <v>30</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1101005</v>
       </c>
@@ -28672,17 +28826,23 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
-        <v>1701005</v>
+      <c r="D25" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="3">
         <v>30</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1101005</v>
       </c>
@@ -28692,17 +28852,23 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
-        <v>1701005</v>
+      <c r="D26" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="3">
         <v>50</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1101005</v>
       </c>
@@ -28712,17 +28878,23 @@
       <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
-        <v>1701005</v>
+      <c r="D27" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G27" s="3">
         <v>80</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1101005</v>
       </c>
@@ -28732,17 +28904,23 @@
       <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D28" s="3">
-        <v>1701005</v>
+      <c r="D28" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E28" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="3">
         <v>120</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1101006</v>
       </c>
@@ -28752,17 +28930,23 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
-        <v>1701006</v>
+      <c r="D29" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="3">
         <v>30</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1101006</v>
       </c>
@@ -28772,17 +28956,23 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="D30" s="3">
-        <v>1701006</v>
+      <c r="D30" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E30" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="3">
         <v>30</v>
       </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1101006</v>
       </c>
@@ -28792,17 +28982,23 @@
       <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
-        <v>1701006</v>
+      <c r="D31" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E31" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="3">
         <v>50</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1101006</v>
       </c>
@@ -28812,17 +29008,23 @@
       <c r="C32" s="3">
         <v>4</v>
       </c>
-      <c r="D32" s="3">
-        <v>1701006</v>
+      <c r="D32" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="3">
         <v>80</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1101006</v>
       </c>
@@ -28832,17 +29034,23 @@
       <c r="C33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
-        <v>1701006</v>
+      <c r="D33" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="3">
         <v>120</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1101007</v>
       </c>
@@ -28852,17 +29060,23 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="3">
-        <v>1701007</v>
+      <c r="D34" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" s="3">
         <v>30</v>
       </c>
-      <c r="F34" s="3">
+      <c r="H34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1101007</v>
       </c>
@@ -28872,17 +29086,23 @@
       <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="3">
-        <v>1701007</v>
+      <c r="D35" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="3">
         <v>30</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1101007</v>
       </c>
@@ -28892,17 +29112,23 @@
       <c r="C36" s="3">
         <v>3</v>
       </c>
-      <c r="D36" s="3">
-        <v>1701007</v>
+      <c r="D36" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E36" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" s="3">
         <v>50</v>
       </c>
-      <c r="F36" s="3">
+      <c r="H36" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1101007</v>
       </c>
@@ -28912,17 +29138,23 @@
       <c r="C37" s="3">
         <v>4</v>
       </c>
-      <c r="D37" s="3">
-        <v>1701007</v>
+      <c r="D37" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E37" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="3">
         <v>80</v>
       </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1101007</v>
       </c>
@@ -28932,17 +29164,23 @@
       <c r="C38" s="3">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
-        <v>1701007</v>
+      <c r="D38" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E38" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="3">
         <v>120</v>
       </c>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1101008</v>
       </c>
@@ -28952,17 +29190,23 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
-        <v>1701008</v>
+      <c r="D39" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="3">
         <v>30</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1101008</v>
       </c>
@@ -28972,17 +29216,23 @@
       <c r="C40" s="3">
         <v>2</v>
       </c>
-      <c r="D40" s="3">
-        <v>1701008</v>
+      <c r="D40" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E40" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" s="3">
         <v>30</v>
       </c>
-      <c r="F40" s="3">
+      <c r="H40" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1101008</v>
       </c>
@@ -28992,17 +29242,23 @@
       <c r="C41" s="3">
         <v>3</v>
       </c>
-      <c r="D41" s="3">
-        <v>1701008</v>
+      <c r="D41" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" s="3">
         <v>50</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1101008</v>
       </c>
@@ -29012,17 +29268,23 @@
       <c r="C42" s="3">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
-        <v>1701008</v>
+      <c r="D42" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E42" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" s="3">
         <v>80</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1101008</v>
       </c>
@@ -29032,17 +29294,23 @@
       <c r="C43" s="3">
         <v>5</v>
       </c>
-      <c r="D43" s="3">
-        <v>1701008</v>
+      <c r="D43" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E43" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="3">
         <v>120</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1101009</v>
       </c>
@@ -29052,17 +29320,23 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="3">
-        <v>1701009</v>
+      <c r="D44" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="3">
         <v>30</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1101009</v>
       </c>
@@ -29072,17 +29346,23 @@
       <c r="C45" s="3">
         <v>2</v>
       </c>
-      <c r="D45" s="3">
-        <v>1701009</v>
+      <c r="D45" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="3">
         <v>30</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1101009</v>
       </c>
@@ -29092,17 +29372,23 @@
       <c r="C46" s="3">
         <v>3</v>
       </c>
-      <c r="D46" s="3">
-        <v>1701009</v>
+      <c r="D46" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E46" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="3">
         <v>50</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1101009</v>
       </c>
@@ -29112,17 +29398,23 @@
       <c r="C47" s="3">
         <v>4</v>
       </c>
-      <c r="D47" s="3">
-        <v>1701009</v>
+      <c r="D47" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E47" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="3">
         <v>80</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1101009</v>
       </c>
@@ -29132,17 +29424,23 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="3">
-        <v>1701009</v>
+      <c r="D48" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E48" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="3">
         <v>120</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1101010</v>
       </c>
@@ -29152,17 +29450,23 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="3">
-        <v>1701010</v>
+      <c r="D49" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" s="3">
         <v>30</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1101010</v>
       </c>
@@ -29172,17 +29476,23 @@
       <c r="C50" s="3">
         <v>2</v>
       </c>
-      <c r="D50" s="3">
-        <v>1701010</v>
+      <c r="D50" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E50" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="3">
         <v>30</v>
       </c>
-      <c r="F50" s="3">
+      <c r="H50" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1101010</v>
       </c>
@@ -29192,17 +29502,23 @@
       <c r="C51" s="3">
         <v>3</v>
       </c>
-      <c r="D51" s="3">
-        <v>1701010</v>
+      <c r="D51" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E51" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" s="3">
         <v>50</v>
       </c>
-      <c r="F51" s="3">
+      <c r="H51" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1101010</v>
       </c>
@@ -29212,17 +29528,23 @@
       <c r="C52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="3">
-        <v>1701010</v>
+      <c r="D52" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E52" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G52" s="3">
         <v>80</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1101010</v>
       </c>
@@ -29232,17 +29554,23 @@
       <c r="C53" s="3">
         <v>5</v>
       </c>
-      <c r="D53" s="3">
-        <v>1701010</v>
+      <c r="D53" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E53" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G53" s="3">
         <v>120</v>
       </c>
-      <c r="F53" s="3">
+      <c r="H53" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1101011</v>
       </c>
@@ -29252,17 +29580,23 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="3">
-        <v>1701011</v>
+      <c r="D54" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" s="3">
         <v>30</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1101011</v>
       </c>
@@ -29272,17 +29606,23 @@
       <c r="C55" s="3">
         <v>2</v>
       </c>
-      <c r="D55" s="3">
-        <v>1701011</v>
+      <c r="D55" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E55" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" s="3">
         <v>30</v>
       </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1101011</v>
       </c>
@@ -29292,17 +29632,23 @@
       <c r="C56" s="3">
         <v>3</v>
       </c>
-      <c r="D56" s="3">
-        <v>1701011</v>
+      <c r="D56" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E56" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" s="3">
         <v>50</v>
       </c>
-      <c r="F56" s="3">
+      <c r="H56" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1101011</v>
       </c>
@@ -29312,17 +29658,23 @@
       <c r="C57" s="3">
         <v>4</v>
       </c>
-      <c r="D57" s="3">
-        <v>1701011</v>
+      <c r="D57" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E57" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G57" s="3">
         <v>80</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1101011</v>
       </c>
@@ -29332,17 +29684,23 @@
       <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="3">
-        <v>1701011</v>
+      <c r="D58" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E58" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="3">
         <v>120</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1101012</v>
       </c>
@@ -29352,17 +29710,23 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D59" s="3">
-        <v>1701012</v>
+      <c r="D59" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G59" s="3">
         <v>30</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1101012</v>
       </c>
@@ -29372,17 +29736,23 @@
       <c r="C60" s="3">
         <v>2</v>
       </c>
-      <c r="D60" s="3">
-        <v>1701012</v>
+      <c r="D60" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G60" s="3">
         <v>30</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1101012</v>
       </c>
@@ -29392,17 +29762,23 @@
       <c r="C61" s="3">
         <v>3</v>
       </c>
-      <c r="D61" s="3">
-        <v>1701012</v>
+      <c r="D61" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="3">
         <v>50</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1101012</v>
       </c>
@@ -29412,17 +29788,23 @@
       <c r="C62" s="3">
         <v>4</v>
       </c>
-      <c r="D62" s="3">
-        <v>1701012</v>
+      <c r="D62" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E62" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" s="3">
         <v>80</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1101012</v>
       </c>
@@ -29432,17 +29814,23 @@
       <c r="C63" s="3">
         <v>5</v>
       </c>
-      <c r="D63" s="3">
-        <v>1701012</v>
+      <c r="D63" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E63" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="3">
         <v>120</v>
       </c>
-      <c r="F63" s="3">
+      <c r="H63" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1101013</v>
       </c>
@@ -29452,17 +29840,23 @@
       <c r="C64" s="3">
         <v>1</v>
       </c>
-      <c r="D64" s="3">
-        <v>1701013</v>
+      <c r="D64" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E64" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G64" s="3">
         <v>30</v>
       </c>
-      <c r="F64" s="3">
+      <c r="H64" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1101013</v>
       </c>
@@ -29472,17 +29866,23 @@
       <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" s="3">
-        <v>1701013</v>
+      <c r="D65" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E65" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="3">
         <v>30</v>
       </c>
-      <c r="F65" s="3">
+      <c r="H65" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1101013</v>
       </c>
@@ -29492,17 +29892,23 @@
       <c r="C66" s="3">
         <v>3</v>
       </c>
-      <c r="D66" s="3">
-        <v>1701013</v>
+      <c r="D66" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G66" s="3">
         <v>50</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1101013</v>
       </c>
@@ -29512,17 +29918,23 @@
       <c r="C67" s="3">
         <v>4</v>
       </c>
-      <c r="D67" s="3">
-        <v>1701013</v>
+      <c r="D67" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E67" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="3">
         <v>80</v>
       </c>
-      <c r="F67" s="3">
+      <c r="H67" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1101013</v>
       </c>
@@ -29532,17 +29944,23 @@
       <c r="C68" s="3">
         <v>5</v>
       </c>
-      <c r="D68" s="3">
-        <v>1701013</v>
+      <c r="D68" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E68" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="3">
         <v>120</v>
       </c>
-      <c r="F68" s="3">
+      <c r="H68" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1101014</v>
       </c>
@@ -29552,17 +29970,23 @@
       <c r="C69" s="3">
         <v>1</v>
       </c>
-      <c r="D69" s="3">
-        <v>1701014</v>
+      <c r="D69" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="3">
         <v>30</v>
       </c>
-      <c r="F69" s="3">
+      <c r="H69" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1101014</v>
       </c>
@@ -29572,17 +29996,23 @@
       <c r="C70" s="3">
         <v>2</v>
       </c>
-      <c r="D70" s="3">
-        <v>1701014</v>
+      <c r="D70" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G70" s="3">
         <v>30</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1101014</v>
       </c>
@@ -29592,17 +30022,23 @@
       <c r="C71" s="3">
         <v>3</v>
       </c>
-      <c r="D71" s="3">
-        <v>1701014</v>
+      <c r="D71" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E71" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G71" s="3">
         <v>50</v>
       </c>
-      <c r="F71" s="3">
+      <c r="H71" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1101014</v>
       </c>
@@ -29612,17 +30048,23 @@
       <c r="C72" s="3">
         <v>4</v>
       </c>
-      <c r="D72" s="3">
-        <v>1701014</v>
+      <c r="D72" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E72" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" s="3">
         <v>80</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1101014</v>
       </c>
@@ -29632,17 +30074,23 @@
       <c r="C73" s="3">
         <v>5</v>
       </c>
-      <c r="D73" s="3">
-        <v>1701014</v>
+      <c r="D73" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E73" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G73" s="3">
         <v>120</v>
       </c>
-      <c r="F73" s="3">
+      <c r="H73" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1101015</v>
       </c>
@@ -29652,17 +30100,23 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-      <c r="D74" s="3">
-        <v>1701015</v>
+      <c r="D74" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G74" s="3">
         <v>30</v>
       </c>
-      <c r="F74" s="3">
+      <c r="H74" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1101015</v>
       </c>
@@ -29672,17 +30126,23 @@
       <c r="C75" s="3">
         <v>2</v>
       </c>
-      <c r="D75" s="3">
-        <v>1701015</v>
+      <c r="D75" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E75" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G75" s="3">
         <v>30</v>
       </c>
-      <c r="F75" s="3">
+      <c r="H75" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1101015</v>
       </c>
@@ -29692,17 +30152,23 @@
       <c r="C76" s="3">
         <v>3</v>
       </c>
-      <c r="D76" s="3">
-        <v>1701015</v>
+      <c r="D76" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G76" s="3">
         <v>50</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1101015</v>
       </c>
@@ -29712,17 +30178,23 @@
       <c r="C77" s="3">
         <v>4</v>
       </c>
-      <c r="D77" s="3">
-        <v>1701015</v>
+      <c r="D77" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E77" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G77" s="3">
         <v>80</v>
       </c>
-      <c r="F77" s="3">
+      <c r="H77" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1101015</v>
       </c>
@@ -29732,17 +30204,23 @@
       <c r="C78" s="3">
         <v>5</v>
       </c>
-      <c r="D78" s="3">
-        <v>1701015</v>
+      <c r="D78" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E78" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G78" s="3">
         <v>120</v>
       </c>
-      <c r="F78" s="3">
+      <c r="H78" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1102001</v>
       </c>
@@ -29752,17 +30230,23 @@
       <c r="C79" s="3">
         <v>1</v>
       </c>
-      <c r="D79" s="3">
-        <v>1702001</v>
+      <c r="D79" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="3">
         <v>30</v>
       </c>
-      <c r="F79" s="3">
+      <c r="H79" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>1102001</v>
       </c>
@@ -29772,17 +30256,23 @@
       <c r="C80" s="3">
         <v>2</v>
       </c>
-      <c r="D80" s="3">
-        <v>1702001</v>
+      <c r="D80" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E80" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" s="3">
         <v>30</v>
       </c>
-      <c r="F80" s="3">
+      <c r="H80" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>1102001</v>
       </c>
@@ -29792,17 +30282,23 @@
       <c r="C81" s="3">
         <v>3</v>
       </c>
-      <c r="D81" s="3">
-        <v>1702001</v>
+      <c r="D81" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="3">
         <v>50</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1102001</v>
       </c>
@@ -29812,17 +30308,23 @@
       <c r="C82" s="3">
         <v>4</v>
       </c>
-      <c r="D82" s="3">
-        <v>1702001</v>
+      <c r="D82" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E82" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G82" s="3">
         <v>80</v>
       </c>
-      <c r="F82" s="3">
+      <c r="H82" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>1102001</v>
       </c>
@@ -29832,17 +30334,23 @@
       <c r="C83" s="3">
         <v>5</v>
       </c>
-      <c r="D83" s="3">
-        <v>1702001</v>
+      <c r="D83" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E83" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="3">
         <v>120</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>1102002</v>
       </c>
@@ -29852,17 +30360,23 @@
       <c r="C84" s="3">
         <v>1</v>
       </c>
-      <c r="D84" s="3">
-        <v>1702002</v>
+      <c r="D84" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E84" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G84" s="3">
         <v>30</v>
       </c>
-      <c r="F84" s="3">
+      <c r="H84" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>1102002</v>
       </c>
@@ -29872,17 +30386,23 @@
       <c r="C85" s="3">
         <v>2</v>
       </c>
-      <c r="D85" s="3">
-        <v>1702002</v>
+      <c r="D85" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E85" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G85" s="3">
         <v>30</v>
       </c>
-      <c r="F85" s="3">
+      <c r="H85" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>1102002</v>
       </c>
@@ -29892,17 +30412,23 @@
       <c r="C86" s="3">
         <v>3</v>
       </c>
-      <c r="D86" s="3">
-        <v>1702002</v>
+      <c r="D86" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E86" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G86" s="3">
         <v>50</v>
       </c>
-      <c r="F86" s="3">
+      <c r="H86" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>1102002</v>
       </c>
@@ -29912,17 +30438,23 @@
       <c r="C87" s="3">
         <v>4</v>
       </c>
-      <c r="D87" s="3">
-        <v>1702002</v>
+      <c r="D87" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E87" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G87" s="3">
         <v>80</v>
       </c>
-      <c r="F87" s="3">
+      <c r="H87" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>1102002</v>
       </c>
@@ -29932,17 +30464,23 @@
       <c r="C88" s="3">
         <v>5</v>
       </c>
-      <c r="D88" s="3">
-        <v>1702002</v>
+      <c r="D88" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E88" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G88" s="3">
         <v>120</v>
       </c>
-      <c r="F88" s="3">
+      <c r="H88" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>1102003</v>
       </c>
@@ -29952,17 +30490,23 @@
       <c r="C89" s="3">
         <v>1</v>
       </c>
-      <c r="D89" s="3">
-        <v>1702003</v>
+      <c r="D89" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="3">
         <v>30</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>1102003</v>
       </c>
@@ -29972,17 +30516,23 @@
       <c r="C90" s="3">
         <v>2</v>
       </c>
-      <c r="D90" s="3">
-        <v>1702003</v>
+      <c r="D90" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E90" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" s="3">
         <v>30</v>
       </c>
-      <c r="F90" s="3">
+      <c r="H90" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>1102003</v>
       </c>
@@ -29992,17 +30542,23 @@
       <c r="C91" s="3">
         <v>3</v>
       </c>
-      <c r="D91" s="3">
-        <v>1702003</v>
+      <c r="D91" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E91" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" s="3">
         <v>50</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>1102003</v>
       </c>
@@ -30012,17 +30568,23 @@
       <c r="C92" s="3">
         <v>4</v>
       </c>
-      <c r="D92" s="3">
-        <v>1702003</v>
+      <c r="D92" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E92" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92" s="3">
         <v>80</v>
       </c>
-      <c r="F92" s="3">
+      <c r="H92" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>1102003</v>
       </c>
@@ -30032,17 +30594,23 @@
       <c r="C93" s="3">
         <v>5</v>
       </c>
-      <c r="D93" s="3">
-        <v>1702003</v>
+      <c r="D93" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E93" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G93" s="3">
         <v>120</v>
       </c>
-      <c r="F93" s="3">
+      <c r="H93" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>1102004</v>
       </c>
@@ -30052,17 +30620,23 @@
       <c r="C94" s="3">
         <v>1</v>
       </c>
-      <c r="D94" s="3">
-        <v>1702004</v>
+      <c r="D94" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G94" s="3">
         <v>30</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>1102004</v>
       </c>
@@ -30072,17 +30646,23 @@
       <c r="C95" s="3">
         <v>2</v>
       </c>
-      <c r="D95" s="3">
-        <v>1702004</v>
+      <c r="D95" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E95" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G95" s="3">
         <v>30</v>
       </c>
-      <c r="F95" s="3">
+      <c r="H95" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>1102004</v>
       </c>
@@ -30092,17 +30672,23 @@
       <c r="C96" s="3">
         <v>3</v>
       </c>
-      <c r="D96" s="3">
-        <v>1702004</v>
+      <c r="D96" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E96" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G96" s="3">
         <v>50</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>1102004</v>
       </c>
@@ -30112,17 +30698,23 @@
       <c r="C97" s="3">
         <v>4</v>
       </c>
-      <c r="D97" s="3">
-        <v>1702004</v>
+      <c r="D97" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E97" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G97" s="3">
         <v>80</v>
       </c>
-      <c r="F97" s="3">
+      <c r="H97" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>1102004</v>
       </c>
@@ -30132,17 +30724,23 @@
       <c r="C98" s="3">
         <v>5</v>
       </c>
-      <c r="D98" s="3">
-        <v>1702004</v>
+      <c r="D98" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E98" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G98" s="3">
         <v>120</v>
       </c>
-      <c r="F98" s="3">
+      <c r="H98" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>1102005</v>
       </c>
@@ -30152,17 +30750,23 @@
       <c r="C99" s="3">
         <v>1</v>
       </c>
-      <c r="D99" s="3">
-        <v>1702005</v>
+      <c r="D99" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E99" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G99" s="3">
         <v>30</v>
       </c>
-      <c r="F99" s="3">
+      <c r="H99" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>1102005</v>
       </c>
@@ -30172,17 +30776,23 @@
       <c r="C100" s="3">
         <v>2</v>
       </c>
-      <c r="D100" s="3">
-        <v>1702005</v>
+      <c r="D100" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G100" s="3">
         <v>30</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>1102005</v>
       </c>
@@ -30192,17 +30802,23 @@
       <c r="C101" s="3">
         <v>3</v>
       </c>
-      <c r="D101" s="3">
-        <v>1702005</v>
+      <c r="D101" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="3">
         <v>50</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>1102005</v>
       </c>
@@ -30212,17 +30828,23 @@
       <c r="C102" s="3">
         <v>4</v>
       </c>
-      <c r="D102" s="3">
-        <v>1702005</v>
+      <c r="D102" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E102" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G102" s="3">
         <v>80</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>1102005</v>
       </c>
@@ -30232,17 +30854,23 @@
       <c r="C103" s="3">
         <v>5</v>
       </c>
-      <c r="D103" s="3">
-        <v>1702005</v>
+      <c r="D103" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E103" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" s="3">
         <v>120</v>
       </c>
-      <c r="F103" s="3">
+      <c r="H103" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>1102006</v>
       </c>
@@ -30252,17 +30880,23 @@
       <c r="C104" s="3">
         <v>1</v>
       </c>
-      <c r="D104" s="3">
-        <v>1702006</v>
+      <c r="D104" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E104" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G104" s="3">
         <v>30</v>
       </c>
-      <c r="F104" s="3">
+      <c r="H104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>1102006</v>
       </c>
@@ -30272,17 +30906,23 @@
       <c r="C105" s="3">
         <v>2</v>
       </c>
-      <c r="D105" s="3">
-        <v>1702006</v>
+      <c r="D105" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E105" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" s="3">
         <v>30</v>
       </c>
-      <c r="F105" s="3">
+      <c r="H105" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>1102006</v>
       </c>
@@ -30292,17 +30932,23 @@
       <c r="C106" s="3">
         <v>3</v>
       </c>
-      <c r="D106" s="3">
-        <v>1702006</v>
+      <c r="D106" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E106" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" s="3">
         <v>50</v>
       </c>
-      <c r="F106" s="3">
+      <c r="H106" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>1102006</v>
       </c>
@@ -30312,17 +30958,23 @@
       <c r="C107" s="3">
         <v>4</v>
       </c>
-      <c r="D107" s="3">
-        <v>1702006</v>
+      <c r="D107" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E107" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="3">
         <v>80</v>
       </c>
-      <c r="F107" s="3">
+      <c r="H107" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>1102006</v>
       </c>
@@ -30332,17 +30984,23 @@
       <c r="C108" s="3">
         <v>5</v>
       </c>
-      <c r="D108" s="3">
-        <v>1702006</v>
+      <c r="D108" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E108" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" s="3">
         <v>120</v>
       </c>
-      <c r="F108" s="3">
+      <c r="H108" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>1102007</v>
       </c>
@@ -30352,17 +31010,23 @@
       <c r="C109" s="3">
         <v>1</v>
       </c>
-      <c r="D109" s="3">
-        <v>1702007</v>
+      <c r="D109" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E109" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G109" s="3">
         <v>30</v>
       </c>
-      <c r="F109" s="3">
+      <c r="H109" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>1102007</v>
       </c>
@@ -30372,17 +31036,23 @@
       <c r="C110" s="3">
         <v>2</v>
       </c>
-      <c r="D110" s="3">
-        <v>1702007</v>
+      <c r="D110" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E110" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G110" s="3">
         <v>30</v>
       </c>
-      <c r="F110" s="3">
+      <c r="H110" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>1102007</v>
       </c>
@@ -30392,17 +31062,23 @@
       <c r="C111" s="3">
         <v>3</v>
       </c>
-      <c r="D111" s="3">
-        <v>1702007</v>
+      <c r="D111" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E111" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G111" s="3">
         <v>50</v>
       </c>
-      <c r="F111" s="3">
+      <c r="H111" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>1102007</v>
       </c>
@@ -30412,17 +31088,23 @@
       <c r="C112" s="3">
         <v>4</v>
       </c>
-      <c r="D112" s="3">
-        <v>1702007</v>
+      <c r="D112" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E112" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="3">
         <v>80</v>
       </c>
-      <c r="F112" s="3">
+      <c r="H112" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>1102007</v>
       </c>
@@ -30432,17 +31114,23 @@
       <c r="C113" s="3">
         <v>5</v>
       </c>
-      <c r="D113" s="3">
-        <v>1702007</v>
+      <c r="D113" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E113" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G113" s="3">
         <v>120</v>
       </c>
-      <c r="F113" s="3">
+      <c r="H113" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>1102008</v>
       </c>
@@ -30452,17 +31140,23 @@
       <c r="C114" s="3">
         <v>1</v>
       </c>
-      <c r="D114" s="3">
-        <v>1702008</v>
+      <c r="D114" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E114" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G114" s="3">
         <v>30</v>
       </c>
-      <c r="F114" s="3">
+      <c r="H114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>1102008</v>
       </c>
@@ -30472,17 +31166,23 @@
       <c r="C115" s="3">
         <v>2</v>
       </c>
-      <c r="D115" s="3">
-        <v>1702008</v>
+      <c r="D115" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E115" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G115" s="3">
         <v>30</v>
       </c>
-      <c r="F115" s="3">
+      <c r="H115" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>1102008</v>
       </c>
@@ -30492,17 +31192,23 @@
       <c r="C116" s="3">
         <v>3</v>
       </c>
-      <c r="D116" s="3">
-        <v>1702008</v>
+      <c r="D116" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E116" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G116" s="3">
         <v>50</v>
       </c>
-      <c r="F116" s="3">
+      <c r="H116" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1102008</v>
       </c>
@@ -30512,17 +31218,23 @@
       <c r="C117" s="3">
         <v>4</v>
       </c>
-      <c r="D117" s="3">
-        <v>1702008</v>
+      <c r="D117" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E117" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G117" s="3">
         <v>80</v>
       </c>
-      <c r="F117" s="3">
+      <c r="H117" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>1102008</v>
       </c>
@@ -30532,17 +31244,23 @@
       <c r="C118" s="3">
         <v>5</v>
       </c>
-      <c r="D118" s="3">
-        <v>1702008</v>
+      <c r="D118" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E118" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G118" s="3">
         <v>120</v>
       </c>
-      <c r="F118" s="3">
+      <c r="H118" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>1102009</v>
       </c>
@@ -30552,17 +31270,23 @@
       <c r="C119" s="3">
         <v>1</v>
       </c>
-      <c r="D119" s="3">
-        <v>1702009</v>
+      <c r="D119" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E119" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G119" s="3">
         <v>30</v>
       </c>
-      <c r="F119" s="3">
+      <c r="H119" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>1102009</v>
       </c>
@@ -30572,17 +31296,23 @@
       <c r="C120" s="3">
         <v>2</v>
       </c>
-      <c r="D120" s="3">
-        <v>1702009</v>
+      <c r="D120" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E120" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G120" s="3">
         <v>30</v>
       </c>
-      <c r="F120" s="3">
+      <c r="H120" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>1102009</v>
       </c>
@@ -30592,17 +31322,23 @@
       <c r="C121" s="3">
         <v>3</v>
       </c>
-      <c r="D121" s="3">
-        <v>1702009</v>
+      <c r="D121" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E121" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G121" s="3">
         <v>50</v>
       </c>
-      <c r="F121" s="3">
+      <c r="H121" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>1102009</v>
       </c>
@@ -30612,17 +31348,23 @@
       <c r="C122" s="3">
         <v>4</v>
       </c>
-      <c r="D122" s="3">
-        <v>1702009</v>
+      <c r="D122" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E122" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G122" s="3">
         <v>80</v>
       </c>
-      <c r="F122" s="3">
+      <c r="H122" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>1102009</v>
       </c>
@@ -30632,17 +31374,23 @@
       <c r="C123" s="3">
         <v>5</v>
       </c>
-      <c r="D123" s="3">
-        <v>1702009</v>
+      <c r="D123" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E123" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G123" s="3">
         <v>120</v>
       </c>
-      <c r="F123" s="3">
+      <c r="H123" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>1102010</v>
       </c>
@@ -30652,17 +31400,23 @@
       <c r="C124" s="3">
         <v>1</v>
       </c>
-      <c r="D124" s="3">
-        <v>1702010</v>
+      <c r="D124" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E124" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G124" s="3">
         <v>30</v>
       </c>
-      <c r="F124" s="3">
+      <c r="H124" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>1102010</v>
       </c>
@@ -30672,17 +31426,23 @@
       <c r="C125" s="3">
         <v>2</v>
       </c>
-      <c r="D125" s="3">
-        <v>1702010</v>
+      <c r="D125" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E125" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G125" s="3">
         <v>30</v>
       </c>
-      <c r="F125" s="3">
+      <c r="H125" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>1102010</v>
       </c>
@@ -30692,17 +31452,23 @@
       <c r="C126" s="3">
         <v>3</v>
       </c>
-      <c r="D126" s="3">
-        <v>1702010</v>
+      <c r="D126" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E126" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G126" s="3">
         <v>50</v>
       </c>
-      <c r="F126" s="3">
+      <c r="H126" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>1102010</v>
       </c>
@@ -30712,17 +31478,23 @@
       <c r="C127" s="3">
         <v>4</v>
       </c>
-      <c r="D127" s="3">
-        <v>1702010</v>
+      <c r="D127" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E127" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="3">
         <v>80</v>
       </c>
-      <c r="F127" s="3">
+      <c r="H127" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>1102010</v>
       </c>
@@ -30732,17 +31504,23 @@
       <c r="C128" s="3">
         <v>5</v>
       </c>
-      <c r="D128" s="3">
-        <v>1702010</v>
+      <c r="D128" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E128" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G128" s="3">
         <v>120</v>
       </c>
-      <c r="F128" s="3">
+      <c r="H128" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>1102011</v>
       </c>
@@ -30752,17 +31530,23 @@
       <c r="C129" s="3">
         <v>1</v>
       </c>
-      <c r="D129" s="3">
-        <v>1702011</v>
+      <c r="D129" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E129" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G129" s="3">
         <v>30</v>
       </c>
-      <c r="F129" s="3">
+      <c r="H129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>1102011</v>
       </c>
@@ -30772,17 +31556,23 @@
       <c r="C130" s="3">
         <v>2</v>
       </c>
-      <c r="D130" s="3">
-        <v>1702011</v>
+      <c r="D130" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E130" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G130" s="3">
         <v>30</v>
       </c>
-      <c r="F130" s="3">
+      <c r="H130" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>1102011</v>
       </c>
@@ -30792,17 +31582,23 @@
       <c r="C131" s="3">
         <v>3</v>
       </c>
-      <c r="D131" s="3">
-        <v>1702011</v>
+      <c r="D131" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E131" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G131" s="3">
         <v>50</v>
       </c>
-      <c r="F131" s="3">
+      <c r="H131" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>1102011</v>
       </c>
@@ -30812,17 +31608,23 @@
       <c r="C132" s="3">
         <v>4</v>
       </c>
-      <c r="D132" s="3">
-        <v>1702011</v>
+      <c r="D132" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E132" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="3">
         <v>80</v>
       </c>
-      <c r="F132" s="3">
+      <c r="H132" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>1102011</v>
       </c>
@@ -30832,17 +31634,23 @@
       <c r="C133" s="3">
         <v>5</v>
       </c>
-      <c r="D133" s="3">
-        <v>1702011</v>
+      <c r="D133" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E133" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G133" s="3">
         <v>120</v>
       </c>
-      <c r="F133" s="3">
+      <c r="H133" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>1102012</v>
       </c>
@@ -30852,17 +31660,23 @@
       <c r="C134" s="3">
         <v>1</v>
       </c>
-      <c r="D134" s="3">
-        <v>1702012</v>
+      <c r="D134" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E134" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G134" s="3">
         <v>30</v>
       </c>
-      <c r="F134" s="3">
+      <c r="H134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>1102012</v>
       </c>
@@ -30872,17 +31686,23 @@
       <c r="C135" s="3">
         <v>2</v>
       </c>
-      <c r="D135" s="3">
-        <v>1702012</v>
+      <c r="D135" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E135" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G135" s="3">
         <v>30</v>
       </c>
-      <c r="F135" s="3">
+      <c r="H135" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>1102012</v>
       </c>
@@ -30892,17 +31712,23 @@
       <c r="C136" s="3">
         <v>3</v>
       </c>
-      <c r="D136" s="3">
-        <v>1702012</v>
+      <c r="D136" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E136" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G136" s="3">
         <v>50</v>
       </c>
-      <c r="F136" s="3">
+      <c r="H136" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>1102012</v>
       </c>
@@ -30912,17 +31738,23 @@
       <c r="C137" s="3">
         <v>4</v>
       </c>
-      <c r="D137" s="3">
-        <v>1702012</v>
+      <c r="D137" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E137" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G137" s="3">
         <v>80</v>
       </c>
-      <c r="F137" s="3">
+      <c r="H137" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>1102012</v>
       </c>
@@ -30932,17 +31764,23 @@
       <c r="C138" s="3">
         <v>5</v>
       </c>
-      <c r="D138" s="3">
-        <v>1702012</v>
+      <c r="D138" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E138" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G138" s="3">
         <v>120</v>
       </c>
-      <c r="F138" s="3">
+      <c r="H138" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>1102013</v>
       </c>
@@ -30952,17 +31790,23 @@
       <c r="C139" s="3">
         <v>1</v>
       </c>
-      <c r="D139" s="3">
-        <v>1702013</v>
+      <c r="D139" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E139" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G139" s="3">
         <v>30</v>
       </c>
-      <c r="F139" s="3">
+      <c r="H139" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>1102013</v>
       </c>
@@ -30972,17 +31816,23 @@
       <c r="C140" s="3">
         <v>2</v>
       </c>
-      <c r="D140" s="3">
-        <v>1702013</v>
+      <c r="D140" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E140" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G140" s="3">
         <v>30</v>
       </c>
-      <c r="F140" s="3">
+      <c r="H140" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>1102013</v>
       </c>
@@ -30992,17 +31842,23 @@
       <c r="C141" s="3">
         <v>3</v>
       </c>
-      <c r="D141" s="3">
-        <v>1702013</v>
+      <c r="D141" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E141" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G141" s="3">
         <v>50</v>
       </c>
-      <c r="F141" s="3">
+      <c r="H141" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>1102013</v>
       </c>
@@ -31012,17 +31868,23 @@
       <c r="C142" s="3">
         <v>4</v>
       </c>
-      <c r="D142" s="3">
-        <v>1702013</v>
+      <c r="D142" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E142" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G142" s="3">
         <v>80</v>
       </c>
-      <c r="F142" s="3">
+      <c r="H142" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>1102013</v>
       </c>
@@ -31032,17 +31894,23 @@
       <c r="C143" s="3">
         <v>5</v>
       </c>
-      <c r="D143" s="3">
-        <v>1702013</v>
+      <c r="D143" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E143" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G143" s="3">
         <v>120</v>
       </c>
-      <c r="F143" s="3">
+      <c r="H143" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>1102014</v>
       </c>
@@ -31052,17 +31920,23 @@
       <c r="C144" s="3">
         <v>1</v>
       </c>
-      <c r="D144" s="3">
-        <v>1702014</v>
+      <c r="D144" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E144" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G144" s="3">
         <v>30</v>
       </c>
-      <c r="F144" s="3">
+      <c r="H144" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>1102014</v>
       </c>
@@ -31072,17 +31946,23 @@
       <c r="C145" s="3">
         <v>2</v>
       </c>
-      <c r="D145" s="3">
-        <v>1702014</v>
+      <c r="D145" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E145" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G145" s="3">
         <v>30</v>
       </c>
-      <c r="F145" s="3">
+      <c r="H145" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>1102014</v>
       </c>
@@ -31092,17 +31972,23 @@
       <c r="C146" s="3">
         <v>3</v>
       </c>
-      <c r="D146" s="3">
-        <v>1702014</v>
+      <c r="D146" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E146" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G146" s="3">
         <v>50</v>
       </c>
-      <c r="F146" s="3">
+      <c r="H146" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>1102014</v>
       </c>
@@ -31112,17 +31998,23 @@
       <c r="C147" s="3">
         <v>4</v>
       </c>
-      <c r="D147" s="3">
-        <v>1702014</v>
+      <c r="D147" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E147" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G147" s="3">
         <v>80</v>
       </c>
-      <c r="F147" s="3">
+      <c r="H147" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>1102014</v>
       </c>
@@ -31132,17 +32024,23 @@
       <c r="C148" s="3">
         <v>5</v>
       </c>
-      <c r="D148" s="3">
-        <v>1702014</v>
+      <c r="D148" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E148" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G148" s="3">
         <v>120</v>
       </c>
-      <c r="F148" s="3">
+      <c r="H148" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>1102015</v>
       </c>
@@ -31152,17 +32050,23 @@
       <c r="C149" s="3">
         <v>1</v>
       </c>
-      <c r="D149" s="3">
-        <v>1702015</v>
+      <c r="D149" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E149" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G149" s="3">
         <v>30</v>
       </c>
-      <c r="F149" s="3">
+      <c r="H149" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>1102015</v>
       </c>
@@ -31172,17 +32076,23 @@
       <c r="C150" s="3">
         <v>2</v>
       </c>
-      <c r="D150" s="3">
-        <v>1702015</v>
+      <c r="D150" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E150" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G150" s="3">
         <v>30</v>
       </c>
-      <c r="F150" s="3">
+      <c r="H150" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>1102015</v>
       </c>
@@ -31192,17 +32102,23 @@
       <c r="C151" s="3">
         <v>3</v>
       </c>
-      <c r="D151" s="3">
-        <v>1702015</v>
+      <c r="D151" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E151" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G151" s="3">
         <v>50</v>
       </c>
-      <c r="F151" s="3">
+      <c r="H151" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>1102015</v>
       </c>
@@ -31212,17 +32128,23 @@
       <c r="C152" s="3">
         <v>4</v>
       </c>
-      <c r="D152" s="3">
-        <v>1702015</v>
+      <c r="D152" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E152" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G152" s="3">
         <v>80</v>
       </c>
-      <c r="F152" s="3">
+      <c r="H152" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>1102015</v>
       </c>
@@ -31232,17 +32154,23 @@
       <c r="C153" s="3">
         <v>5</v>
       </c>
-      <c r="D153" s="3">
-        <v>1702015</v>
+      <c r="D153" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E153" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G153" s="3">
         <v>120</v>
       </c>
-      <c r="F153" s="3">
+      <c r="H153" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>1102016</v>
       </c>
@@ -31252,17 +32180,23 @@
       <c r="C154" s="3">
         <v>1</v>
       </c>
-      <c r="D154" s="3">
-        <v>1702016</v>
+      <c r="D154" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E154" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G154" s="3">
         <v>30</v>
       </c>
-      <c r="F154" s="3">
+      <c r="H154" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>1102016</v>
       </c>
@@ -31272,17 +32206,23 @@
       <c r="C155" s="3">
         <v>2</v>
       </c>
-      <c r="D155" s="3">
-        <v>1702016</v>
+      <c r="D155" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E155" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G155" s="3">
         <v>30</v>
       </c>
-      <c r="F155" s="3">
+      <c r="H155" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>1102016</v>
       </c>
@@ -31292,17 +32232,23 @@
       <c r="C156" s="3">
         <v>3</v>
       </c>
-      <c r="D156" s="3">
-        <v>1702016</v>
+      <c r="D156" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E156" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G156" s="3">
         <v>50</v>
       </c>
-      <c r="F156" s="3">
+      <c r="H156" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>1102016</v>
       </c>
@@ -31312,17 +32258,23 @@
       <c r="C157" s="3">
         <v>4</v>
       </c>
-      <c r="D157" s="3">
-        <v>1702016</v>
+      <c r="D157" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E157" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G157" s="3">
         <v>80</v>
       </c>
-      <c r="F157" s="3">
+      <c r="H157" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>1102016</v>
       </c>
@@ -31332,17 +32284,23 @@
       <c r="C158" s="3">
         <v>5</v>
       </c>
-      <c r="D158" s="3">
-        <v>1702016</v>
+      <c r="D158" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E158" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G158" s="3">
         <v>120</v>
       </c>
-      <c r="F158" s="3">
+      <c r="H158" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>1102017</v>
       </c>
@@ -31352,17 +32310,23 @@
       <c r="C159" s="3">
         <v>1</v>
       </c>
-      <c r="D159" s="3">
-        <v>1702017</v>
+      <c r="D159" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E159" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G159" s="3">
         <v>30</v>
       </c>
-      <c r="F159" s="3">
+      <c r="H159" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>1102017</v>
       </c>
@@ -31372,17 +32336,23 @@
       <c r="C160" s="3">
         <v>2</v>
       </c>
-      <c r="D160" s="3">
-        <v>1702017</v>
+      <c r="D160" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E160" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G160" s="3">
         <v>30</v>
       </c>
-      <c r="F160" s="3">
+      <c r="H160" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>1102017</v>
       </c>
@@ -31392,17 +32362,23 @@
       <c r="C161" s="3">
         <v>3</v>
       </c>
-      <c r="D161" s="3">
-        <v>1702017</v>
+      <c r="D161" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E161" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G161" s="3">
         <v>50</v>
       </c>
-      <c r="F161" s="3">
+      <c r="H161" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>1102017</v>
       </c>
@@ -31412,17 +32388,23 @@
       <c r="C162" s="3">
         <v>4</v>
       </c>
-      <c r="D162" s="3">
-        <v>1702017</v>
+      <c r="D162" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E162" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G162" s="3">
         <v>80</v>
       </c>
-      <c r="F162" s="3">
+      <c r="H162" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>1102017</v>
       </c>
@@ -31432,17 +32414,23 @@
       <c r="C163" s="3">
         <v>5</v>
       </c>
-      <c r="D163" s="3">
-        <v>1702017</v>
+      <c r="D163" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E163" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G163" s="3">
         <v>120</v>
       </c>
-      <c r="F163" s="3">
+      <c r="H163" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>1102018</v>
       </c>
@@ -31452,17 +32440,23 @@
       <c r="C164" s="3">
         <v>1</v>
       </c>
-      <c r="D164" s="3">
-        <v>1702018</v>
+      <c r="D164" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E164" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G164" s="3">
         <v>30</v>
       </c>
-      <c r="F164" s="3">
+      <c r="H164" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>1102018</v>
       </c>
@@ -31472,17 +32466,23 @@
       <c r="C165" s="3">
         <v>2</v>
       </c>
-      <c r="D165" s="3">
-        <v>1702018</v>
+      <c r="D165" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E165" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G165" s="3">
         <v>30</v>
       </c>
-      <c r="F165" s="3">
+      <c r="H165" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>1102018</v>
       </c>
@@ -31492,17 +32492,23 @@
       <c r="C166" s="3">
         <v>3</v>
       </c>
-      <c r="D166" s="3">
-        <v>1702018</v>
+      <c r="D166" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E166" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G166" s="3">
         <v>50</v>
       </c>
-      <c r="F166" s="3">
+      <c r="H166" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>1102018</v>
       </c>
@@ -31512,17 +32518,23 @@
       <c r="C167" s="3">
         <v>4</v>
       </c>
-      <c r="D167" s="3">
-        <v>1702018</v>
+      <c r="D167" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E167" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G167" s="3">
         <v>80</v>
       </c>
-      <c r="F167" s="3">
+      <c r="H167" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>1102018</v>
       </c>
@@ -31532,17 +32544,23 @@
       <c r="C168" s="3">
         <v>5</v>
       </c>
-      <c r="D168" s="3">
-        <v>1702018</v>
+      <c r="D168" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E168" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G168" s="3">
         <v>120</v>
       </c>
-      <c r="F168" s="3">
+      <c r="H168" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>1102019</v>
       </c>
@@ -31552,17 +32570,23 @@
       <c r="C169" s="3">
         <v>1</v>
       </c>
-      <c r="D169" s="3">
-        <v>1702019</v>
+      <c r="D169" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E169" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G169" s="3">
         <v>30</v>
       </c>
-      <c r="F169" s="3">
+      <c r="H169" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>1102019</v>
       </c>
@@ -31572,17 +32596,23 @@
       <c r="C170" s="3">
         <v>2</v>
       </c>
-      <c r="D170" s="3">
-        <v>1702019</v>
+      <c r="D170" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E170" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G170" s="3">
         <v>30</v>
       </c>
-      <c r="F170" s="3">
+      <c r="H170" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>1102019</v>
       </c>
@@ -31592,17 +32622,23 @@
       <c r="C171" s="3">
         <v>3</v>
       </c>
-      <c r="D171" s="3">
-        <v>1702019</v>
+      <c r="D171" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E171" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G171" s="3">
         <v>50</v>
       </c>
-      <c r="F171" s="3">
+      <c r="H171" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>1102019</v>
       </c>
@@ -31612,17 +32648,23 @@
       <c r="C172" s="3">
         <v>4</v>
       </c>
-      <c r="D172" s="3">
-        <v>1702019</v>
+      <c r="D172" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E172" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G172" s="3">
         <v>80</v>
       </c>
-      <c r="F172" s="3">
+      <c r="H172" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>1102019</v>
       </c>
@@ -31632,17 +32674,23 @@
       <c r="C173" s="3">
         <v>5</v>
       </c>
-      <c r="D173" s="3">
-        <v>1702019</v>
+      <c r="D173" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E173" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G173" s="3">
         <v>120</v>
       </c>
-      <c r="F173" s="3">
+      <c r="H173" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>1102020</v>
       </c>
@@ -31652,17 +32700,23 @@
       <c r="C174" s="3">
         <v>1</v>
       </c>
-      <c r="D174" s="3">
-        <v>1702020</v>
+      <c r="D174" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E174" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G174" s="3">
         <v>30</v>
       </c>
-      <c r="F174" s="3">
+      <c r="H174" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>1102020</v>
       </c>
@@ -31672,17 +32726,23 @@
       <c r="C175" s="3">
         <v>2</v>
       </c>
-      <c r="D175" s="3">
-        <v>1702020</v>
+      <c r="D175" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E175" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G175" s="3">
         <v>30</v>
       </c>
-      <c r="F175" s="3">
+      <c r="H175" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>1102020</v>
       </c>
@@ -31692,17 +32752,23 @@
       <c r="C176" s="3">
         <v>3</v>
       </c>
-      <c r="D176" s="3">
-        <v>1702020</v>
+      <c r="D176" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E176" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G176" s="3">
         <v>50</v>
       </c>
-      <c r="F176" s="3">
+      <c r="H176" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>1102020</v>
       </c>
@@ -31712,17 +32778,23 @@
       <c r="C177" s="3">
         <v>4</v>
       </c>
-      <c r="D177" s="3">
-        <v>1702020</v>
+      <c r="D177" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E177" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G177" s="3">
         <v>80</v>
       </c>
-      <c r="F177" s="3">
+      <c r="H177" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>1102020</v>
       </c>
@@ -31732,17 +32804,23 @@
       <c r="C178" s="3">
         <v>5</v>
       </c>
-      <c r="D178" s="3">
-        <v>1702020</v>
+      <c r="D178" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E178" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G178" s="3">
         <v>120</v>
       </c>
-      <c r="F178" s="3">
+      <c r="H178" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>1102021</v>
       </c>
@@ -31752,17 +32830,23 @@
       <c r="C179" s="3">
         <v>1</v>
       </c>
-      <c r="D179" s="3">
-        <v>1702021</v>
+      <c r="D179" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E179" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G179" s="3">
         <v>30</v>
       </c>
-      <c r="F179" s="3">
+      <c r="H179" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>1102021</v>
       </c>
@@ -31772,17 +32856,23 @@
       <c r="C180" s="3">
         <v>2</v>
       </c>
-      <c r="D180" s="3">
-        <v>1702021</v>
+      <c r="D180" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E180" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G180" s="3">
         <v>30</v>
       </c>
-      <c r="F180" s="3">
+      <c r="H180" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>1102021</v>
       </c>
@@ -31792,17 +32882,23 @@
       <c r="C181" s="3">
         <v>3</v>
       </c>
-      <c r="D181" s="3">
-        <v>1702021</v>
+      <c r="D181" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E181" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G181" s="3">
         <v>50</v>
       </c>
-      <c r="F181" s="3">
+      <c r="H181" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>1102021</v>
       </c>
@@ -31812,17 +32908,23 @@
       <c r="C182" s="3">
         <v>4</v>
       </c>
-      <c r="D182" s="3">
-        <v>1702021</v>
+      <c r="D182" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E182" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G182" s="3">
         <v>80</v>
       </c>
-      <c r="F182" s="3">
+      <c r="H182" s="3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>1102021</v>
       </c>
@@ -31832,13 +32934,19 @@
       <c r="C183" s="3">
         <v>5</v>
       </c>
-      <c r="D183" s="3">
-        <v>1702021</v>
+      <c r="D183" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="E183" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G183" s="3">
         <v>120</v>
       </c>
-      <c r="F183" s="3">
+      <c r="H183" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -6291,7 +6291,7 @@
   <dimension ref="A1:X327"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28181,8 +28181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FDFA2-E40C-4EEF-B930-66A331C92092}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B748CB4-82E0-4008-A770-F080FCA11395}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3318,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6602,7 +6602,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>77</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="770">
   <si>
     <t>sheet名</t>
   </si>
@@ -2029,14 +2029,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>黑尔·坎普</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南御夫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>北落师门</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2739,6 +2731,22 @@
   </si>
   <si>
     <t>当前版本的最强阵容，秒天秒地秒空气，你值得拥有。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南御夫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉拉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提亚马特</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3309,7 +3317,7 @@
         <v>412</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -3619,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U30:U31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3667,7 +3675,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3706,25 +3714,25 @@
         <v>425</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>12</v>
@@ -3772,10 +3780,10 @@
         <v>22</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>234</v>
@@ -3807,7 +3815,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E2" t="s">
         <v>479</v>
@@ -3897,7 +3905,7 @@
         <v>50</v>
       </c>
       <c r="AH2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AI2" t="s">
         <v>394</v>
@@ -3947,7 +3955,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -4052,10 +4060,10 @@
         <v>43</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>236</v>
@@ -4086,15 +4094,17 @@
       <c r="C4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H4" s="2">
         <v>101</v>
@@ -4173,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>89</v>
@@ -4188,10 +4198,10 @@
         <v>90</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AO4" s="3">
         <v>124.7</v>
@@ -4221,7 +4231,7 @@
         <v>1101002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -4233,7 +4243,7 @@
         <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H5" s="2">
         <v>107</v>
@@ -4327,7 +4337,7 @@
         <v>95</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="3">
@@ -4360,17 +4370,15 @@
       <c r="C6" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D6" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H6" s="2">
         <v>105</v>
@@ -4437,7 +4445,7 @@
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE6" s="3">
         <v>30</v>
@@ -4449,7 +4457,7 @@
         <v>30</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI6" s="2" t="s">
         <v>97</v>
@@ -4464,10 +4472,10 @@
         <v>98</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO6" s="3">
         <v>23.8</v>
@@ -4507,7 +4515,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H7" s="2">
         <v>102</v>
@@ -4601,10 +4609,10 @@
         <v>102</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AO7" s="3">
         <v>0</v>
@@ -4644,7 +4652,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H8" s="2">
         <v>104</v>
@@ -4738,10 +4746,10 @@
         <v>106</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AO8" s="3">
         <v>0</v>
@@ -4771,7 +4779,7 @@
         <v>1101006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -4781,7 +4789,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H9" s="2">
         <v>107</v>
@@ -4875,10 +4883,10 @@
         <v>110</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AO9" s="3">
         <v>0</v>
@@ -4915,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H10" s="2">
         <v>103</v>
@@ -4997,7 +5005,7 @@
         <v>45</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>112</v>
@@ -5012,10 +5020,10 @@
         <v>113</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AO10" s="3">
         <v>124.7</v>
@@ -5045,7 +5053,7 @@
         <v>1101008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>556</v>
+        <v>766</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -5055,7 +5063,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H11" s="2">
         <v>101</v>
@@ -5149,7 +5157,7 @@
         <v>117</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="3">
@@ -5180,7 +5188,7 @@
         <v>1101009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
@@ -5190,7 +5198,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H12" s="2">
         <v>101</v>
@@ -5257,7 +5265,7 @@
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AE12" s="3">
         <v>30</v>
@@ -5284,10 +5292,10 @@
         <v>121</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -5317,7 +5325,7 @@
         <v>1101010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -5327,7 +5335,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H13" s="2">
         <v>101</v>
@@ -5421,10 +5429,10 @@
         <v>125</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -5464,7 +5472,7 @@
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H14" s="2">
         <v>101</v>
@@ -5558,10 +5566,10 @@
         <v>129</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -5591,7 +5599,7 @@
         <v>1101012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>557</v>
+        <v>767</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
@@ -5601,7 +5609,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H15" s="2">
         <v>101</v>
@@ -5686,7 +5694,7 @@
         <v>131</v>
       </c>
       <c r="AJ15" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>131</v>
@@ -5695,7 +5703,7 @@
         <v>132</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2">
@@ -5725,8 +5733,8 @@
       <c r="B16" s="2">
         <v>1101013</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
+      <c r="C16" s="3" t="s">
+        <v>768</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -5736,7 +5744,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H16" s="2">
         <v>101</v>
@@ -5830,7 +5838,7 @@
         <v>136</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2">
@@ -5871,7 +5879,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H17" s="2">
         <v>101</v>
@@ -5965,10 +5973,10 @@
         <v>140</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -6008,7 +6016,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H18" s="2">
         <v>101</v>
@@ -6102,7 +6110,7 @@
         <v>144</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2">
@@ -6143,7 +6151,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H19" s="2">
         <v>103</v>
@@ -6235,10 +6243,10 @@
         <v>148</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AO19" s="2">
         <v>-172.3</v>
@@ -6278,7 +6286,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>420</v>
@@ -6343,7 +6351,7 @@
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AE20" s="3">
         <v>30</v>
@@ -6370,10 +6378,10 @@
         <v>152</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AO20" s="2">
         <v>-172.3</v>
@@ -6403,7 +6411,7 @@
         <v>1102003</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
@@ -6413,7 +6421,7 @@
         <v>69</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>421</v>
@@ -6505,10 +6513,10 @@
         <v>156</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AO21" s="3">
         <v>0</v>
@@ -6538,9 +6546,11 @@
         <v>1102004</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>561</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H22" s="2">
         <v>107</v>
@@ -6640,7 +6650,7 @@
         <v>160</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AN22" s="2"/>
       <c r="AO22" s="3">
@@ -6681,7 +6691,7 @@
         <v>71</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H23" s="2">
         <v>105</v>
@@ -6773,10 +6783,10 @@
         <v>164</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AO23" s="2">
         <v>0</v>
@@ -6816,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H24" s="2">
         <v>102</v>
@@ -6908,10 +6918,10 @@
         <v>168</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -6941,7 +6951,7 @@
         <v>1102007</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
@@ -6951,7 +6961,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H25" s="2">
         <v>101</v>
@@ -7016,7 +7026,7 @@
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AE25" s="3">
         <v>30</v>
@@ -7043,10 +7053,10 @@
         <v>172</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -7086,7 +7096,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H26" s="2">
         <v>101</v>
@@ -7178,10 +7188,10 @@
         <v>175</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AO26" s="2">
         <v>0</v>
@@ -7221,7 +7231,7 @@
         <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H27" s="2">
         <v>101</v>
@@ -7313,10 +7323,10 @@
         <v>179</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AO27" s="2">
         <v>0</v>
@@ -7346,7 +7356,7 @@
         <v>1102010</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2">
@@ -7356,7 +7366,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H28" s="2">
         <v>101</v>
@@ -7448,10 +7458,10 @@
         <v>183</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AO28" s="2">
         <v>0</v>
@@ -7491,7 +7501,7 @@
         <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>422</v>
@@ -7583,10 +7593,10 @@
         <v>187</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AO29" s="2">
         <v>0</v>
@@ -7626,7 +7636,7 @@
         <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H30" s="2">
         <v>101</v>
@@ -7718,10 +7728,10 @@
         <v>191</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AO30" s="2">
         <v>0</v>
@@ -7758,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H31" s="2">
         <v>101</v>
@@ -7853,7 +7863,7 @@
         <v>195</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2">
@@ -7894,7 +7904,7 @@
         <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H32" s="2">
         <v>101</v>
@@ -7986,10 +7996,10 @@
         <v>199</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AO32" s="2">
         <v>0</v>
@@ -8021,7 +8031,9 @@
       <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H33" s="2">
         <v>101</v>
@@ -8121,7 +8133,7 @@
         <v>203</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AN33" s="2"/>
       <c r="AO33" s="3">
@@ -8158,11 +8170,11 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>82</v>
+      <c r="F34" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H34" s="2">
         <v>101</v>
@@ -8254,10 +8266,10 @@
         <v>207</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AO34" s="2">
         <v>0</v>
@@ -8287,7 +8299,7 @@
         <v>1102017</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -8297,7 +8309,7 @@
         <v>83</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H35" s="2">
         <v>101</v>
@@ -8389,10 +8401,10 @@
         <v>211</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AO35" s="2">
         <v>0</v>
@@ -8422,7 +8434,7 @@
         <v>1102018</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2">
@@ -8432,7 +8444,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H36" s="2">
         <v>101</v>
@@ -8524,7 +8536,7 @@
         <v>215</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2">
@@ -8555,7 +8567,7 @@
         <v>1102019</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2">
@@ -8565,7 +8577,7 @@
         <v>85</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H37" s="2">
         <v>101</v>
@@ -8577,7 +8589,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -8657,7 +8669,7 @@
         <v>219</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2">
@@ -8677,7 +8689,7 @@
       </c>
       <c r="AT37" s="2">
         <f t="shared" si="0"/>
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="16.5" x14ac:dyDescent="0.2">
@@ -8698,7 +8710,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H38" s="2">
         <v>101</v>
@@ -8790,10 +8802,10 @@
         <v>223</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AO38" s="2">
         <v>0</v>
@@ -8833,7 +8845,7 @@
         <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H39" s="2">
         <v>101</v>
@@ -8925,7 +8937,7 @@
         <v>227</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2">
@@ -8956,17 +8968,17 @@
         <v>1101016</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H40" s="2">
         <v>105</v>
@@ -9033,7 +9045,7 @@
       </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE40" s="3">
         <v>30</v>
@@ -9045,7 +9057,7 @@
         <v>30</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI40" s="2" t="s">
         <v>97</v>
@@ -9060,10 +9072,10 @@
         <v>98</v>
       </c>
       <c r="AM40" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN40" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO40" s="3">
         <v>23.8</v>
@@ -9093,17 +9105,17 @@
         <v>1101017</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H41" s="2">
         <v>105</v>
@@ -9170,7 +9182,7 @@
       </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE41" s="3">
         <v>30</v>
@@ -9182,7 +9194,7 @@
         <v>30</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>97</v>
@@ -9197,10 +9209,10 @@
         <v>98</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO41" s="3">
         <v>23.8</v>
@@ -9230,17 +9242,17 @@
         <v>1101018</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H42" s="2">
         <v>105</v>
@@ -9307,7 +9319,7 @@
       </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE42" s="3">
         <v>30</v>
@@ -9319,7 +9331,7 @@
         <v>30</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>97</v>
@@ -9334,10 +9346,10 @@
         <v>98</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO42" s="3">
         <v>23.8</v>
@@ -9367,17 +9379,17 @@
         <v>1101019</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H43" s="2">
         <v>105</v>
@@ -9444,7 +9456,7 @@
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE43" s="3">
         <v>30</v>
@@ -9456,7 +9468,7 @@
         <v>30</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI43" s="2" t="s">
         <v>97</v>
@@ -9471,10 +9483,10 @@
         <v>98</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO43" s="3">
         <v>23.8</v>
@@ -9504,17 +9516,17 @@
         <v>1101020</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H44" s="2">
         <v>105</v>
@@ -9581,7 +9593,7 @@
       </c>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE44" s="3">
         <v>30</v>
@@ -9593,7 +9605,7 @@
         <v>30</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI44" s="2" t="s">
         <v>97</v>
@@ -9608,10 +9620,10 @@
         <v>98</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO44" s="3">
         <v>23.8</v>
@@ -9641,17 +9653,17 @@
         <v>1101021</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H45" s="2">
         <v>105</v>
@@ -9718,7 +9730,7 @@
       </c>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE45" s="3">
         <v>30</v>
@@ -9730,7 +9742,7 @@
         <v>30</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AI45" s="2" t="s">
         <v>97</v>
@@ -9745,10 +9757,10 @@
         <v>98</v>
       </c>
       <c r="AM45" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AO45" s="3">
         <v>23.8</v>
@@ -9781,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10131,13 +10143,13 @@
         <v>77</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R5" s="2">
         <v>750</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T5" s="2">
         <v>60</v>
@@ -10197,19 +10209,19 @@
         <v>110</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R6" s="2">
         <v>4000</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T6" s="2">
         <v>150</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V6" s="2">
         <v>35</v>
@@ -10267,19 +10279,19 @@
         <v>132</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R7" s="2">
         <v>5500</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T7" s="2">
         <v>90</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V7" s="2">
         <v>75</v>
@@ -10337,19 +10349,19 @@
         <v>165</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R8" s="2">
         <v>8000</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T8" s="2">
         <v>210</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V8" s="2">
         <v>50</v>
@@ -10407,19 +10419,19 @@
         <v>187</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R9" s="2">
         <v>11000</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T9" s="2">
         <v>130</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V9" s="2">
         <v>115</v>
@@ -10477,19 +10489,19 @@
         <v>220</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R10" s="2">
         <v>13000</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T10" s="2">
         <v>310</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V10" s="2">
         <v>60</v>
@@ -10547,25 +10559,25 @@
         <v>275</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R11" s="2">
         <v>23000</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T11" s="2">
         <v>110</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V11" s="2">
         <v>80</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X11" s="2">
         <v>20</v>
@@ -10621,25 +10633,25 @@
         <v>330</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R12" s="2">
         <v>46000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T12" s="2">
         <v>240</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V12" s="2">
         <v>105</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X12" s="2">
         <v>75</v>
@@ -10752,13 +10764,13 @@
         <v>70</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R14" s="2">
         <v>600</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T14" s="2">
         <v>50</v>
@@ -10818,19 +10830,19 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R15" s="2">
         <v>3500</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T15" s="2">
         <v>120</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V15" s="2">
         <v>30</v>
@@ -10888,19 +10900,19 @@
         <v>120</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R16" s="2">
         <v>4500</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T16" s="2">
         <v>70</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V16" s="2">
         <v>60</v>
@@ -10958,19 +10970,19 @@
         <v>150</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R17" s="2">
         <v>6500</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T17" s="2">
         <v>160</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V17" s="2">
         <v>40</v>
@@ -11028,19 +11040,19 @@
         <v>170</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R18" s="2">
         <v>9000</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T18" s="2">
         <v>100</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V18" s="2">
         <v>90</v>
@@ -11098,19 +11110,19 @@
         <v>200</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R19" s="2">
         <v>10000</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T19" s="2">
         <v>240</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V19" s="2">
         <v>50</v>
@@ -11168,25 +11180,25 @@
         <v>250</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R20" s="2">
         <v>19000</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T20" s="2">
         <v>80</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V20" s="2">
         <v>65</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X20" s="2">
         <v>15</v>
@@ -11242,25 +11254,25 @@
         <v>300</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R21" s="2">
         <v>37000</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T21" s="2">
         <v>190</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V21" s="2">
         <v>85</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X21" s="2">
         <v>60</v>
@@ -11373,13 +11385,13 @@
         <v>77</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R23" s="2">
         <v>750</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T23" s="2">
         <v>60</v>
@@ -11439,19 +11451,19 @@
         <v>110</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R24" s="2">
         <v>4000</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T24" s="2">
         <v>150</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V24" s="2">
         <v>35</v>
@@ -11509,19 +11521,19 @@
         <v>132</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R25" s="2">
         <v>5500</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T25" s="2">
         <v>90</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V25" s="2">
         <v>75</v>
@@ -11579,19 +11591,19 @@
         <v>165</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R26" s="2">
         <v>8000</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T26" s="2">
         <v>210</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V26" s="2">
         <v>50</v>
@@ -11649,19 +11661,19 @@
         <v>187</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R27" s="2">
         <v>11000</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T27" s="2">
         <v>130</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V27" s="2">
         <v>115</v>
@@ -11719,19 +11731,19 @@
         <v>220</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R28" s="2">
         <v>13000</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T28" s="2">
         <v>310</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V28" s="2">
         <v>60</v>
@@ -11789,25 +11801,25 @@
         <v>275</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R29" s="2">
         <v>23000</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T29" s="2">
         <v>110</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V29" s="2">
         <v>80</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X29" s="2">
         <v>20</v>
@@ -11863,25 +11875,25 @@
         <v>330</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R30" s="2">
         <v>46000</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T30" s="2">
         <v>240</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V30" s="2">
         <v>105</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X30" s="2">
         <v>75</v>
@@ -11994,13 +12006,13 @@
         <v>88</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R32" s="2">
         <v>950</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T32" s="2">
         <v>80</v>
@@ -12060,19 +12072,19 @@
         <v>125</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R33" s="2">
         <v>5000</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T33" s="2">
         <v>180</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V33" s="2">
         <v>45</v>
@@ -12130,19 +12142,19 @@
         <v>150</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R34" s="2">
         <v>7000</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T34" s="2">
         <v>110</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V34" s="2">
         <v>95</v>
@@ -12200,19 +12212,19 @@
         <v>188</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R35" s="2">
         <v>10000</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T35" s="2">
         <v>260</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V35" s="2">
         <v>65</v>
@@ -12270,19 +12282,19 @@
         <v>213</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R36" s="2">
         <v>14000</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T36" s="2">
         <v>160</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V36" s="2">
         <v>145</v>
@@ -12340,19 +12352,19 @@
         <v>250</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R37" s="2">
         <v>16000</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T37" s="2">
         <v>380</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V37" s="2">
         <v>75</v>
@@ -12410,25 +12422,25 @@
         <v>313</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R38" s="2">
         <v>29000</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T38" s="2">
         <v>130</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V38" s="2">
         <v>100</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X38" s="2">
         <v>25</v>
@@ -12484,25 +12496,25 @@
         <v>375</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R39" s="2">
         <v>57000</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T39" s="2">
         <v>300</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V39" s="2">
         <v>130</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X39" s="2">
         <v>95</v>
@@ -12615,13 +12627,13 @@
         <v>88</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R41" s="2">
         <v>950</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T41" s="2">
         <v>80</v>
@@ -12681,19 +12693,19 @@
         <v>125</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R42" s="2">
         <v>5000</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T42" s="2">
         <v>180</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V42" s="2">
         <v>45</v>
@@ -12751,19 +12763,19 @@
         <v>150</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R43" s="2">
         <v>7000</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T43" s="2">
         <v>110</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V43" s="2">
         <v>95</v>
@@ -12821,19 +12833,19 @@
         <v>188</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R44" s="2">
         <v>10000</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T44" s="2">
         <v>260</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V44" s="2">
         <v>65</v>
@@ -12891,19 +12903,19 @@
         <v>213</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R45" s="2">
         <v>14000</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T45" s="2">
         <v>160</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V45" s="2">
         <v>145</v>
@@ -12961,19 +12973,19 @@
         <v>250</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R46" s="2">
         <v>16000</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T46" s="2">
         <v>380</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V46" s="2">
         <v>75</v>
@@ -13031,25 +13043,25 @@
         <v>313</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R47" s="2">
         <v>29000</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T47" s="2">
         <v>130</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V47" s="2">
         <v>100</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X47" s="2">
         <v>25</v>
@@ -13105,25 +13117,25 @@
         <v>375</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R48" s="2">
         <v>57000</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T48" s="2">
         <v>300</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V48" s="2">
         <v>130</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X48" s="2">
         <v>95</v>
@@ -13236,13 +13248,13 @@
         <v>77</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R50" s="2">
         <v>750</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T50" s="2">
         <v>60</v>
@@ -13302,19 +13314,19 @@
         <v>110</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R51" s="2">
         <v>4000</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T51" s="2">
         <v>150</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V51" s="2">
         <v>35</v>
@@ -13372,19 +13384,19 @@
         <v>132</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R52" s="2">
         <v>5500</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T52" s="2">
         <v>90</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V52" s="2">
         <v>75</v>
@@ -13442,19 +13454,19 @@
         <v>165</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R53" s="2">
         <v>8000</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T53" s="2">
         <v>210</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V53" s="2">
         <v>50</v>
@@ -13512,19 +13524,19 @@
         <v>187</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R54" s="2">
         <v>11000</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T54" s="2">
         <v>130</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V54" s="2">
         <v>115</v>
@@ -13582,19 +13594,19 @@
         <v>220</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R55" s="2">
         <v>13000</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T55" s="2">
         <v>310</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V55" s="2">
         <v>60</v>
@@ -13652,25 +13664,25 @@
         <v>275</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R56" s="2">
         <v>23000</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T56" s="2">
         <v>110</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V56" s="2">
         <v>80</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X56" s="2">
         <v>20</v>
@@ -13726,25 +13738,25 @@
         <v>330</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R57" s="2">
         <v>46000</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T57" s="2">
         <v>240</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V57" s="2">
         <v>105</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X57" s="2">
         <v>75</v>
@@ -13857,13 +13869,13 @@
         <v>88</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R59" s="2">
         <v>950</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T59" s="2">
         <v>80</v>
@@ -13923,19 +13935,19 @@
         <v>125</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R60" s="2">
         <v>5000</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T60" s="2">
         <v>180</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V60" s="2">
         <v>45</v>
@@ -13993,19 +14005,19 @@
         <v>150</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R61" s="2">
         <v>7000</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T61" s="2">
         <v>110</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V61" s="2">
         <v>95</v>
@@ -14063,19 +14075,19 @@
         <v>188</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R62" s="2">
         <v>10000</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T62" s="2">
         <v>260</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V62" s="2">
         <v>65</v>
@@ -14133,19 +14145,19 @@
         <v>213</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R63" s="2">
         <v>14000</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T63" s="2">
         <v>160</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V63" s="2">
         <v>145</v>
@@ -14203,19 +14215,19 @@
         <v>250</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R64" s="2">
         <v>16000</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T64" s="2">
         <v>380</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V64" s="2">
         <v>75</v>
@@ -14273,25 +14285,25 @@
         <v>313</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R65" s="2">
         <v>29000</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T65" s="2">
         <v>130</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V65" s="2">
         <v>100</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X65" s="2">
         <v>25</v>
@@ -14347,25 +14359,25 @@
         <v>375</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R66" s="2">
         <v>57000</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T66" s="2">
         <v>300</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V66" s="2">
         <v>130</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X66" s="2">
         <v>95</v>
@@ -14478,13 +14490,13 @@
         <v>70</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R68" s="2">
         <v>600</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T68" s="2">
         <v>50</v>
@@ -14544,19 +14556,19 @@
         <v>100</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R69" s="2">
         <v>3500</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T69" s="2">
         <v>120</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V69" s="2">
         <v>30</v>
@@ -14614,19 +14626,19 @@
         <v>120</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R70" s="2">
         <v>4500</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T70" s="2">
         <v>70</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V70" s="2">
         <v>60</v>
@@ -14684,19 +14696,19 @@
         <v>150</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R71" s="2">
         <v>6500</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T71" s="2">
         <v>160</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V71" s="2">
         <v>40</v>
@@ -14754,19 +14766,19 @@
         <v>170</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R72" s="2">
         <v>9000</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T72" s="2">
         <v>100</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V72" s="2">
         <v>90</v>
@@ -14824,19 +14836,19 @@
         <v>200</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R73" s="2">
         <v>10000</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T73" s="2">
         <v>240</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V73" s="2">
         <v>50</v>
@@ -14894,25 +14906,25 @@
         <v>250</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R74" s="2">
         <v>19000</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T74" s="2">
         <v>80</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V74" s="2">
         <v>65</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X74" s="2">
         <v>15</v>
@@ -14968,25 +14980,25 @@
         <v>300</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R75" s="2">
         <v>37000</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T75" s="2">
         <v>190</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V75" s="2">
         <v>85</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X75" s="2">
         <v>60</v>
@@ -15099,13 +15111,13 @@
         <v>77</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R77" s="2">
         <v>750</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T77" s="2">
         <v>60</v>
@@ -15165,19 +15177,19 @@
         <v>110</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R78" s="2">
         <v>4000</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T78" s="2">
         <v>150</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V78" s="2">
         <v>35</v>
@@ -15235,19 +15247,19 @@
         <v>132</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R79" s="2">
         <v>5500</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T79" s="2">
         <v>90</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V79" s="2">
         <v>75</v>
@@ -15305,19 +15317,19 @@
         <v>165</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R80" s="2">
         <v>8000</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T80" s="2">
         <v>210</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V80" s="2">
         <v>50</v>
@@ -15375,19 +15387,19 @@
         <v>187</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R81" s="2">
         <v>11000</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T81" s="2">
         <v>130</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V81" s="2">
         <v>115</v>
@@ -15445,19 +15457,19 @@
         <v>220</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R82" s="2">
         <v>13000</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T82" s="2">
         <v>310</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V82" s="2">
         <v>60</v>
@@ -15515,25 +15527,25 @@
         <v>275</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R83" s="2">
         <v>23000</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T83" s="2">
         <v>110</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V83" s="2">
         <v>80</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X83" s="2">
         <v>20</v>
@@ -15589,25 +15601,25 @@
         <v>330</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R84" s="2">
         <v>46000</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T84" s="2">
         <v>240</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V84" s="2">
         <v>105</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X84" s="2">
         <v>75</v>
@@ -15720,13 +15732,13 @@
         <v>88</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R86" s="2">
         <v>950</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T86" s="2">
         <v>80</v>
@@ -15786,19 +15798,19 @@
         <v>125</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R87" s="2">
         <v>5000</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T87" s="2">
         <v>180</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V87" s="2">
         <v>45</v>
@@ -15856,19 +15868,19 @@
         <v>150</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R88" s="2">
         <v>7000</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T88" s="2">
         <v>110</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V88" s="2">
         <v>95</v>
@@ -15926,19 +15938,19 @@
         <v>188</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R89" s="2">
         <v>10000</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T89" s="2">
         <v>260</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V89" s="2">
         <v>65</v>
@@ -15996,19 +16008,19 @@
         <v>213</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R90" s="2">
         <v>14000</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T90" s="2">
         <v>160</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V90" s="2">
         <v>145</v>
@@ -16066,19 +16078,19 @@
         <v>250</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R91" s="2">
         <v>16000</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T91" s="2">
         <v>380</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V91" s="2">
         <v>75</v>
@@ -16136,25 +16148,25 @@
         <v>313</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R92" s="2">
         <v>29000</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T92" s="2">
         <v>130</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V92" s="2">
         <v>100</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X92" s="2">
         <v>25</v>
@@ -16210,25 +16222,25 @@
         <v>375</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R93" s="2">
         <v>57000</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T93" s="2">
         <v>300</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V93" s="2">
         <v>130</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X93" s="2">
         <v>95</v>
@@ -16341,13 +16353,13 @@
         <v>77</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R95" s="2">
         <v>750</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T95" s="2">
         <v>60</v>
@@ -16407,19 +16419,19 @@
         <v>110</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R96" s="2">
         <v>4000</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T96" s="2">
         <v>150</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V96" s="2">
         <v>35</v>
@@ -16477,19 +16489,19 @@
         <v>132</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R97" s="2">
         <v>5500</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T97" s="2">
         <v>90</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V97" s="2">
         <v>75</v>
@@ -16547,19 +16559,19 @@
         <v>165</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R98" s="2">
         <v>8000</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T98" s="2">
         <v>210</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V98" s="2">
         <v>50</v>
@@ -16617,19 +16629,19 @@
         <v>187</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R99" s="2">
         <v>11000</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T99" s="2">
         <v>130</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V99" s="2">
         <v>115</v>
@@ -16687,19 +16699,19 @@
         <v>220</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R100" s="2">
         <v>13000</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T100" s="2">
         <v>310</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V100" s="2">
         <v>60</v>
@@ -16757,25 +16769,25 @@
         <v>275</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R101" s="2">
         <v>23000</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T101" s="2">
         <v>110</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V101" s="2">
         <v>80</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X101" s="2">
         <v>20</v>
@@ -16831,25 +16843,25 @@
         <v>330</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R102" s="2">
         <v>46000</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T102" s="2">
         <v>240</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V102" s="2">
         <v>105</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X102" s="2">
         <v>75</v>
@@ -16962,13 +16974,13 @@
         <v>70</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R104" s="2">
         <v>600</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T104" s="2">
         <v>50</v>
@@ -17028,19 +17040,19 @@
         <v>100</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R105" s="2">
         <v>3500</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T105" s="2">
         <v>120</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V105" s="2">
         <v>30</v>
@@ -17098,19 +17110,19 @@
         <v>120</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R106" s="2">
         <v>4500</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T106" s="2">
         <v>70</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V106" s="2">
         <v>60</v>
@@ -17168,19 +17180,19 @@
         <v>150</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R107" s="2">
         <v>6500</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T107" s="2">
         <v>160</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V107" s="2">
         <v>40</v>
@@ -17238,19 +17250,19 @@
         <v>170</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R108" s="2">
         <v>9000</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T108" s="2">
         <v>100</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V108" s="2">
         <v>90</v>
@@ -17308,19 +17320,19 @@
         <v>200</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R109" s="2">
         <v>10000</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T109" s="2">
         <v>240</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V109" s="2">
         <v>50</v>
@@ -17378,25 +17390,25 @@
         <v>250</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R110" s="2">
         <v>19000</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T110" s="2">
         <v>80</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V110" s="2">
         <v>65</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X110" s="2">
         <v>15</v>
@@ -17452,25 +17464,25 @@
         <v>300</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R111" s="2">
         <v>37000</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T111" s="2">
         <v>190</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V111" s="2">
         <v>85</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X111" s="2">
         <v>60</v>
@@ -17583,13 +17595,13 @@
         <v>70</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R113" s="2">
         <v>600</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T113" s="2">
         <v>50</v>
@@ -17649,19 +17661,19 @@
         <v>100</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R114" s="2">
         <v>3500</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T114" s="2">
         <v>120</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V114" s="2">
         <v>30</v>
@@ -17719,19 +17731,19 @@
         <v>120</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R115" s="2">
         <v>4500</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T115" s="2">
         <v>70</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V115" s="2">
         <v>60</v>
@@ -17789,19 +17801,19 @@
         <v>150</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R116" s="2">
         <v>6500</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T116" s="2">
         <v>160</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V116" s="2">
         <v>40</v>
@@ -17859,19 +17871,19 @@
         <v>170</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R117" s="2">
         <v>9000</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T117" s="2">
         <v>100</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V117" s="2">
         <v>90</v>
@@ -17929,19 +17941,19 @@
         <v>200</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R118" s="2">
         <v>10000</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T118" s="2">
         <v>240</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V118" s="2">
         <v>50</v>
@@ -17999,25 +18011,25 @@
         <v>250</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R119" s="2">
         <v>19000</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T119" s="2">
         <v>80</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V119" s="2">
         <v>65</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X119" s="2">
         <v>15</v>
@@ -18073,25 +18085,25 @@
         <v>300</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R120" s="2">
         <v>37000</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T120" s="2">
         <v>190</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V120" s="2">
         <v>85</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X120" s="2">
         <v>60</v>
@@ -18204,13 +18216,13 @@
         <v>77</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R122" s="2">
         <v>750</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T122" s="2">
         <v>60</v>
@@ -18270,19 +18282,19 @@
         <v>110</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R123" s="2">
         <v>4000</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T123" s="2">
         <v>150</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V123" s="2">
         <v>35</v>
@@ -18340,19 +18352,19 @@
         <v>132</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R124" s="2">
         <v>5500</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T124" s="2">
         <v>90</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V124" s="2">
         <v>75</v>
@@ -18410,19 +18422,19 @@
         <v>165</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R125" s="2">
         <v>8000</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T125" s="2">
         <v>210</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V125" s="2">
         <v>50</v>
@@ -18480,19 +18492,19 @@
         <v>187</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R126" s="2">
         <v>11000</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T126" s="2">
         <v>130</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V126" s="2">
         <v>115</v>
@@ -18550,19 +18562,19 @@
         <v>220</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R127" s="2">
         <v>13000</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T127" s="2">
         <v>310</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V127" s="2">
         <v>60</v>
@@ -18620,25 +18632,25 @@
         <v>275</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R128" s="2">
         <v>23000</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T128" s="2">
         <v>110</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V128" s="2">
         <v>80</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X128" s="2">
         <v>20</v>
@@ -18694,25 +18706,25 @@
         <v>330</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R129" s="2">
         <v>46000</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T129" s="2">
         <v>240</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V129" s="2">
         <v>105</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X129" s="2">
         <v>75</v>
@@ -18825,13 +18837,13 @@
         <v>77</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R131" s="2">
         <v>750</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T131" s="2">
         <v>60</v>
@@ -18891,19 +18903,19 @@
         <v>110</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R132" s="2">
         <v>4000</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T132" s="2">
         <v>150</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V132" s="2">
         <v>35</v>
@@ -18961,19 +18973,19 @@
         <v>132</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R133" s="2">
         <v>5500</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T133" s="2">
         <v>90</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V133" s="2">
         <v>75</v>
@@ -19031,19 +19043,19 @@
         <v>165</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R134" s="2">
         <v>8000</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T134" s="2">
         <v>210</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V134" s="2">
         <v>50</v>
@@ -19101,19 +19113,19 @@
         <v>187</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R135" s="2">
         <v>11000</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T135" s="2">
         <v>130</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V135" s="2">
         <v>115</v>
@@ -19171,19 +19183,19 @@
         <v>220</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R136" s="2">
         <v>13000</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T136" s="2">
         <v>310</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V136" s="2">
         <v>60</v>
@@ -19241,25 +19253,25 @@
         <v>275</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R137" s="2">
         <v>23000</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T137" s="2">
         <v>110</v>
       </c>
       <c r="U137" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V137" s="2">
         <v>80</v>
       </c>
       <c r="W137" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X137" s="2">
         <v>20</v>
@@ -19315,25 +19327,25 @@
         <v>330</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R138" s="2">
         <v>46000</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T138" s="2">
         <v>240</v>
       </c>
       <c r="U138" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V138" s="2">
         <v>105</v>
       </c>
       <c r="W138" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X138" s="2">
         <v>75</v>
@@ -19446,13 +19458,13 @@
         <v>88</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R140" s="2">
         <v>950</v>
       </c>
       <c r="S140" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T140" s="2">
         <v>80</v>
@@ -19512,19 +19524,19 @@
         <v>125</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R141" s="2">
         <v>5000</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T141" s="2">
         <v>180</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V141" s="2">
         <v>45</v>
@@ -19582,19 +19594,19 @@
         <v>150</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R142" s="2">
         <v>7000</v>
       </c>
       <c r="S142" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T142" s="2">
         <v>110</v>
       </c>
       <c r="U142" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V142" s="2">
         <v>95</v>
@@ -19652,19 +19664,19 @@
         <v>188</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R143" s="2">
         <v>10000</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T143" s="2">
         <v>260</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V143" s="2">
         <v>65</v>
@@ -19722,19 +19734,19 @@
         <v>213</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R144" s="2">
         <v>14000</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T144" s="2">
         <v>160</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V144" s="2">
         <v>145</v>
@@ -19792,19 +19804,19 @@
         <v>250</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R145" s="2">
         <v>16000</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T145" s="2">
         <v>380</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V145" s="2">
         <v>75</v>
@@ -19862,25 +19874,25 @@
         <v>313</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R146" s="2">
         <v>29000</v>
       </c>
       <c r="S146" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T146" s="2">
         <v>130</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V146" s="2">
         <v>100</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X146" s="2">
         <v>25</v>
@@ -19936,25 +19948,25 @@
         <v>375</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R147" s="2">
         <v>57000</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T147" s="2">
         <v>300</v>
       </c>
       <c r="U147" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V147" s="2">
         <v>130</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X147" s="2">
         <v>95</v>
@@ -20067,13 +20079,13 @@
         <v>77</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R149" s="2">
         <v>750</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T149" s="2">
         <v>60</v>
@@ -20133,19 +20145,19 @@
         <v>110</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R150" s="2">
         <v>4000</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T150" s="2">
         <v>150</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V150" s="2">
         <v>35</v>
@@ -20203,19 +20215,19 @@
         <v>132</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R151" s="2">
         <v>5500</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T151" s="2">
         <v>90</v>
       </c>
       <c r="U151" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V151" s="2">
         <v>75</v>
@@ -20273,19 +20285,19 @@
         <v>165</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R152" s="2">
         <v>8000</v>
       </c>
       <c r="S152" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T152" s="2">
         <v>210</v>
       </c>
       <c r="U152" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V152" s="2">
         <v>50</v>
@@ -20343,19 +20355,19 @@
         <v>187</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R153" s="2">
         <v>11000</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T153" s="2">
         <v>130</v>
       </c>
       <c r="U153" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V153" s="2">
         <v>115</v>
@@ -20413,19 +20425,19 @@
         <v>220</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R154" s="2">
         <v>13000</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T154" s="2">
         <v>310</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V154" s="2">
         <v>60</v>
@@ -20483,25 +20495,25 @@
         <v>275</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R155" s="2">
         <v>23000</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T155" s="2">
         <v>110</v>
       </c>
       <c r="U155" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V155" s="2">
         <v>80</v>
       </c>
       <c r="W155" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X155" s="2">
         <v>20</v>
@@ -20557,25 +20569,25 @@
         <v>330</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R156" s="2">
         <v>46000</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T156" s="2">
         <v>240</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V156" s="2">
         <v>105</v>
       </c>
       <c r="W156" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X156" s="2">
         <v>75</v>
@@ -20688,13 +20700,13 @@
         <v>77</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R158" s="2">
         <v>750</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T158" s="2">
         <v>60</v>
@@ -20754,19 +20766,19 @@
         <v>110</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R159" s="2">
         <v>4000</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T159" s="2">
         <v>150</v>
       </c>
       <c r="U159" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V159" s="2">
         <v>35</v>
@@ -20824,19 +20836,19 @@
         <v>132</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R160" s="2">
         <v>5500</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T160" s="2">
         <v>90</v>
       </c>
       <c r="U160" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V160" s="2">
         <v>75</v>
@@ -20894,19 +20906,19 @@
         <v>165</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R161" s="2">
         <v>8000</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T161" s="2">
         <v>210</v>
       </c>
       <c r="U161" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V161" s="2">
         <v>50</v>
@@ -20964,19 +20976,19 @@
         <v>187</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R162" s="2">
         <v>11000</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T162" s="2">
         <v>130</v>
       </c>
       <c r="U162" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V162" s="2">
         <v>115</v>
@@ -21034,19 +21046,19 @@
         <v>220</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R163" s="2">
         <v>13000</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T163" s="2">
         <v>310</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V163" s="2">
         <v>60</v>
@@ -21104,25 +21116,25 @@
         <v>275</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R164" s="2">
         <v>23000</v>
       </c>
       <c r="S164" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T164" s="2">
         <v>110</v>
       </c>
       <c r="U164" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V164" s="2">
         <v>80</v>
       </c>
       <c r="W164" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X164" s="2">
         <v>20</v>
@@ -21178,25 +21190,25 @@
         <v>330</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R165" s="2">
         <v>46000</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T165" s="2">
         <v>240</v>
       </c>
       <c r="U165" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V165" s="2">
         <v>105</v>
       </c>
       <c r="W165" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X165" s="2">
         <v>75</v>
@@ -21309,13 +21321,13 @@
         <v>70</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R167" s="2">
         <v>600</v>
       </c>
       <c r="S167" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T167" s="2">
         <v>50</v>
@@ -21375,19 +21387,19 @@
         <v>100</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R168" s="2">
         <v>3500</v>
       </c>
       <c r="S168" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T168" s="2">
         <v>120</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V168" s="2">
         <v>30</v>
@@ -21445,19 +21457,19 @@
         <v>120</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R169" s="2">
         <v>4500</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T169" s="2">
         <v>70</v>
       </c>
       <c r="U169" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V169" s="2">
         <v>60</v>
@@ -21515,19 +21527,19 @@
         <v>150</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R170" s="2">
         <v>6500</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T170" s="2">
         <v>160</v>
       </c>
       <c r="U170" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V170" s="2">
         <v>40</v>
@@ -21585,19 +21597,19 @@
         <v>170</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R171" s="2">
         <v>9000</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T171" s="2">
         <v>100</v>
       </c>
       <c r="U171" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V171" s="2">
         <v>90</v>
@@ -21655,19 +21667,19 @@
         <v>200</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R172" s="2">
         <v>10000</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T172" s="2">
         <v>240</v>
       </c>
       <c r="U172" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V172" s="2">
         <v>50</v>
@@ -21725,25 +21737,25 @@
         <v>250</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R173" s="2">
         <v>19000</v>
       </c>
       <c r="S173" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T173" s="2">
         <v>80</v>
       </c>
       <c r="U173" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V173" s="2">
         <v>65</v>
       </c>
       <c r="W173" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X173" s="2">
         <v>15</v>
@@ -21799,25 +21811,25 @@
         <v>300</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R174" s="2">
         <v>37000</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T174" s="2">
         <v>190</v>
       </c>
       <c r="U174" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V174" s="2">
         <v>85</v>
       </c>
       <c r="W174" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X174" s="2">
         <v>60</v>
@@ -21930,13 +21942,13 @@
         <v>77</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R176" s="2">
         <v>750</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T176" s="2">
         <v>60</v>
@@ -21996,19 +22008,19 @@
         <v>110</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R177" s="2">
         <v>4000</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T177" s="2">
         <v>150</v>
       </c>
       <c r="U177" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V177" s="2">
         <v>35</v>
@@ -22066,19 +22078,19 @@
         <v>132</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R178" s="2">
         <v>5500</v>
       </c>
       <c r="S178" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T178" s="2">
         <v>90</v>
       </c>
       <c r="U178" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V178" s="2">
         <v>75</v>
@@ -22136,19 +22148,19 @@
         <v>165</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R179" s="2">
         <v>8000</v>
       </c>
       <c r="S179" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T179" s="2">
         <v>210</v>
       </c>
       <c r="U179" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V179" s="2">
         <v>50</v>
@@ -22206,19 +22218,19 @@
         <v>187</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R180" s="2">
         <v>11000</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T180" s="2">
         <v>130</v>
       </c>
       <c r="U180" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V180" s="2">
         <v>115</v>
@@ -22276,19 +22288,19 @@
         <v>220</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R181" s="2">
         <v>13000</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T181" s="2">
         <v>310</v>
       </c>
       <c r="U181" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V181" s="2">
         <v>60</v>
@@ -22346,25 +22358,25 @@
         <v>275</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R182" s="2">
         <v>23000</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T182" s="2">
         <v>110</v>
       </c>
       <c r="U182" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V182" s="2">
         <v>80</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X182" s="2">
         <v>20</v>
@@ -22420,25 +22432,25 @@
         <v>330</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R183" s="2">
         <v>46000</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T183" s="2">
         <v>240</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V183" s="2">
         <v>105</v>
       </c>
       <c r="W183" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X183" s="2">
         <v>75</v>
@@ -22551,13 +22563,13 @@
         <v>88</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R185" s="2">
         <v>950</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T185" s="2">
         <v>80</v>
@@ -22617,19 +22629,19 @@
         <v>125</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R186" s="2">
         <v>5000</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T186" s="2">
         <v>180</v>
       </c>
       <c r="U186" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V186" s="2">
         <v>45</v>
@@ -22687,19 +22699,19 @@
         <v>150</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R187" s="2">
         <v>7000</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T187" s="2">
         <v>110</v>
       </c>
       <c r="U187" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V187" s="2">
         <v>95</v>
@@ -22757,19 +22769,19 @@
         <v>188</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R188" s="2">
         <v>10000</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T188" s="2">
         <v>260</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V188" s="2">
         <v>65</v>
@@ -22827,19 +22839,19 @@
         <v>213</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R189" s="2">
         <v>14000</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T189" s="2">
         <v>160</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V189" s="2">
         <v>145</v>
@@ -22897,19 +22909,19 @@
         <v>250</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R190" s="2">
         <v>16000</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T190" s="2">
         <v>380</v>
       </c>
       <c r="U190" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V190" s="2">
         <v>75</v>
@@ -22967,25 +22979,25 @@
         <v>313</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R191" s="2">
         <v>29000</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T191" s="2">
         <v>130</v>
       </c>
       <c r="U191" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V191" s="2">
         <v>100</v>
       </c>
       <c r="W191" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X191" s="2">
         <v>25</v>
@@ -23041,25 +23053,25 @@
         <v>375</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R192" s="2">
         <v>57000</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T192" s="2">
         <v>300</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V192" s="2">
         <v>130</v>
       </c>
       <c r="W192" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X192" s="2">
         <v>95</v>
@@ -23172,13 +23184,13 @@
         <v>77</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R194" s="2">
         <v>750</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T194" s="2">
         <v>60</v>
@@ -23238,19 +23250,19 @@
         <v>110</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R195" s="2">
         <v>4000</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T195" s="2">
         <v>150</v>
       </c>
       <c r="U195" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V195" s="2">
         <v>35</v>
@@ -23308,19 +23320,19 @@
         <v>132</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R196" s="2">
         <v>5500</v>
       </c>
       <c r="S196" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T196" s="2">
         <v>90</v>
       </c>
       <c r="U196" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V196" s="2">
         <v>75</v>
@@ -23378,19 +23390,19 @@
         <v>165</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R197" s="2">
         <v>8000</v>
       </c>
       <c r="S197" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T197" s="2">
         <v>210</v>
       </c>
       <c r="U197" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V197" s="2">
         <v>50</v>
@@ -23448,19 +23460,19 @@
         <v>187</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R198" s="2">
         <v>11000</v>
       </c>
       <c r="S198" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T198" s="2">
         <v>130</v>
       </c>
       <c r="U198" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V198" s="2">
         <v>115</v>
@@ -23518,19 +23530,19 @@
         <v>220</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R199" s="2">
         <v>13000</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T199" s="2">
         <v>310</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V199" s="2">
         <v>60</v>
@@ -23588,25 +23600,25 @@
         <v>275</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R200" s="2">
         <v>23000</v>
       </c>
       <c r="S200" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T200" s="2">
         <v>110</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V200" s="2">
         <v>80</v>
       </c>
       <c r="W200" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X200" s="2">
         <v>20</v>
@@ -23662,25 +23674,25 @@
         <v>330</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R201" s="2">
         <v>46000</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T201" s="2">
         <v>240</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V201" s="2">
         <v>105</v>
       </c>
       <c r="W201" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X201" s="2">
         <v>75</v>
@@ -23793,13 +23805,13 @@
         <v>88</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R203" s="2">
         <v>950</v>
       </c>
       <c r="S203" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T203" s="2">
         <v>80</v>
@@ -23859,19 +23871,19 @@
         <v>125</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R204" s="2">
         <v>5000</v>
       </c>
       <c r="S204" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T204" s="2">
         <v>180</v>
       </c>
       <c r="U204" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V204" s="2">
         <v>45</v>
@@ -23929,19 +23941,19 @@
         <v>150</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R205" s="2">
         <v>7000</v>
       </c>
       <c r="S205" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T205" s="2">
         <v>110</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V205" s="2">
         <v>95</v>
@@ -23999,19 +24011,19 @@
         <v>188</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R206" s="2">
         <v>10000</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T206" s="2">
         <v>260</v>
       </c>
       <c r="U206" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V206" s="2">
         <v>65</v>
@@ -24069,19 +24081,19 @@
         <v>213</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R207" s="2">
         <v>14000</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T207" s="2">
         <v>160</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V207" s="2">
         <v>145</v>
@@ -24139,19 +24151,19 @@
         <v>250</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R208" s="2">
         <v>16000</v>
       </c>
       <c r="S208" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T208" s="2">
         <v>380</v>
       </c>
       <c r="U208" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V208" s="2">
         <v>75</v>
@@ -24209,25 +24221,25 @@
         <v>313</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R209" s="2">
         <v>29000</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T209" s="2">
         <v>130</v>
       </c>
       <c r="U209" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V209" s="2">
         <v>100</v>
       </c>
       <c r="W209" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X209" s="2">
         <v>25</v>
@@ -24283,25 +24295,25 @@
         <v>375</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R210" s="2">
         <v>57000</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T210" s="2">
         <v>300</v>
       </c>
       <c r="U210" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V210" s="2">
         <v>130</v>
       </c>
       <c r="W210" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X210" s="2">
         <v>95</v>
@@ -24414,13 +24426,13 @@
         <v>88</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R212" s="2">
         <v>950</v>
       </c>
       <c r="S212" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T212" s="2">
         <v>80</v>
@@ -24480,19 +24492,19 @@
         <v>125</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R213" s="2">
         <v>5000</v>
       </c>
       <c r="S213" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T213" s="2">
         <v>180</v>
       </c>
       <c r="U213" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V213" s="2">
         <v>45</v>
@@ -24550,19 +24562,19 @@
         <v>150</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R214" s="2">
         <v>7000</v>
       </c>
       <c r="S214" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T214" s="2">
         <v>110</v>
       </c>
       <c r="U214" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V214" s="2">
         <v>95</v>
@@ -24620,19 +24632,19 @@
         <v>188</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R215" s="2">
         <v>10000</v>
       </c>
       <c r="S215" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T215" s="2">
         <v>260</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V215" s="2">
         <v>65</v>
@@ -24690,19 +24702,19 @@
         <v>213</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R216" s="2">
         <v>14000</v>
       </c>
       <c r="S216" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T216" s="2">
         <v>160</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V216" s="2">
         <v>145</v>
@@ -24760,19 +24772,19 @@
         <v>250</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R217" s="2">
         <v>16000</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T217" s="2">
         <v>380</v>
       </c>
       <c r="U217" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V217" s="2">
         <v>75</v>
@@ -24830,25 +24842,25 @@
         <v>313</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R218" s="2">
         <v>29000</v>
       </c>
       <c r="S218" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T218" s="2">
         <v>130</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V218" s="2">
         <v>100</v>
       </c>
       <c r="W218" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X218" s="2">
         <v>25</v>
@@ -24904,25 +24916,25 @@
         <v>375</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R219" s="2">
         <v>57000</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T219" s="2">
         <v>300</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V219" s="2">
         <v>130</v>
       </c>
       <c r="W219" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X219" s="2">
         <v>95</v>
@@ -25035,13 +25047,13 @@
         <v>88</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R221" s="2">
         <v>950</v>
       </c>
       <c r="S221" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T221" s="2">
         <v>80</v>
@@ -25101,19 +25113,19 @@
         <v>125</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R222" s="2">
         <v>5000</v>
       </c>
       <c r="S222" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T222" s="2">
         <v>180</v>
       </c>
       <c r="U222" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V222" s="2">
         <v>45</v>
@@ -25171,19 +25183,19 @@
         <v>150</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R223" s="2">
         <v>7000</v>
       </c>
       <c r="S223" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T223" s="2">
         <v>110</v>
       </c>
       <c r="U223" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V223" s="2">
         <v>95</v>
@@ -25241,19 +25253,19 @@
         <v>188</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R224" s="2">
         <v>10000</v>
       </c>
       <c r="S224" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T224" s="2">
         <v>260</v>
       </c>
       <c r="U224" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V224" s="2">
         <v>65</v>
@@ -25311,19 +25323,19 @@
         <v>213</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R225" s="2">
         <v>14000</v>
       </c>
       <c r="S225" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T225" s="2">
         <v>160</v>
       </c>
       <c r="U225" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V225" s="2">
         <v>145</v>
@@ -25381,19 +25393,19 @@
         <v>250</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R226" s="2">
         <v>16000</v>
       </c>
       <c r="S226" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T226" s="2">
         <v>380</v>
       </c>
       <c r="U226" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V226" s="2">
         <v>75</v>
@@ -25451,25 +25463,25 @@
         <v>313</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R227" s="2">
         <v>29000</v>
       </c>
       <c r="S227" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T227" s="2">
         <v>130</v>
       </c>
       <c r="U227" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V227" s="2">
         <v>100</v>
       </c>
       <c r="W227" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X227" s="2">
         <v>25</v>
@@ -25525,25 +25537,25 @@
         <v>375</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R228" s="2">
         <v>57000</v>
       </c>
       <c r="S228" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T228" s="2">
         <v>300</v>
       </c>
       <c r="U228" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V228" s="2">
         <v>130</v>
       </c>
       <c r="W228" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X228" s="2">
         <v>95</v>
@@ -25656,13 +25668,13 @@
         <v>88</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R230" s="2">
         <v>950</v>
       </c>
       <c r="S230" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T230" s="2">
         <v>80</v>
@@ -25722,19 +25734,19 @@
         <v>125</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R231" s="2">
         <v>5000</v>
       </c>
       <c r="S231" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T231" s="2">
         <v>180</v>
       </c>
       <c r="U231" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V231" s="2">
         <v>45</v>
@@ -25792,19 +25804,19 @@
         <v>150</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R232" s="2">
         <v>7000</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T232" s="2">
         <v>110</v>
       </c>
       <c r="U232" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V232" s="2">
         <v>95</v>
@@ -25862,19 +25874,19 @@
         <v>188</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R233" s="2">
         <v>10000</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T233" s="2">
         <v>260</v>
       </c>
       <c r="U233" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V233" s="2">
         <v>65</v>
@@ -25932,19 +25944,19 @@
         <v>213</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R234" s="2">
         <v>14000</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T234" s="2">
         <v>160</v>
       </c>
       <c r="U234" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V234" s="2">
         <v>145</v>
@@ -26002,19 +26014,19 @@
         <v>250</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R235" s="2">
         <v>16000</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T235" s="2">
         <v>380</v>
       </c>
       <c r="U235" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V235" s="2">
         <v>75</v>
@@ -26072,25 +26084,25 @@
         <v>313</v>
       </c>
       <c r="Q236" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R236" s="2">
         <v>29000</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T236" s="2">
         <v>130</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V236" s="2">
         <v>100</v>
       </c>
       <c r="W236" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X236" s="2">
         <v>25</v>
@@ -26146,25 +26158,25 @@
         <v>375</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R237" s="2">
         <v>57000</v>
       </c>
       <c r="S237" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T237" s="2">
         <v>300</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V237" s="2">
         <v>130</v>
       </c>
       <c r="W237" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X237" s="2">
         <v>95</v>
@@ -26277,13 +26289,13 @@
         <v>88</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R239" s="2">
         <v>950</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T239" s="2">
         <v>80</v>
@@ -26343,19 +26355,19 @@
         <v>125</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R240" s="2">
         <v>5000</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T240" s="2">
         <v>180</v>
       </c>
       <c r="U240" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V240" s="2">
         <v>45</v>
@@ -26413,19 +26425,19 @@
         <v>150</v>
       </c>
       <c r="Q241" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R241" s="2">
         <v>7000</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T241" s="2">
         <v>110</v>
       </c>
       <c r="U241" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V241" s="2">
         <v>95</v>
@@ -26483,19 +26495,19 @@
         <v>188</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R242" s="2">
         <v>10000</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T242" s="2">
         <v>260</v>
       </c>
       <c r="U242" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V242" s="2">
         <v>65</v>
@@ -26553,19 +26565,19 @@
         <v>213</v>
       </c>
       <c r="Q243" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R243" s="2">
         <v>14000</v>
       </c>
       <c r="S243" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T243" s="2">
         <v>160</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V243" s="2">
         <v>145</v>
@@ -26623,19 +26635,19 @@
         <v>250</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R244" s="2">
         <v>16000</v>
       </c>
       <c r="S244" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T244" s="2">
         <v>380</v>
       </c>
       <c r="U244" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V244" s="2">
         <v>75</v>
@@ -26693,25 +26705,25 @@
         <v>313</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R245" s="2">
         <v>29000</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T245" s="2">
         <v>130</v>
       </c>
       <c r="U245" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V245" s="2">
         <v>100</v>
       </c>
       <c r="W245" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X245" s="2">
         <v>25</v>
@@ -26767,25 +26779,25 @@
         <v>375</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R246" s="2">
         <v>57000</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T246" s="2">
         <v>300</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V246" s="2">
         <v>130</v>
       </c>
       <c r="W246" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X246" s="2">
         <v>95</v>
@@ -26898,13 +26910,13 @@
         <v>70</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R248" s="2">
         <v>600</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T248" s="2">
         <v>50</v>
@@ -26964,19 +26976,19 @@
         <v>100</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R249" s="2">
         <v>3500</v>
       </c>
       <c r="S249" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T249" s="2">
         <v>120</v>
       </c>
       <c r="U249" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V249" s="2">
         <v>30</v>
@@ -27034,19 +27046,19 @@
         <v>120</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R250" s="2">
         <v>4500</v>
       </c>
       <c r="S250" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T250" s="2">
         <v>70</v>
       </c>
       <c r="U250" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V250" s="2">
         <v>60</v>
@@ -27104,19 +27116,19 @@
         <v>150</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R251" s="2">
         <v>6500</v>
       </c>
       <c r="S251" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T251" s="2">
         <v>160</v>
       </c>
       <c r="U251" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V251" s="2">
         <v>40</v>
@@ -27174,19 +27186,19 @@
         <v>170</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R252" s="2">
         <v>9000</v>
       </c>
       <c r="S252" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T252" s="2">
         <v>100</v>
       </c>
       <c r="U252" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V252" s="2">
         <v>90</v>
@@ -27244,19 +27256,19 @@
         <v>200</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R253" s="2">
         <v>10000</v>
       </c>
       <c r="S253" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T253" s="2">
         <v>240</v>
       </c>
       <c r="U253" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V253" s="2">
         <v>50</v>
@@ -27314,25 +27326,25 @@
         <v>250</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R254" s="2">
         <v>19000</v>
       </c>
       <c r="S254" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T254" s="2">
         <v>80</v>
       </c>
       <c r="U254" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V254" s="2">
         <v>65</v>
       </c>
       <c r="W254" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X254" s="2">
         <v>15</v>
@@ -27388,25 +27400,25 @@
         <v>300</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R255" s="2">
         <v>37000</v>
       </c>
       <c r="S255" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T255" s="2">
         <v>190</v>
       </c>
       <c r="U255" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V255" s="2">
         <v>85</v>
       </c>
       <c r="W255" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X255" s="2">
         <v>60</v>
@@ -27519,13 +27531,13 @@
         <v>77</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R257" s="2">
         <v>750</v>
       </c>
       <c r="S257" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T257" s="2">
         <v>60</v>
@@ -27585,19 +27597,19 @@
         <v>110</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R258" s="2">
         <v>4000</v>
       </c>
       <c r="S258" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T258" s="2">
         <v>150</v>
       </c>
       <c r="U258" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V258" s="2">
         <v>35</v>
@@ -27655,19 +27667,19 @@
         <v>132</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R259" s="2">
         <v>5500</v>
       </c>
       <c r="S259" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T259" s="2">
         <v>90</v>
       </c>
       <c r="U259" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V259" s="2">
         <v>75</v>
@@ -27725,19 +27737,19 @@
         <v>165</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R260" s="2">
         <v>8000</v>
       </c>
       <c r="S260" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T260" s="2">
         <v>210</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V260" s="2">
         <v>50</v>
@@ -27795,19 +27807,19 @@
         <v>187</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R261" s="2">
         <v>11000</v>
       </c>
       <c r="S261" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T261" s="2">
         <v>130</v>
       </c>
       <c r="U261" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V261" s="2">
         <v>115</v>
@@ -27865,19 +27877,19 @@
         <v>220</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R262" s="2">
         <v>13000</v>
       </c>
       <c r="S262" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T262" s="2">
         <v>310</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V262" s="2">
         <v>60</v>
@@ -27935,25 +27947,25 @@
         <v>275</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R263" s="2">
         <v>23000</v>
       </c>
       <c r="S263" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T263" s="2">
         <v>110</v>
       </c>
       <c r="U263" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V263" s="2">
         <v>80</v>
       </c>
       <c r="W263" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X263" s="2">
         <v>20</v>
@@ -28009,25 +28021,25 @@
         <v>330</v>
       </c>
       <c r="Q264" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R264" s="2">
         <v>46000</v>
       </c>
       <c r="S264" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T264" s="2">
         <v>240</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V264" s="2">
         <v>105</v>
       </c>
       <c r="W264" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X264" s="2">
         <v>75</v>
@@ -28140,13 +28152,13 @@
         <v>70</v>
       </c>
       <c r="Q266" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R266" s="2">
         <v>600</v>
       </c>
       <c r="S266" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T266" s="2">
         <v>50</v>
@@ -28206,19 +28218,19 @@
         <v>100</v>
       </c>
       <c r="Q267" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R267" s="2">
         <v>3500</v>
       </c>
       <c r="S267" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T267" s="2">
         <v>120</v>
       </c>
       <c r="U267" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V267" s="2">
         <v>30</v>
@@ -28276,19 +28288,19 @@
         <v>120</v>
       </c>
       <c r="Q268" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R268" s="2">
         <v>4500</v>
       </c>
       <c r="S268" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T268" s="2">
         <v>70</v>
       </c>
       <c r="U268" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V268" s="2">
         <v>60</v>
@@ -28346,19 +28358,19 @@
         <v>150</v>
       </c>
       <c r="Q269" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R269" s="2">
         <v>6500</v>
       </c>
       <c r="S269" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T269" s="2">
         <v>160</v>
       </c>
       <c r="U269" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V269" s="2">
         <v>40</v>
@@ -28416,19 +28428,19 @@
         <v>170</v>
       </c>
       <c r="Q270" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R270" s="2">
         <v>9000</v>
       </c>
       <c r="S270" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T270" s="2">
         <v>100</v>
       </c>
       <c r="U270" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V270" s="2">
         <v>90</v>
@@ -28486,19 +28498,19 @@
         <v>200</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R271" s="2">
         <v>10000</v>
       </c>
       <c r="S271" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T271" s="2">
         <v>240</v>
       </c>
       <c r="U271" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V271" s="2">
         <v>50</v>
@@ -28556,25 +28568,25 @@
         <v>250</v>
       </c>
       <c r="Q272" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R272" s="2">
         <v>19000</v>
       </c>
       <c r="S272" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T272" s="2">
         <v>80</v>
       </c>
       <c r="U272" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V272" s="2">
         <v>65</v>
       </c>
       <c r="W272" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X272" s="2">
         <v>15</v>
@@ -28630,25 +28642,25 @@
         <v>300</v>
       </c>
       <c r="Q273" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R273" s="2">
         <v>37000</v>
       </c>
       <c r="S273" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T273" s="2">
         <v>190</v>
       </c>
       <c r="U273" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V273" s="2">
         <v>85</v>
       </c>
       <c r="W273" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X273" s="2">
         <v>60</v>
@@ -28761,13 +28773,13 @@
         <v>88</v>
       </c>
       <c r="Q275" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R275" s="2">
         <v>950</v>
       </c>
       <c r="S275" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T275" s="2">
         <v>80</v>
@@ -28827,19 +28839,19 @@
         <v>125</v>
       </c>
       <c r="Q276" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R276" s="2">
         <v>5000</v>
       </c>
       <c r="S276" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T276" s="2">
         <v>180</v>
       </c>
       <c r="U276" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V276" s="2">
         <v>45</v>
@@ -28897,19 +28909,19 @@
         <v>150</v>
       </c>
       <c r="Q277" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R277" s="2">
         <v>7000</v>
       </c>
       <c r="S277" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T277" s="2">
         <v>110</v>
       </c>
       <c r="U277" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V277" s="2">
         <v>95</v>
@@ -28967,19 +28979,19 @@
         <v>188</v>
       </c>
       <c r="Q278" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R278" s="2">
         <v>10000</v>
       </c>
       <c r="S278" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T278" s="2">
         <v>260</v>
       </c>
       <c r="U278" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V278" s="2">
         <v>65</v>
@@ -29037,19 +29049,19 @@
         <v>213</v>
       </c>
       <c r="Q279" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R279" s="2">
         <v>14000</v>
       </c>
       <c r="S279" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T279" s="2">
         <v>160</v>
       </c>
       <c r="U279" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V279" s="2">
         <v>145</v>
@@ -29107,19 +29119,19 @@
         <v>250</v>
       </c>
       <c r="Q280" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R280" s="2">
         <v>16000</v>
       </c>
       <c r="S280" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T280" s="2">
         <v>380</v>
       </c>
       <c r="U280" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V280" s="2">
         <v>75</v>
@@ -29177,25 +29189,25 @@
         <v>313</v>
       </c>
       <c r="Q281" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R281" s="2">
         <v>29000</v>
       </c>
       <c r="S281" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T281" s="2">
         <v>130</v>
       </c>
       <c r="U281" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V281" s="2">
         <v>100</v>
       </c>
       <c r="W281" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X281" s="2">
         <v>25</v>
@@ -29251,25 +29263,25 @@
         <v>375</v>
       </c>
       <c r="Q282" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R282" s="2">
         <v>57000</v>
       </c>
       <c r="S282" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T282" s="2">
         <v>300</v>
       </c>
       <c r="U282" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V282" s="2">
         <v>130</v>
       </c>
       <c r="W282" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X282" s="2">
         <v>95</v>
@@ -29382,13 +29394,13 @@
         <v>77</v>
       </c>
       <c r="Q284" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R284" s="2">
         <v>750</v>
       </c>
       <c r="S284" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T284" s="2">
         <v>60</v>
@@ -29448,19 +29460,19 @@
         <v>110</v>
       </c>
       <c r="Q285" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R285" s="2">
         <v>4000</v>
       </c>
       <c r="S285" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T285" s="2">
         <v>150</v>
       </c>
       <c r="U285" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V285" s="2">
         <v>35</v>
@@ -29518,19 +29530,19 @@
         <v>132</v>
       </c>
       <c r="Q286" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R286" s="2">
         <v>5500</v>
       </c>
       <c r="S286" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T286" s="2">
         <v>90</v>
       </c>
       <c r="U286" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V286" s="2">
         <v>75</v>
@@ -29588,19 +29600,19 @@
         <v>165</v>
       </c>
       <c r="Q287" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R287" s="2">
         <v>8000</v>
       </c>
       <c r="S287" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T287" s="2">
         <v>210</v>
       </c>
       <c r="U287" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V287" s="2">
         <v>50</v>
@@ -29658,19 +29670,19 @@
         <v>187</v>
       </c>
       <c r="Q288" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R288" s="2">
         <v>11000</v>
       </c>
       <c r="S288" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T288" s="2">
         <v>130</v>
       </c>
       <c r="U288" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V288" s="2">
         <v>115</v>
@@ -29728,19 +29740,19 @@
         <v>220</v>
       </c>
       <c r="Q289" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R289" s="2">
         <v>13000</v>
       </c>
       <c r="S289" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T289" s="2">
         <v>310</v>
       </c>
       <c r="U289" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V289" s="2">
         <v>60</v>
@@ -29798,25 +29810,25 @@
         <v>275</v>
       </c>
       <c r="Q290" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R290" s="2">
         <v>23000</v>
       </c>
       <c r="S290" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T290" s="2">
         <v>110</v>
       </c>
       <c r="U290" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V290" s="2">
         <v>80</v>
       </c>
       <c r="W290" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X290" s="2">
         <v>20</v>
@@ -29872,25 +29884,25 @@
         <v>330</v>
       </c>
       <c r="Q291" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R291" s="2">
         <v>46000</v>
       </c>
       <c r="S291" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T291" s="2">
         <v>240</v>
       </c>
       <c r="U291" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V291" s="2">
         <v>105</v>
       </c>
       <c r="W291" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X291" s="2">
         <v>75</v>
@@ -30003,13 +30015,13 @@
         <v>70</v>
       </c>
       <c r="Q293" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R293" s="2">
         <v>600</v>
       </c>
       <c r="S293" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T293" s="2">
         <v>50</v>
@@ -30069,19 +30081,19 @@
         <v>100</v>
       </c>
       <c r="Q294" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R294" s="2">
         <v>3500</v>
       </c>
       <c r="S294" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T294" s="2">
         <v>120</v>
       </c>
       <c r="U294" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V294" s="2">
         <v>30</v>
@@ -30139,19 +30151,19 @@
         <v>120</v>
       </c>
       <c r="Q295" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R295" s="2">
         <v>4500</v>
       </c>
       <c r="S295" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T295" s="2">
         <v>70</v>
       </c>
       <c r="U295" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V295" s="2">
         <v>60</v>
@@ -30209,19 +30221,19 @@
         <v>150</v>
       </c>
       <c r="Q296" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R296" s="2">
         <v>6500</v>
       </c>
       <c r="S296" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T296" s="2">
         <v>160</v>
       </c>
       <c r="U296" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V296" s="2">
         <v>40</v>
@@ -30279,19 +30291,19 @@
         <v>170</v>
       </c>
       <c r="Q297" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R297" s="2">
         <v>9000</v>
       </c>
       <c r="S297" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T297" s="2">
         <v>100</v>
       </c>
       <c r="U297" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V297" s="2">
         <v>90</v>
@@ -30349,19 +30361,19 @@
         <v>200</v>
       </c>
       <c r="Q298" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R298" s="2">
         <v>10000</v>
       </c>
       <c r="S298" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T298" s="2">
         <v>240</v>
       </c>
       <c r="U298" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V298" s="2">
         <v>50</v>
@@ -30419,25 +30431,25 @@
         <v>250</v>
       </c>
       <c r="Q299" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R299" s="2">
         <v>19000</v>
       </c>
       <c r="S299" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T299" s="2">
         <v>80</v>
       </c>
       <c r="U299" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V299" s="2">
         <v>65</v>
       </c>
       <c r="W299" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X299" s="2">
         <v>15</v>
@@ -30493,25 +30505,25 @@
         <v>300</v>
       </c>
       <c r="Q300" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R300" s="2">
         <v>37000</v>
       </c>
       <c r="S300" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T300" s="2">
         <v>190</v>
       </c>
       <c r="U300" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V300" s="2">
         <v>85</v>
       </c>
       <c r="W300" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X300" s="2">
         <v>60</v>
@@ -30624,13 +30636,13 @@
         <v>70</v>
       </c>
       <c r="Q302" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R302" s="2">
         <v>600</v>
       </c>
       <c r="S302" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T302" s="2">
         <v>50</v>
@@ -30690,19 +30702,19 @@
         <v>100</v>
       </c>
       <c r="Q303" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R303" s="2">
         <v>3500</v>
       </c>
       <c r="S303" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T303" s="2">
         <v>120</v>
       </c>
       <c r="U303" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V303" s="2">
         <v>30</v>
@@ -30760,19 +30772,19 @@
         <v>120</v>
       </c>
       <c r="Q304" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R304" s="2">
         <v>4500</v>
       </c>
       <c r="S304" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T304" s="2">
         <v>70</v>
       </c>
       <c r="U304" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V304" s="2">
         <v>60</v>
@@ -30830,19 +30842,19 @@
         <v>150</v>
       </c>
       <c r="Q305" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R305" s="2">
         <v>6500</v>
       </c>
       <c r="S305" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T305" s="2">
         <v>160</v>
       </c>
       <c r="U305" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V305" s="2">
         <v>40</v>
@@ -30900,19 +30912,19 @@
         <v>170</v>
       </c>
       <c r="Q306" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R306" s="2">
         <v>9000</v>
       </c>
       <c r="S306" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T306" s="2">
         <v>100</v>
       </c>
       <c r="U306" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V306" s="2">
         <v>90</v>
@@ -30970,19 +30982,19 @@
         <v>200</v>
       </c>
       <c r="Q307" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R307" s="2">
         <v>10000</v>
       </c>
       <c r="S307" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T307" s="2">
         <v>240</v>
       </c>
       <c r="U307" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V307" s="2">
         <v>50</v>
@@ -31040,25 +31052,25 @@
         <v>250</v>
       </c>
       <c r="Q308" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R308" s="2">
         <v>19000</v>
       </c>
       <c r="S308" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T308" s="2">
         <v>80</v>
       </c>
       <c r="U308" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V308" s="2">
         <v>65</v>
       </c>
       <c r="W308" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X308" s="2">
         <v>15</v>
@@ -31114,25 +31126,25 @@
         <v>300</v>
       </c>
       <c r="Q309" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R309" s="2">
         <v>37000</v>
       </c>
       <c r="S309" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T309" s="2">
         <v>190</v>
       </c>
       <c r="U309" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V309" s="2">
         <v>85</v>
       </c>
       <c r="W309" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X309" s="2">
         <v>60</v>
@@ -31245,13 +31257,13 @@
         <v>77</v>
       </c>
       <c r="Q311" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R311" s="2">
         <v>750</v>
       </c>
       <c r="S311" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T311" s="2">
         <v>60</v>
@@ -31311,19 +31323,19 @@
         <v>110</v>
       </c>
       <c r="Q312" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R312" s="2">
         <v>4000</v>
       </c>
       <c r="S312" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T312" s="2">
         <v>150</v>
       </c>
       <c r="U312" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V312" s="2">
         <v>35</v>
@@ -31381,19 +31393,19 @@
         <v>132</v>
       </c>
       <c r="Q313" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R313" s="2">
         <v>5500</v>
       </c>
       <c r="S313" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T313" s="2">
         <v>90</v>
       </c>
       <c r="U313" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V313" s="2">
         <v>75</v>
@@ -31451,19 +31463,19 @@
         <v>165</v>
       </c>
       <c r="Q314" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R314" s="2">
         <v>8000</v>
       </c>
       <c r="S314" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T314" s="2">
         <v>210</v>
       </c>
       <c r="U314" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V314" s="2">
         <v>50</v>
@@ -31521,19 +31533,19 @@
         <v>187</v>
       </c>
       <c r="Q315" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R315" s="2">
         <v>11000</v>
       </c>
       <c r="S315" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T315" s="2">
         <v>130</v>
       </c>
       <c r="U315" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V315" s="2">
         <v>115</v>
@@ -31591,19 +31603,19 @@
         <v>220</v>
       </c>
       <c r="Q316" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R316" s="2">
         <v>13000</v>
       </c>
       <c r="S316" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T316" s="2">
         <v>310</v>
       </c>
       <c r="U316" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V316" s="2">
         <v>60</v>
@@ -31661,25 +31673,25 @@
         <v>275</v>
       </c>
       <c r="Q317" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R317" s="2">
         <v>23000</v>
       </c>
       <c r="S317" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T317" s="2">
         <v>110</v>
       </c>
       <c r="U317" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V317" s="2">
         <v>80</v>
       </c>
       <c r="W317" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X317" s="2">
         <v>20</v>
@@ -31735,25 +31747,25 @@
         <v>330</v>
       </c>
       <c r="Q318" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R318" s="2">
         <v>46000</v>
       </c>
       <c r="S318" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T318" s="2">
         <v>240</v>
       </c>
       <c r="U318" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V318" s="2">
         <v>105</v>
       </c>
       <c r="W318" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X318" s="2">
         <v>75</v>
@@ -31866,13 +31878,13 @@
         <v>70</v>
       </c>
       <c r="Q320" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R320" s="2">
         <v>600</v>
       </c>
       <c r="S320" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T320" s="2">
         <v>50</v>
@@ -31932,19 +31944,19 @@
         <v>100</v>
       </c>
       <c r="Q321" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R321" s="2">
         <v>3500</v>
       </c>
       <c r="S321" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T321" s="2">
         <v>120</v>
       </c>
       <c r="U321" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V321" s="2">
         <v>30</v>
@@ -32002,19 +32014,19 @@
         <v>120</v>
       </c>
       <c r="Q322" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R322" s="2">
         <v>4500</v>
       </c>
       <c r="S322" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T322" s="2">
         <v>70</v>
       </c>
       <c r="U322" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V322" s="2">
         <v>60</v>
@@ -32072,19 +32084,19 @@
         <v>150</v>
       </c>
       <c r="Q323" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R323" s="2">
         <v>6500</v>
       </c>
       <c r="S323" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T323" s="2">
         <v>160</v>
       </c>
       <c r="U323" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V323" s="2">
         <v>40</v>
@@ -32142,19 +32154,19 @@
         <v>170</v>
       </c>
       <c r="Q324" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R324" s="2">
         <v>9000</v>
       </c>
       <c r="S324" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T324" s="2">
         <v>100</v>
       </c>
       <c r="U324" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V324" s="2">
         <v>90</v>
@@ -32212,19 +32224,19 @@
         <v>200</v>
       </c>
       <c r="Q325" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R325" s="2">
         <v>10000</v>
       </c>
       <c r="S325" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T325" s="2">
         <v>240</v>
       </c>
       <c r="U325" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V325" s="2">
         <v>50</v>
@@ -32282,25 +32294,25 @@
         <v>250</v>
       </c>
       <c r="Q326" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R326" s="2">
         <v>19000</v>
       </c>
       <c r="S326" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T326" s="2">
         <v>80</v>
       </c>
       <c r="U326" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V326" s="2">
         <v>65</v>
       </c>
       <c r="W326" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X326" s="2">
         <v>15</v>
@@ -32356,25 +32368,25 @@
         <v>300</v>
       </c>
       <c r="Q327" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R327" s="2">
         <v>37000</v>
       </c>
       <c r="S327" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T327" s="2">
         <v>190</v>
       </c>
       <c r="U327" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V327" s="2">
         <v>85</v>
       </c>
       <c r="W327" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X327" s="2">
         <v>60</v>
@@ -37000,7 +37012,7 @@
         <v>1000</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H109" s="2">
         <v>30</v>
@@ -37035,7 +37047,7 @@
         <v>2500</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H110" s="2">
         <v>30</v>
@@ -37074,7 +37086,7 @@
         <v>4500</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H111" s="2">
         <v>50</v>
@@ -37117,7 +37129,7 @@
         <v>7000</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H112" s="2">
         <v>80</v>
@@ -37164,7 +37176,7 @@
         <v>9000</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H113" s="2">
         <v>120</v>
@@ -40180,10 +40192,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -40197,10 +40209,10 @@
         <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -40214,10 +40226,10 @@
         <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -40231,7 +40243,7 @@
         <v>245</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E4" s="2">
         <v>90</v>
@@ -40248,7 +40260,7 @@
         <v>246</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E5" s="2">
         <v>12</v>
@@ -40265,7 +40277,7 @@
         <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E6" s="2">
         <v>90</v>
@@ -40282,7 +40294,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E7" s="2">
         <v>600</v>
@@ -40299,7 +40311,7 @@
         <v>249</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
@@ -40316,7 +40328,7 @@
         <v>250</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E9" s="2">
         <v>90</v>
@@ -40333,7 +40345,7 @@
         <v>251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
@@ -40350,7 +40362,7 @@
         <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
@@ -40367,7 +40379,7 @@
         <v>253</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E12" s="2">
         <v>90</v>
@@ -40384,7 +40396,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E13" s="2">
         <v>600</v>
@@ -40401,7 +40413,7 @@
         <v>255</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E14" s="2">
         <v>90</v>
@@ -40418,7 +40430,7 @@
         <v>256</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -40435,7 +40447,7 @@
         <v>257</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E16" s="2">
         <v>12</v>
@@ -40452,7 +40464,7 @@
         <v>258</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E17" s="2">
         <v>90</v>
@@ -40469,7 +40481,7 @@
         <v>259</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E18" s="2">
         <v>12</v>
@@ -40486,7 +40498,7 @@
         <v>260</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E19" s="2">
         <v>1200</v>
@@ -40503,7 +40515,7 @@
         <v>261</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E20" s="2">
         <v>180</v>
@@ -40520,7 +40532,7 @@
         <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E21" s="2">
         <v>180</v>
@@ -40537,7 +40549,7 @@
         <v>263</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E22" s="2">
         <v>25</v>
@@ -40554,7 +40566,7 @@
         <v>264</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E23" s="2">
         <v>180</v>
@@ -40571,7 +40583,7 @@
         <v>265</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E24" s="2">
         <v>1200</v>
@@ -40582,13 +40594,13 @@
         <v>1702007</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E25" s="2">
         <v>180</v>
@@ -40605,7 +40617,7 @@
         <v>266</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E26" s="2">
         <v>1200</v>
@@ -40622,7 +40634,7 @@
         <v>267</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E27" s="2">
         <v>1200</v>
@@ -40639,7 +40651,7 @@
         <v>268</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E28" s="2">
         <v>1200</v>
@@ -40656,7 +40668,7 @@
         <v>269</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E29" s="2">
         <v>1200</v>
@@ -40673,7 +40685,7 @@
         <v>270</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E30" s="2">
         <v>1200</v>
@@ -40690,7 +40702,7 @@
         <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E31" s="2">
         <v>25</v>
@@ -40707,7 +40719,7 @@
         <v>272</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E32" s="2">
         <v>180</v>
@@ -40724,7 +40736,7 @@
         <v>273</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E33" s="2">
         <v>25</v>
@@ -40741,7 +40753,7 @@
         <v>274</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E34" s="2">
         <v>1200</v>
@@ -40758,7 +40770,7 @@
         <v>275</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E35" s="2">
         <v>180</v>
@@ -40775,7 +40787,7 @@
         <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E36" s="2">
         <v>25</v>
@@ -40792,7 +40804,7 @@
         <v>277</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E37" s="2">
         <v>25</v>
@@ -40809,7 +40821,7 @@
         <v>278</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E38" s="2">
         <v>180</v>
@@ -40826,7 +40838,7 @@
         <v>279</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E39" s="2">
         <v>25</v>
@@ -40883,7 +40895,7 @@
         <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -42614,7 +42626,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43094,22 +43106,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>539</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>540</v>
@@ -43123,28 +43135,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -43152,28 +43164,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -43181,22 +43193,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>540</v>
@@ -43210,28 +43222,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -43239,25 +43251,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>76</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -3627,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3636,7 +3636,7 @@
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -6570,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="16.5" x14ac:dyDescent="0.2">
@@ -8053,7 +8053,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="AT33" s="2">
         <f t="shared" si="0"/>
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="16.5" x14ac:dyDescent="0.2">
@@ -9794,7 +9794,7 @@
   <dimension ref="A1:X327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10070,19 +10070,19 @@
         <v>423</v>
       </c>
       <c r="L4" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P4" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -10110,37 +10110,37 @@
         <v>423</v>
       </c>
       <c r="F5" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H5" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J5" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L5" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P5" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>575</v>
@@ -10176,37 +10176,37 @@
         <v>423</v>
       </c>
       <c r="F6" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H6" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J6" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L6" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N6" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P6" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>575</v>
@@ -10246,37 +10246,37 @@
         <v>423</v>
       </c>
       <c r="F7" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H7" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J7" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L7" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N7" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P7" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>575</v>
@@ -10316,37 +10316,37 @@
         <v>423</v>
       </c>
       <c r="F8" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H8" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J8" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L8" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N8" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P8" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>575</v>
@@ -10386,37 +10386,37 @@
         <v>423</v>
       </c>
       <c r="F9" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H9" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J9" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L9" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N9" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P9" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>575</v>
@@ -10456,37 +10456,37 @@
         <v>423</v>
       </c>
       <c r="F10" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H10" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J10" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L10" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N10" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P10" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>575</v>
@@ -10526,37 +10526,37 @@
         <v>423</v>
       </c>
       <c r="F11" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H11" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J11" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L11" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N11" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P11" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>575</v>
@@ -10600,37 +10600,37 @@
         <v>423</v>
       </c>
       <c r="F12" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H12" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J12" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L12" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N12" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P12" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>575</v>
@@ -10692,19 +10692,19 @@
         <v>423</v>
       </c>
       <c r="L13" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P13" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -10731,37 +10731,37 @@
         <v>423</v>
       </c>
       <c r="F14" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H14" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J14" s="2">
-        <v>1005</v>
+        <v>1220</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L14" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P14" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>575</v>
@@ -10797,37 +10797,37 @@
         <v>423</v>
       </c>
       <c r="F15" s="2">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H15" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J15" s="2">
-        <v>2155</v>
+        <v>2450</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L15" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N15" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P15" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>575</v>
@@ -10867,37 +10867,37 @@
         <v>423</v>
       </c>
       <c r="F16" s="2">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H16" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J16" s="2">
-        <v>3275</v>
+        <v>3610</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L16" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N16" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P16" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>575</v>
@@ -10937,37 +10937,37 @@
         <v>423</v>
       </c>
       <c r="F17" s="2">
-        <v>905</v>
+        <v>970</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H17" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J17" s="2">
-        <v>4625</v>
+        <v>4950</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L17" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N17" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P17" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>575</v>
@@ -11007,37 +11007,37 @@
         <v>423</v>
       </c>
       <c r="F18" s="2">
-        <v>1239</v>
+        <v>1290</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H18" s="2">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J18" s="2">
-        <v>6295</v>
+        <v>6550</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L18" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N18" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P18" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>575</v>
@@ -11077,37 +11077,37 @@
         <v>423</v>
       </c>
       <c r="F19" s="2">
-        <v>1619</v>
+        <v>1682</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H19" s="2">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J19" s="2">
-        <v>8195</v>
+        <v>8510</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L19" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N19" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P19" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>575</v>
@@ -11147,37 +11147,37 @@
         <v>423</v>
       </c>
       <c r="F20" s="2">
-        <v>2069</v>
+        <v>2162</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H20" s="2">
-        <v>1024</v>
+        <v>1071</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J20" s="2">
-        <v>10445</v>
+        <v>10910</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L20" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N20" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P20" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>575</v>
@@ -11221,37 +11221,37 @@
         <v>423</v>
       </c>
       <c r="F21" s="2">
-        <v>2629</v>
+        <v>2822</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H21" s="2">
-        <v>1304</v>
+        <v>1401</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J21" s="2">
-        <v>13245</v>
+        <v>14210</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L21" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N21" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P21" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>575</v>
@@ -11313,19 +11313,19 @@
         <v>423</v>
       </c>
       <c r="L22" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N22" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P22" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -11352,37 +11352,37 @@
         <v>423</v>
       </c>
       <c r="F23" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H23" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J23" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L23" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N23" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P23" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>575</v>
@@ -11418,37 +11418,37 @@
         <v>423</v>
       </c>
       <c r="F24" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H24" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J24" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L24" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N24" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P24" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>575</v>
@@ -11488,37 +11488,37 @@
         <v>423</v>
       </c>
       <c r="F25" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H25" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J25" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L25" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N25" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P25" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>575</v>
@@ -11558,37 +11558,37 @@
         <v>423</v>
       </c>
       <c r="F26" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H26" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J26" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L26" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N26" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P26" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>575</v>
@@ -11628,37 +11628,37 @@
         <v>423</v>
       </c>
       <c r="F27" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H27" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J27" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L27" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N27" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P27" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>575</v>
@@ -11698,37 +11698,37 @@
         <v>423</v>
       </c>
       <c r="F28" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H28" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J28" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L28" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N28" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P28" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>575</v>
@@ -11768,37 +11768,37 @@
         <v>423</v>
       </c>
       <c r="F29" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H29" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J29" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L29" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N29" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P29" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>575</v>
@@ -11842,37 +11842,37 @@
         <v>423</v>
       </c>
       <c r="F30" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H30" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J30" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L30" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N30" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P30" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>575</v>
@@ -11934,19 +11934,19 @@
         <v>423</v>
       </c>
       <c r="L31" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N31" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P31" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -11973,37 +11973,37 @@
         <v>423</v>
       </c>
       <c r="F32" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H32" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J32" s="2">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L32" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N32" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P32" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>575</v>
@@ -12039,37 +12039,37 @@
         <v>423</v>
       </c>
       <c r="F33" s="2">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H33" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J33" s="2">
-        <v>2694</v>
+        <v>3063</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L33" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N33" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P33" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>575</v>
@@ -12109,37 +12109,37 @@
         <v>423</v>
       </c>
       <c r="F34" s="2">
-        <v>794</v>
+        <v>878</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H34" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J34" s="2">
-        <v>4094</v>
+        <v>4513</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L34" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N34" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P34" s="2">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>575</v>
@@ -12179,37 +12179,37 @@
         <v>423</v>
       </c>
       <c r="F35" s="2">
-        <v>1131</v>
+        <v>1213</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H35" s="2">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J35" s="2">
-        <v>5781</v>
+        <v>6188</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L35" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N35" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P35" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>575</v>
@@ -12249,37 +12249,37 @@
         <v>423</v>
       </c>
       <c r="F36" s="2">
-        <v>1549</v>
+        <v>1613</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H36" s="2">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J36" s="2">
-        <v>7869</v>
+        <v>8188</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L36" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N36" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P36" s="2">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>575</v>
@@ -12319,37 +12319,37 @@
         <v>423</v>
       </c>
       <c r="F37" s="2">
-        <v>2024</v>
+        <v>2103</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H37" s="2">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J37" s="2">
-        <v>10244</v>
+        <v>10638</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L37" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N37" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P37" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>575</v>
@@ -12389,37 +12389,37 @@
         <v>423</v>
       </c>
       <c r="F38" s="2">
-        <v>2586</v>
+        <v>2703</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H38" s="2">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J38" s="2">
-        <v>13056</v>
+        <v>13638</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L38" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N38" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P38" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>575</v>
@@ -12463,37 +12463,37 @@
         <v>423</v>
       </c>
       <c r="F39" s="2">
-        <v>3286</v>
+        <v>3528</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H39" s="2">
-        <v>1630</v>
+        <v>1751</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J39" s="2">
-        <v>16556</v>
+        <v>17763</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L39" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N39" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P39" s="2">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>575</v>
@@ -12555,19 +12555,19 @@
         <v>423</v>
       </c>
       <c r="L40" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N40" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P40" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -12594,37 +12594,37 @@
         <v>423</v>
       </c>
       <c r="F41" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H41" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J41" s="2">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L41" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N41" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P41" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>575</v>
@@ -12660,37 +12660,37 @@
         <v>423</v>
       </c>
       <c r="F42" s="2">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H42" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J42" s="2">
-        <v>2694</v>
+        <v>3063</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L42" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N42" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P42" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>575</v>
@@ -12730,37 +12730,37 @@
         <v>423</v>
       </c>
       <c r="F43" s="2">
-        <v>794</v>
+        <v>878</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H43" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J43" s="2">
-        <v>4094</v>
+        <v>4513</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L43" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N43" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P43" s="2">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>575</v>
@@ -12800,37 +12800,37 @@
         <v>423</v>
       </c>
       <c r="F44" s="2">
-        <v>1131</v>
+        <v>1213</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H44" s="2">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J44" s="2">
-        <v>5781</v>
+        <v>6188</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L44" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N44" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P44" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>575</v>
@@ -12870,37 +12870,37 @@
         <v>423</v>
       </c>
       <c r="F45" s="2">
-        <v>1549</v>
+        <v>1613</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H45" s="2">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J45" s="2">
-        <v>7869</v>
+        <v>8188</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L45" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N45" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P45" s="2">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>575</v>
@@ -12940,37 +12940,37 @@
         <v>423</v>
       </c>
       <c r="F46" s="2">
-        <v>2024</v>
+        <v>2103</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H46" s="2">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J46" s="2">
-        <v>10244</v>
+        <v>10638</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L46" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N46" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P46" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>575</v>
@@ -13010,37 +13010,37 @@
         <v>423</v>
       </c>
       <c r="F47" s="2">
-        <v>2586</v>
+        <v>2703</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H47" s="2">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J47" s="2">
-        <v>13056</v>
+        <v>13638</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L47" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N47" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P47" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>575</v>
@@ -13084,37 +13084,37 @@
         <v>423</v>
       </c>
       <c r="F48" s="2">
-        <v>3286</v>
+        <v>3528</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H48" s="2">
-        <v>1630</v>
+        <v>1751</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J48" s="2">
-        <v>16556</v>
+        <v>17763</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L48" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N48" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P48" s="2">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>575</v>
@@ -13176,19 +13176,19 @@
         <v>423</v>
       </c>
       <c r="L49" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P49" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -13215,37 +13215,37 @@
         <v>423</v>
       </c>
       <c r="F50" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H50" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J50" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L50" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N50" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P50" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>575</v>
@@ -13281,37 +13281,37 @@
         <v>423</v>
       </c>
       <c r="F51" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H51" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J51" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L51" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N51" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P51" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>575</v>
@@ -13351,37 +13351,37 @@
         <v>423</v>
       </c>
       <c r="F52" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H52" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J52" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L52" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N52" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P52" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>575</v>
@@ -13421,37 +13421,37 @@
         <v>423</v>
       </c>
       <c r="F53" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H53" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J53" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L53" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N53" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P53" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>575</v>
@@ -13491,37 +13491,37 @@
         <v>423</v>
       </c>
       <c r="F54" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H54" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J54" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L54" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N54" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P54" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>575</v>
@@ -13561,37 +13561,37 @@
         <v>423</v>
       </c>
       <c r="F55" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H55" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J55" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L55" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N55" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P55" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>575</v>
@@ -13631,37 +13631,37 @@
         <v>423</v>
       </c>
       <c r="F56" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H56" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J56" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L56" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N56" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P56" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>575</v>
@@ -13705,37 +13705,37 @@
         <v>423</v>
       </c>
       <c r="F57" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H57" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J57" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L57" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N57" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P57" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>575</v>
@@ -13797,19 +13797,19 @@
         <v>423</v>
       </c>
       <c r="L58" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N58" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P58" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -13836,37 +13836,37 @@
         <v>423</v>
       </c>
       <c r="F59" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H59" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J59" s="2">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L59" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N59" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P59" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>575</v>
@@ -13902,37 +13902,37 @@
         <v>423</v>
       </c>
       <c r="F60" s="2">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H60" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J60" s="2">
-        <v>2694</v>
+        <v>3063</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L60" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N60" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P60" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>575</v>
@@ -13972,37 +13972,37 @@
         <v>423</v>
       </c>
       <c r="F61" s="2">
-        <v>794</v>
+        <v>878</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H61" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J61" s="2">
-        <v>4094</v>
+        <v>4513</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L61" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N61" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P61" s="2">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>575</v>
@@ -14042,37 +14042,37 @@
         <v>423</v>
       </c>
       <c r="F62" s="2">
-        <v>1131</v>
+        <v>1213</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H62" s="2">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J62" s="2">
-        <v>5781</v>
+        <v>6188</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L62" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N62" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P62" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>575</v>
@@ -14112,37 +14112,37 @@
         <v>423</v>
       </c>
       <c r="F63" s="2">
-        <v>1549</v>
+        <v>1613</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H63" s="2">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J63" s="2">
-        <v>7869</v>
+        <v>8188</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L63" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N63" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P63" s="2">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>575</v>
@@ -14182,37 +14182,37 @@
         <v>423</v>
       </c>
       <c r="F64" s="2">
-        <v>2024</v>
+        <v>2103</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H64" s="2">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J64" s="2">
-        <v>10244</v>
+        <v>10638</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L64" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N64" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P64" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>575</v>
@@ -14252,37 +14252,37 @@
         <v>423</v>
       </c>
       <c r="F65" s="2">
-        <v>2586</v>
+        <v>2703</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H65" s="2">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J65" s="2">
-        <v>13056</v>
+        <v>13638</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L65" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N65" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P65" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>575</v>
@@ -14326,37 +14326,37 @@
         <v>423</v>
       </c>
       <c r="F66" s="2">
-        <v>3286</v>
+        <v>3528</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H66" s="2">
-        <v>1630</v>
+        <v>1751</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J66" s="2">
-        <v>16556</v>
+        <v>17763</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L66" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N66" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P66" s="2">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>575</v>
@@ -14418,19 +14418,19 @@
         <v>423</v>
       </c>
       <c r="L67" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N67" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P67" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -14457,37 +14457,37 @@
         <v>423</v>
       </c>
       <c r="F68" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H68" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J68" s="2">
-        <v>1005</v>
+        <v>1220</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L68" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N68" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P68" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>575</v>
@@ -14523,37 +14523,37 @@
         <v>423</v>
       </c>
       <c r="F69" s="2">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H69" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J69" s="2">
-        <v>2155</v>
+        <v>2450</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L69" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N69" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P69" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>575</v>
@@ -14593,37 +14593,37 @@
         <v>423</v>
       </c>
       <c r="F70" s="2">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H70" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J70" s="2">
-        <v>3275</v>
+        <v>3610</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L70" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N70" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P70" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>575</v>
@@ -14663,37 +14663,37 @@
         <v>423</v>
       </c>
       <c r="F71" s="2">
-        <v>905</v>
+        <v>970</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H71" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J71" s="2">
-        <v>4625</v>
+        <v>4950</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L71" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N71" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P71" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>575</v>
@@ -14733,37 +14733,37 @@
         <v>423</v>
       </c>
       <c r="F72" s="2">
-        <v>1239</v>
+        <v>1290</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H72" s="2">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J72" s="2">
-        <v>6295</v>
+        <v>6550</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L72" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N72" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P72" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>575</v>
@@ -14803,37 +14803,37 @@
         <v>423</v>
       </c>
       <c r="F73" s="2">
-        <v>1619</v>
+        <v>1682</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H73" s="2">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J73" s="2">
-        <v>8195</v>
+        <v>8510</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L73" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N73" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P73" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>575</v>
@@ -14873,37 +14873,37 @@
         <v>423</v>
       </c>
       <c r="F74" s="2">
-        <v>2069</v>
+        <v>2162</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H74" s="2">
-        <v>1024</v>
+        <v>1071</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J74" s="2">
-        <v>10445</v>
+        <v>10910</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L74" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N74" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P74" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>575</v>
@@ -14947,37 +14947,37 @@
         <v>423</v>
       </c>
       <c r="F75" s="2">
-        <v>2629</v>
+        <v>2822</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H75" s="2">
-        <v>1304</v>
+        <v>1401</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J75" s="2">
-        <v>13245</v>
+        <v>14210</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L75" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N75" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P75" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>575</v>
@@ -15039,19 +15039,19 @@
         <v>423</v>
       </c>
       <c r="L76" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N76" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P76" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
@@ -15078,37 +15078,37 @@
         <v>423</v>
       </c>
       <c r="F77" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H77" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J77" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L77" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N77" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P77" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>575</v>
@@ -15144,37 +15144,37 @@
         <v>423</v>
       </c>
       <c r="F78" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H78" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J78" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L78" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N78" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P78" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>575</v>
@@ -15214,37 +15214,37 @@
         <v>423</v>
       </c>
       <c r="F79" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H79" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J79" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L79" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N79" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P79" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>575</v>
@@ -15284,37 +15284,37 @@
         <v>423</v>
       </c>
       <c r="F80" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H80" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J80" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L80" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N80" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P80" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>575</v>
@@ -15354,37 +15354,37 @@
         <v>423</v>
       </c>
       <c r="F81" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H81" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J81" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L81" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N81" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P81" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>575</v>
@@ -15424,37 +15424,37 @@
         <v>423</v>
       </c>
       <c r="F82" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H82" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J82" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L82" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N82" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P82" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>575</v>
@@ -15494,37 +15494,37 @@
         <v>423</v>
       </c>
       <c r="F83" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H83" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J83" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L83" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N83" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P83" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>575</v>
@@ -15568,37 +15568,37 @@
         <v>423</v>
       </c>
       <c r="F84" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H84" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J84" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L84" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N84" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P84" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q84" s="3" t="s">
         <v>575</v>
@@ -15660,19 +15660,19 @@
         <v>423</v>
       </c>
       <c r="L85" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N85" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P85" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
@@ -15699,37 +15699,37 @@
         <v>423</v>
       </c>
       <c r="F86" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H86" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J86" s="2">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L86" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N86" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P86" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>575</v>
@@ -15765,37 +15765,37 @@
         <v>423</v>
       </c>
       <c r="F87" s="2">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H87" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J87" s="2">
-        <v>2694</v>
+        <v>3063</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L87" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N87" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P87" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>575</v>
@@ -15835,37 +15835,37 @@
         <v>423</v>
       </c>
       <c r="F88" s="2">
-        <v>794</v>
+        <v>878</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H88" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J88" s="2">
-        <v>4094</v>
+        <v>4513</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L88" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N88" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P88" s="2">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>575</v>
@@ -15905,37 +15905,37 @@
         <v>423</v>
       </c>
       <c r="F89" s="2">
-        <v>1131</v>
+        <v>1213</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H89" s="2">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J89" s="2">
-        <v>5781</v>
+        <v>6188</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L89" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N89" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P89" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>575</v>
@@ -15975,37 +15975,37 @@
         <v>423</v>
       </c>
       <c r="F90" s="2">
-        <v>1549</v>
+        <v>1613</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H90" s="2">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J90" s="2">
-        <v>7869</v>
+        <v>8188</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L90" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N90" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P90" s="2">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>575</v>
@@ -16045,37 +16045,37 @@
         <v>423</v>
       </c>
       <c r="F91" s="2">
-        <v>2024</v>
+        <v>2103</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H91" s="2">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J91" s="2">
-        <v>10244</v>
+        <v>10638</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L91" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N91" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P91" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>575</v>
@@ -16115,37 +16115,37 @@
         <v>423</v>
       </c>
       <c r="F92" s="2">
-        <v>2586</v>
+        <v>2703</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H92" s="2">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J92" s="2">
-        <v>13056</v>
+        <v>13638</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L92" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N92" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P92" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>575</v>
@@ -16189,37 +16189,37 @@
         <v>423</v>
       </c>
       <c r="F93" s="2">
-        <v>3286</v>
+        <v>3528</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H93" s="2">
-        <v>1630</v>
+        <v>1751</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J93" s="2">
-        <v>16556</v>
+        <v>17763</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L93" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N93" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P93" s="2">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="Q93" s="3" t="s">
         <v>575</v>
@@ -16281,19 +16281,19 @@
         <v>423</v>
       </c>
       <c r="L94" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N94" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P94" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
@@ -16320,37 +16320,37 @@
         <v>423</v>
       </c>
       <c r="F95" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H95" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J95" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L95" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N95" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P95" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>575</v>
@@ -16386,37 +16386,37 @@
         <v>423</v>
       </c>
       <c r="F96" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H96" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J96" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L96" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N96" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P96" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q96" s="3" t="s">
         <v>575</v>
@@ -16456,37 +16456,37 @@
         <v>423</v>
       </c>
       <c r="F97" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H97" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J97" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L97" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N97" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P97" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q97" s="3" t="s">
         <v>575</v>
@@ -16526,37 +16526,37 @@
         <v>423</v>
       </c>
       <c r="F98" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H98" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J98" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L98" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N98" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P98" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>575</v>
@@ -16596,37 +16596,37 @@
         <v>423</v>
       </c>
       <c r="F99" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H99" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J99" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L99" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N99" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P99" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q99" s="3" t="s">
         <v>575</v>
@@ -16666,37 +16666,37 @@
         <v>423</v>
       </c>
       <c r="F100" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H100" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J100" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L100" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N100" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P100" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>575</v>
@@ -16736,37 +16736,37 @@
         <v>423</v>
       </c>
       <c r="F101" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H101" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J101" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L101" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N101" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P101" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>575</v>
@@ -16810,37 +16810,37 @@
         <v>423</v>
       </c>
       <c r="F102" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H102" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J102" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L102" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N102" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P102" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>575</v>
@@ -16902,19 +16902,19 @@
         <v>423</v>
       </c>
       <c r="L103" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N103" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P103" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
@@ -16941,37 +16941,37 @@
         <v>423</v>
       </c>
       <c r="F104" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H104" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J104" s="2">
-        <v>1005</v>
+        <v>1220</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L104" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N104" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P104" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q104" s="3" t="s">
         <v>575</v>
@@ -17007,37 +17007,37 @@
         <v>423</v>
       </c>
       <c r="F105" s="2">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H105" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J105" s="2">
-        <v>2155</v>
+        <v>2450</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L105" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N105" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P105" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q105" s="3" t="s">
         <v>575</v>
@@ -17077,37 +17077,37 @@
         <v>423</v>
       </c>
       <c r="F106" s="2">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H106" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J106" s="2">
-        <v>3275</v>
+        <v>3610</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L106" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N106" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P106" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q106" s="3" t="s">
         <v>575</v>
@@ -17147,37 +17147,37 @@
         <v>423</v>
       </c>
       <c r="F107" s="2">
-        <v>905</v>
+        <v>970</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H107" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J107" s="2">
-        <v>4625</v>
+        <v>4950</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L107" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N107" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P107" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q107" s="3" t="s">
         <v>575</v>
@@ -17217,37 +17217,37 @@
         <v>423</v>
       </c>
       <c r="F108" s="2">
-        <v>1239</v>
+        <v>1290</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H108" s="2">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J108" s="2">
-        <v>6295</v>
+        <v>6550</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L108" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N108" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P108" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Q108" s="3" t="s">
         <v>575</v>
@@ -17287,37 +17287,37 @@
         <v>423</v>
       </c>
       <c r="F109" s="2">
-        <v>1619</v>
+        <v>1682</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H109" s="2">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J109" s="2">
-        <v>8195</v>
+        <v>8510</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L109" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N109" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P109" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q109" s="3" t="s">
         <v>575</v>
@@ -17357,37 +17357,37 @@
         <v>423</v>
       </c>
       <c r="F110" s="2">
-        <v>2069</v>
+        <v>2162</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H110" s="2">
-        <v>1024</v>
+        <v>1071</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J110" s="2">
-        <v>10445</v>
+        <v>10910</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L110" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N110" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P110" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q110" s="3" t="s">
         <v>575</v>
@@ -17431,37 +17431,37 @@
         <v>423</v>
       </c>
       <c r="F111" s="2">
-        <v>2629</v>
+        <v>2822</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H111" s="2">
-        <v>1304</v>
+        <v>1401</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J111" s="2">
-        <v>13245</v>
+        <v>14210</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L111" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N111" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P111" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Q111" s="3" t="s">
         <v>575</v>
@@ -17523,19 +17523,19 @@
         <v>423</v>
       </c>
       <c r="L112" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M112" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N112" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P112" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
@@ -17562,37 +17562,37 @@
         <v>423</v>
       </c>
       <c r="F113" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H113" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J113" s="2">
-        <v>1005</v>
+        <v>1220</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L113" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N113" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P113" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q113" s="3" t="s">
         <v>575</v>
@@ -17628,37 +17628,37 @@
         <v>423</v>
       </c>
       <c r="F114" s="2">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H114" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J114" s="2">
-        <v>2155</v>
+        <v>2450</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L114" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N114" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P114" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q114" s="3" t="s">
         <v>575</v>
@@ -17698,37 +17698,37 @@
         <v>423</v>
       </c>
       <c r="F115" s="2">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H115" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J115" s="2">
-        <v>3275</v>
+        <v>3610</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L115" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N115" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P115" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q115" s="3" t="s">
         <v>575</v>
@@ -17768,37 +17768,37 @@
         <v>423</v>
       </c>
       <c r="F116" s="2">
-        <v>905</v>
+        <v>970</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H116" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J116" s="2">
-        <v>4625</v>
+        <v>4950</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L116" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N116" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P116" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q116" s="3" t="s">
         <v>575</v>
@@ -17838,37 +17838,37 @@
         <v>423</v>
       </c>
       <c r="F117" s="2">
-        <v>1239</v>
+        <v>1290</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H117" s="2">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J117" s="2">
-        <v>6295</v>
+        <v>6550</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L117" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N117" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P117" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Q117" s="3" t="s">
         <v>575</v>
@@ -17908,37 +17908,37 @@
         <v>423</v>
       </c>
       <c r="F118" s="2">
-        <v>1619</v>
+        <v>1682</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H118" s="2">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J118" s="2">
-        <v>8195</v>
+        <v>8510</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L118" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N118" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P118" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q118" s="3" t="s">
         <v>575</v>
@@ -17978,37 +17978,37 @@
         <v>423</v>
       </c>
       <c r="F119" s="2">
-        <v>2069</v>
+        <v>2162</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H119" s="2">
-        <v>1024</v>
+        <v>1071</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J119" s="2">
-        <v>10445</v>
+        <v>10910</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L119" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N119" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P119" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q119" s="3" t="s">
         <v>575</v>
@@ -18052,37 +18052,37 @@
         <v>423</v>
       </c>
       <c r="F120" s="2">
-        <v>2629</v>
+        <v>2822</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H120" s="2">
-        <v>1304</v>
+        <v>1401</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J120" s="2">
-        <v>13245</v>
+        <v>14210</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L120" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N120" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P120" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Q120" s="3" t="s">
         <v>575</v>
@@ -18144,19 +18144,19 @@
         <v>423</v>
       </c>
       <c r="L121" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N121" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P121" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
@@ -18183,37 +18183,37 @@
         <v>423</v>
       </c>
       <c r="F122" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H122" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J122" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L122" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N122" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P122" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q122" s="3" t="s">
         <v>575</v>
@@ -18249,37 +18249,37 @@
         <v>423</v>
       </c>
       <c r="F123" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H123" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J123" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L123" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N123" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P123" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q123" s="3" t="s">
         <v>575</v>
@@ -18319,37 +18319,37 @@
         <v>423</v>
       </c>
       <c r="F124" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H124" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J124" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L124" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N124" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P124" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q124" s="3" t="s">
         <v>575</v>
@@ -18389,37 +18389,37 @@
         <v>423</v>
       </c>
       <c r="F125" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H125" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J125" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L125" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N125" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P125" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>575</v>
@@ -18459,37 +18459,37 @@
         <v>423</v>
       </c>
       <c r="F126" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H126" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J126" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L126" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N126" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P126" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q126" s="3" t="s">
         <v>575</v>
@@ -18529,37 +18529,37 @@
         <v>423</v>
       </c>
       <c r="F127" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H127" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J127" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L127" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N127" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P127" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q127" s="3" t="s">
         <v>575</v>
@@ -18599,37 +18599,37 @@
         <v>423</v>
       </c>
       <c r="F128" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H128" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J128" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L128" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N128" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P128" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q128" s="3" t="s">
         <v>575</v>
@@ -18673,37 +18673,37 @@
         <v>423</v>
       </c>
       <c r="F129" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H129" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J129" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L129" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N129" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P129" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q129" s="3" t="s">
         <v>575</v>
@@ -18765,19 +18765,19 @@
         <v>423</v>
       </c>
       <c r="L130" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M130" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N130" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P130" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
@@ -18804,37 +18804,37 @@
         <v>423</v>
       </c>
       <c r="F131" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H131" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J131" s="2">
-        <v>1106</v>
+        <v>1342</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L131" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M131" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N131" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P131" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="Q131" s="3" t="s">
         <v>575</v>
@@ -18870,37 +18870,37 @@
         <v>423</v>
       </c>
       <c r="F132" s="2">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H132" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J132" s="2">
-        <v>2371</v>
+        <v>2695</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L132" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M132" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N132" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P132" s="2">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="Q132" s="3" t="s">
         <v>575</v>
@@ -18940,37 +18940,37 @@
         <v>423</v>
       </c>
       <c r="F133" s="2">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H133" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J133" s="2">
-        <v>3603</v>
+        <v>3971</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L133" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N133" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P133" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="Q133" s="3" t="s">
         <v>575</v>
@@ -19010,37 +19010,37 @@
         <v>423</v>
       </c>
       <c r="F134" s="2">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H134" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J134" s="2">
-        <v>5088</v>
+        <v>5445</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L134" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N134" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P134" s="2">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="Q134" s="3" t="s">
         <v>575</v>
@@ -19080,37 +19080,37 @@
         <v>423</v>
       </c>
       <c r="F135" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H135" s="2">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J135" s="2">
-        <v>6925</v>
+        <v>7205</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L135" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N135" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P135" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Q135" s="3" t="s">
         <v>575</v>
@@ -19150,37 +19150,37 @@
         <v>423</v>
       </c>
       <c r="F136" s="2">
-        <v>1781</v>
+        <v>1850</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H136" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J136" s="2">
-        <v>9015</v>
+        <v>9361</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L136" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N136" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P136" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="Q136" s="3" t="s">
         <v>575</v>
@@ -19220,37 +19220,37 @@
         <v>423</v>
       </c>
       <c r="F137" s="2">
-        <v>2276</v>
+        <v>2378</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H137" s="2">
-        <v>1126</v>
+        <v>1178</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J137" s="2">
-        <v>11490</v>
+        <v>12001</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L137" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N137" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P137" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q137" s="3" t="s">
         <v>575</v>
@@ -19294,37 +19294,37 @@
         <v>423</v>
       </c>
       <c r="F138" s="2">
-        <v>2892</v>
+        <v>3104</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H138" s="2">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J138" s="2">
-        <v>14570</v>
+        <v>15631</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L138" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N138" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P138" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="Q138" s="3" t="s">
         <v>575</v>
@@ -19368,13 +19368,13 @@
         <v>423</v>
       </c>
       <c r="F139" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H139" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>425</v>
@@ -19425,13 +19425,13 @@
         <v>423</v>
       </c>
       <c r="F140" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H140" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>425</v>
@@ -19491,13 +19491,13 @@
         <v>423</v>
       </c>
       <c r="F141" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H141" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>425</v>
@@ -19561,13 +19561,13 @@
         <v>423</v>
       </c>
       <c r="F142" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H142" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>425</v>
@@ -19631,13 +19631,13 @@
         <v>423</v>
       </c>
       <c r="F143" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H143" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>425</v>
@@ -19701,13 +19701,13 @@
         <v>423</v>
       </c>
       <c r="F144" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H144" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>425</v>
@@ -19771,13 +19771,13 @@
         <v>423</v>
       </c>
       <c r="F145" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H145" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>425</v>
@@ -19841,13 +19841,13 @@
         <v>423</v>
       </c>
       <c r="F146" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H146" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>425</v>
@@ -19915,13 +19915,13 @@
         <v>423</v>
       </c>
       <c r="F147" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H147" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>425</v>
@@ -19989,13 +19989,13 @@
         <v>423</v>
       </c>
       <c r="F148" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H148" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>425</v>
@@ -20046,13 +20046,13 @@
         <v>423</v>
       </c>
       <c r="F149" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H149" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>425</v>
@@ -20112,13 +20112,13 @@
         <v>423</v>
       </c>
       <c r="F150" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H150" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>425</v>
@@ -20182,13 +20182,13 @@
         <v>423</v>
       </c>
       <c r="F151" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H151" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>425</v>
@@ -20252,13 +20252,13 @@
         <v>423</v>
       </c>
       <c r="F152" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H152" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>425</v>
@@ -20322,13 +20322,13 @@
         <v>423</v>
       </c>
       <c r="F153" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H153" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>425</v>
@@ -20392,13 +20392,13 @@
         <v>423</v>
       </c>
       <c r="F154" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H154" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>425</v>
@@ -20462,13 +20462,13 @@
         <v>423</v>
       </c>
       <c r="F155" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H155" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>425</v>
@@ -20536,13 +20536,13 @@
         <v>423</v>
       </c>
       <c r="F156" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H156" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>425</v>
@@ -20610,13 +20610,13 @@
         <v>423</v>
       </c>
       <c r="F157" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H157" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>425</v>
@@ -20667,13 +20667,13 @@
         <v>423</v>
       </c>
       <c r="F158" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H158" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>425</v>
@@ -20733,13 +20733,13 @@
         <v>423</v>
       </c>
       <c r="F159" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H159" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>425</v>
@@ -20803,13 +20803,13 @@
         <v>423</v>
       </c>
       <c r="F160" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H160" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>425</v>
@@ -20873,13 +20873,13 @@
         <v>423</v>
       </c>
       <c r="F161" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H161" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>425</v>
@@ -20943,13 +20943,13 @@
         <v>423</v>
       </c>
       <c r="F162" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H162" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I162" s="3" t="s">
         <v>425</v>
@@ -21013,13 +21013,13 @@
         <v>423</v>
       </c>
       <c r="F163" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H163" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>425</v>
@@ -21083,13 +21083,13 @@
         <v>423</v>
       </c>
       <c r="F164" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H164" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>425</v>
@@ -21157,13 +21157,13 @@
         <v>423</v>
       </c>
       <c r="F165" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H165" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>425</v>
@@ -21231,13 +21231,13 @@
         <v>423</v>
       </c>
       <c r="F166" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H166" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>425</v>
@@ -21288,13 +21288,13 @@
         <v>423</v>
       </c>
       <c r="F167" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H167" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>425</v>
@@ -21354,13 +21354,13 @@
         <v>423</v>
       </c>
       <c r="F168" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H168" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>425</v>
@@ -21424,13 +21424,13 @@
         <v>423</v>
       </c>
       <c r="F169" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H169" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>425</v>
@@ -21494,13 +21494,13 @@
         <v>423</v>
       </c>
       <c r="F170" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H170" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>425</v>
@@ -21564,13 +21564,13 @@
         <v>423</v>
       </c>
       <c r="F171" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H171" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>425</v>
@@ -21634,13 +21634,13 @@
         <v>423</v>
       </c>
       <c r="F172" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H172" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>425</v>
@@ -21704,13 +21704,13 @@
         <v>423</v>
       </c>
       <c r="F173" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H173" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>425</v>
@@ -21778,13 +21778,13 @@
         <v>423</v>
       </c>
       <c r="F174" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H174" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>425</v>
@@ -21852,13 +21852,13 @@
         <v>423</v>
       </c>
       <c r="F175" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H175" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>425</v>
@@ -21909,13 +21909,13 @@
         <v>423</v>
       </c>
       <c r="F176" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H176" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>425</v>
@@ -21975,13 +21975,13 @@
         <v>423</v>
       </c>
       <c r="F177" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H177" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>425</v>
@@ -22045,13 +22045,13 @@
         <v>423</v>
       </c>
       <c r="F178" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H178" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>425</v>
@@ -22115,13 +22115,13 @@
         <v>423</v>
       </c>
       <c r="F179" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H179" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>425</v>
@@ -22185,13 +22185,13 @@
         <v>423</v>
       </c>
       <c r="F180" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H180" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I180" s="3" t="s">
         <v>425</v>
@@ -22255,13 +22255,13 @@
         <v>423</v>
       </c>
       <c r="F181" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H181" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>425</v>
@@ -22325,13 +22325,13 @@
         <v>423</v>
       </c>
       <c r="F182" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H182" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I182" s="3" t="s">
         <v>425</v>
@@ -22399,13 +22399,13 @@
         <v>423</v>
       </c>
       <c r="F183" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H183" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I183" s="3" t="s">
         <v>425</v>
@@ -22473,13 +22473,13 @@
         <v>423</v>
       </c>
       <c r="F184" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H184" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>425</v>
@@ -22530,13 +22530,13 @@
         <v>423</v>
       </c>
       <c r="F185" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H185" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>425</v>
@@ -22596,13 +22596,13 @@
         <v>423</v>
       </c>
       <c r="F186" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H186" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>425</v>
@@ -22666,13 +22666,13 @@
         <v>423</v>
       </c>
       <c r="F187" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H187" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I187" s="3" t="s">
         <v>425</v>
@@ -22736,13 +22736,13 @@
         <v>423</v>
       </c>
       <c r="F188" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H188" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>425</v>
@@ -22806,13 +22806,13 @@
         <v>423</v>
       </c>
       <c r="F189" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H189" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>425</v>
@@ -22876,13 +22876,13 @@
         <v>423</v>
       </c>
       <c r="F190" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H190" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>425</v>
@@ -22946,13 +22946,13 @@
         <v>423</v>
       </c>
       <c r="F191" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H191" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I191" s="3" t="s">
         <v>425</v>
@@ -23020,13 +23020,13 @@
         <v>423</v>
       </c>
       <c r="F192" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H192" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>425</v>
@@ -23094,13 +23094,13 @@
         <v>423</v>
       </c>
       <c r="F193" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H193" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>425</v>
@@ -23151,13 +23151,13 @@
         <v>423</v>
       </c>
       <c r="F194" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H194" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>425</v>
@@ -23217,13 +23217,13 @@
         <v>423</v>
       </c>
       <c r="F195" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H195" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>425</v>
@@ -23287,13 +23287,13 @@
         <v>423</v>
       </c>
       <c r="F196" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H196" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I196" s="3" t="s">
         <v>425</v>
@@ -23357,13 +23357,13 @@
         <v>423</v>
       </c>
       <c r="F197" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H197" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>425</v>
@@ -23427,13 +23427,13 @@
         <v>423</v>
       </c>
       <c r="F198" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H198" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I198" s="3" t="s">
         <v>425</v>
@@ -23497,13 +23497,13 @@
         <v>423</v>
       </c>
       <c r="F199" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H199" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I199" s="3" t="s">
         <v>425</v>
@@ -23567,13 +23567,13 @@
         <v>423</v>
       </c>
       <c r="F200" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H200" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>425</v>
@@ -23641,13 +23641,13 @@
         <v>423</v>
       </c>
       <c r="F201" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H201" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>425</v>
@@ -23715,13 +23715,13 @@
         <v>423</v>
       </c>
       <c r="F202" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H202" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>425</v>
@@ -23772,13 +23772,13 @@
         <v>423</v>
       </c>
       <c r="F203" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H203" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I203" s="3" t="s">
         <v>425</v>
@@ -23838,13 +23838,13 @@
         <v>423</v>
       </c>
       <c r="F204" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H204" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I204" s="3" t="s">
         <v>425</v>
@@ -23908,13 +23908,13 @@
         <v>423</v>
       </c>
       <c r="F205" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H205" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>425</v>
@@ -23978,13 +23978,13 @@
         <v>423</v>
       </c>
       <c r="F206" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H206" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>425</v>
@@ -24048,13 +24048,13 @@
         <v>423</v>
       </c>
       <c r="F207" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H207" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>425</v>
@@ -24118,13 +24118,13 @@
         <v>423</v>
       </c>
       <c r="F208" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H208" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>425</v>
@@ -24188,13 +24188,13 @@
         <v>423</v>
       </c>
       <c r="F209" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H209" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>425</v>
@@ -24262,13 +24262,13 @@
         <v>423</v>
       </c>
       <c r="F210" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H210" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>425</v>
@@ -24336,13 +24336,13 @@
         <v>423</v>
       </c>
       <c r="F211" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H211" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>425</v>
@@ -24393,13 +24393,13 @@
         <v>423</v>
       </c>
       <c r="F212" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H212" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I212" s="3" t="s">
         <v>425</v>
@@ -24459,13 +24459,13 @@
         <v>423</v>
       </c>
       <c r="F213" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H213" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>425</v>
@@ -24529,13 +24529,13 @@
         <v>423</v>
       </c>
       <c r="F214" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H214" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>425</v>
@@ -24599,13 +24599,13 @@
         <v>423</v>
       </c>
       <c r="F215" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H215" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>425</v>
@@ -24669,13 +24669,13 @@
         <v>423</v>
       </c>
       <c r="F216" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H216" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>425</v>
@@ -24739,13 +24739,13 @@
         <v>423</v>
       </c>
       <c r="F217" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H217" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>425</v>
@@ -24809,13 +24809,13 @@
         <v>423</v>
       </c>
       <c r="F218" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H218" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>425</v>
@@ -24883,13 +24883,13 @@
         <v>423</v>
       </c>
       <c r="F219" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H219" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>425</v>
@@ -24957,13 +24957,13 @@
         <v>423</v>
       </c>
       <c r="F220" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H220" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>425</v>
@@ -25014,13 +25014,13 @@
         <v>423</v>
       </c>
       <c r="F221" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H221" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>425</v>
@@ -25080,13 +25080,13 @@
         <v>423</v>
       </c>
       <c r="F222" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H222" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>425</v>
@@ -25150,13 +25150,13 @@
         <v>423</v>
       </c>
       <c r="F223" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H223" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>425</v>
@@ -25220,13 +25220,13 @@
         <v>423</v>
       </c>
       <c r="F224" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H224" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>425</v>
@@ -25290,13 +25290,13 @@
         <v>423</v>
       </c>
       <c r="F225" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H225" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>425</v>
@@ -25360,13 +25360,13 @@
         <v>423</v>
       </c>
       <c r="F226" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H226" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>425</v>
@@ -25430,13 +25430,13 @@
         <v>423</v>
       </c>
       <c r="F227" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H227" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>425</v>
@@ -25504,13 +25504,13 @@
         <v>423</v>
       </c>
       <c r="F228" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H228" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>425</v>
@@ -25578,13 +25578,13 @@
         <v>423</v>
       </c>
       <c r="F229" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H229" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I229" s="3" t="s">
         <v>425</v>
@@ -25635,13 +25635,13 @@
         <v>423</v>
       </c>
       <c r="F230" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H230" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>425</v>
@@ -25701,13 +25701,13 @@
         <v>423</v>
       </c>
       <c r="F231" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H231" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>425</v>
@@ -25771,13 +25771,13 @@
         <v>423</v>
       </c>
       <c r="F232" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H232" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>425</v>
@@ -25841,13 +25841,13 @@
         <v>423</v>
       </c>
       <c r="F233" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H233" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>425</v>
@@ -25911,13 +25911,13 @@
         <v>423</v>
       </c>
       <c r="F234" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H234" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>425</v>
@@ -25981,13 +25981,13 @@
         <v>423</v>
       </c>
       <c r="F235" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H235" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>425</v>
@@ -26051,13 +26051,13 @@
         <v>423</v>
       </c>
       <c r="F236" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H236" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>425</v>
@@ -26125,13 +26125,13 @@
         <v>423</v>
       </c>
       <c r="F237" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H237" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I237" s="3" t="s">
         <v>425</v>
@@ -26199,13 +26199,13 @@
         <v>423</v>
       </c>
       <c r="F238" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H238" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>425</v>
@@ -26256,13 +26256,13 @@
         <v>423</v>
       </c>
       <c r="F239" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H239" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>425</v>
@@ -26322,13 +26322,13 @@
         <v>423</v>
       </c>
       <c r="F240" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H240" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>425</v>
@@ -26392,13 +26392,13 @@
         <v>423</v>
       </c>
       <c r="F241" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H241" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I241" s="3" t="s">
         <v>425</v>
@@ -26462,13 +26462,13 @@
         <v>423</v>
       </c>
       <c r="F242" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H242" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>425</v>
@@ -26532,13 +26532,13 @@
         <v>423</v>
       </c>
       <c r="F243" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H243" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I243" s="3" t="s">
         <v>425</v>
@@ -26602,13 +26602,13 @@
         <v>423</v>
       </c>
       <c r="F244" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H244" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>425</v>
@@ -26672,13 +26672,13 @@
         <v>423</v>
       </c>
       <c r="F245" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H245" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>425</v>
@@ -26746,13 +26746,13 @@
         <v>423</v>
       </c>
       <c r="F246" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H246" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>425</v>
@@ -26820,13 +26820,13 @@
         <v>423</v>
       </c>
       <c r="F247" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H247" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>425</v>
@@ -26877,13 +26877,13 @@
         <v>423</v>
       </c>
       <c r="F248" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H248" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>425</v>
@@ -26943,13 +26943,13 @@
         <v>423</v>
       </c>
       <c r="F249" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H249" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>425</v>
@@ -27013,13 +27013,13 @@
         <v>423</v>
       </c>
       <c r="F250" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H250" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>425</v>
@@ -27083,13 +27083,13 @@
         <v>423</v>
       </c>
       <c r="F251" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H251" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>425</v>
@@ -27153,13 +27153,13 @@
         <v>423</v>
       </c>
       <c r="F252" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H252" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>425</v>
@@ -27223,13 +27223,13 @@
         <v>423</v>
       </c>
       <c r="F253" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H253" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>425</v>
@@ -27293,13 +27293,13 @@
         <v>423</v>
       </c>
       <c r="F254" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H254" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>425</v>
@@ -27367,13 +27367,13 @@
         <v>423</v>
       </c>
       <c r="F255" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H255" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>425</v>
@@ -27441,13 +27441,13 @@
         <v>423</v>
       </c>
       <c r="F256" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H256" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I256" s="3" t="s">
         <v>425</v>
@@ -27498,13 +27498,13 @@
         <v>423</v>
       </c>
       <c r="F257" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H257" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>425</v>
@@ -27564,13 +27564,13 @@
         <v>423</v>
       </c>
       <c r="F258" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H258" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>425</v>
@@ -27634,13 +27634,13 @@
         <v>423</v>
       </c>
       <c r="F259" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H259" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>425</v>
@@ -27704,13 +27704,13 @@
         <v>423</v>
       </c>
       <c r="F260" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H260" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I260" s="3" t="s">
         <v>425</v>
@@ -27774,13 +27774,13 @@
         <v>423</v>
       </c>
       <c r="F261" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H261" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I261" s="3" t="s">
         <v>425</v>
@@ -27844,13 +27844,13 @@
         <v>423</v>
       </c>
       <c r="F262" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H262" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>425</v>
@@ -27914,13 +27914,13 @@
         <v>423</v>
       </c>
       <c r="F263" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H263" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I263" s="3" t="s">
         <v>425</v>
@@ -27988,13 +27988,13 @@
         <v>423</v>
       </c>
       <c r="F264" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H264" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>425</v>
@@ -28062,13 +28062,13 @@
         <v>423</v>
       </c>
       <c r="F265" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H265" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>425</v>
@@ -28119,13 +28119,13 @@
         <v>423</v>
       </c>
       <c r="F266" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H266" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>425</v>
@@ -28185,13 +28185,13 @@
         <v>423</v>
       </c>
       <c r="F267" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H267" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I267" s="3" t="s">
         <v>425</v>
@@ -28255,13 +28255,13 @@
         <v>423</v>
       </c>
       <c r="F268" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H268" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I268" s="3" t="s">
         <v>425</v>
@@ -28325,13 +28325,13 @@
         <v>423</v>
       </c>
       <c r="F269" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H269" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I269" s="3" t="s">
         <v>425</v>
@@ -28395,13 +28395,13 @@
         <v>423</v>
       </c>
       <c r="F270" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H270" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I270" s="3" t="s">
         <v>425</v>
@@ -28465,13 +28465,13 @@
         <v>423</v>
       </c>
       <c r="F271" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H271" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>425</v>
@@ -28535,13 +28535,13 @@
         <v>423</v>
       </c>
       <c r="F272" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H272" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>425</v>
@@ -28609,13 +28609,13 @@
         <v>423</v>
       </c>
       <c r="F273" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H273" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>425</v>
@@ -28683,13 +28683,13 @@
         <v>423</v>
       </c>
       <c r="F274" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H274" s="2">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I274" s="3" t="s">
         <v>425</v>
@@ -28740,13 +28740,13 @@
         <v>423</v>
       </c>
       <c r="F275" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H275" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="I275" s="3" t="s">
         <v>425</v>
@@ -28806,13 +28806,13 @@
         <v>423</v>
       </c>
       <c r="F276" s="2">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H276" s="2">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I276" s="3" t="s">
         <v>425</v>
@@ -28876,13 +28876,13 @@
         <v>423</v>
       </c>
       <c r="F277" s="2">
-        <v>844</v>
+        <v>894</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H277" s="2">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="I277" s="3" t="s">
         <v>425</v>
@@ -28946,13 +28946,13 @@
         <v>423</v>
       </c>
       <c r="F278" s="2">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H278" s="2">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>425</v>
@@ -29016,13 +29016,13 @@
         <v>423</v>
       </c>
       <c r="F279" s="2">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H279" s="2">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>425</v>
@@ -29086,13 +29086,13 @@
         <v>423</v>
       </c>
       <c r="F280" s="2">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H280" s="2">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="I280" s="3" t="s">
         <v>425</v>
@@ -29156,13 +29156,13 @@
         <v>423</v>
       </c>
       <c r="F281" s="2">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H281" s="2">
-        <v>1293</v>
+        <v>1405</v>
       </c>
       <c r="I281" s="3" t="s">
         <v>425</v>
@@ -29230,13 +29230,13 @@
         <v>423</v>
       </c>
       <c r="F282" s="2">
-        <v>3336</v>
+        <v>3386</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H282" s="2">
-        <v>1643</v>
+        <v>1755</v>
       </c>
       <c r="I282" s="3" t="s">
         <v>425</v>
@@ -29304,13 +29304,13 @@
         <v>423</v>
       </c>
       <c r="F283" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H283" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>425</v>
@@ -29361,13 +29361,13 @@
         <v>423</v>
       </c>
       <c r="F284" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H284" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I284" s="3" t="s">
         <v>425</v>
@@ -29427,13 +29427,13 @@
         <v>423</v>
       </c>
       <c r="F285" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H285" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>425</v>
@@ -29497,13 +29497,13 @@
         <v>423</v>
       </c>
       <c r="F286" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H286" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>425</v>
@@ -29567,13 +29567,13 @@
         <v>423</v>
       </c>
       <c r="F287" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H287" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>425</v>
@@ -29637,13 +29637,13 @@
         <v>423</v>
       </c>
       <c r="F288" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H288" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I288" s="3" t="s">
         <v>425</v>
@@ -29707,13 +29707,13 @@
         <v>423</v>
       </c>
       <c r="F289" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H289" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I289" s="3" t="s">
         <v>425</v>
@@ -29777,13 +29777,13 @@
         <v>423</v>
       </c>
       <c r="F290" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H290" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>425</v>
@@ -29851,13 +29851,13 @@
         <v>423</v>
       </c>
       <c r="F291" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H291" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I291" s="3" t="s">
         <v>425</v>
@@ -29925,13 +29925,13 @@
         <v>423</v>
       </c>
       <c r="F292" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H292" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I292" s="3" t="s">
         <v>425</v>
@@ -29982,13 +29982,13 @@
         <v>423</v>
       </c>
       <c r="F293" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H293" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I293" s="3" t="s">
         <v>425</v>
@@ -30048,13 +30048,13 @@
         <v>423</v>
       </c>
       <c r="F294" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H294" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I294" s="3" t="s">
         <v>425</v>
@@ -30118,13 +30118,13 @@
         <v>423</v>
       </c>
       <c r="F295" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H295" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>425</v>
@@ -30188,13 +30188,13 @@
         <v>423</v>
       </c>
       <c r="F296" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H296" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I296" s="3" t="s">
         <v>425</v>
@@ -30258,13 +30258,13 @@
         <v>423</v>
       </c>
       <c r="F297" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H297" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>425</v>
@@ -30328,13 +30328,13 @@
         <v>423</v>
       </c>
       <c r="F298" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H298" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I298" s="3" t="s">
         <v>425</v>
@@ -30398,13 +30398,13 @@
         <v>423</v>
       </c>
       <c r="F299" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H299" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I299" s="3" t="s">
         <v>425</v>
@@ -30472,13 +30472,13 @@
         <v>423</v>
       </c>
       <c r="F300" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H300" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I300" s="3" t="s">
         <v>425</v>
@@ -30546,13 +30546,13 @@
         <v>423</v>
       </c>
       <c r="F301" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H301" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I301" s="3" t="s">
         <v>425</v>
@@ -30603,13 +30603,13 @@
         <v>423</v>
       </c>
       <c r="F302" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H302" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I302" s="3" t="s">
         <v>425</v>
@@ -30669,13 +30669,13 @@
         <v>423</v>
       </c>
       <c r="F303" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H303" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I303" s="3" t="s">
         <v>425</v>
@@ -30739,13 +30739,13 @@
         <v>423</v>
       </c>
       <c r="F304" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H304" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I304" s="3" t="s">
         <v>425</v>
@@ -30809,13 +30809,13 @@
         <v>423</v>
       </c>
       <c r="F305" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H305" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I305" s="3" t="s">
         <v>425</v>
@@ -30879,13 +30879,13 @@
         <v>423</v>
       </c>
       <c r="F306" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H306" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I306" s="3" t="s">
         <v>425</v>
@@ -30949,13 +30949,13 @@
         <v>423</v>
       </c>
       <c r="F307" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H307" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I307" s="3" t="s">
         <v>425</v>
@@ -31019,13 +31019,13 @@
         <v>423</v>
       </c>
       <c r="F308" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H308" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>425</v>
@@ -31093,13 +31093,13 @@
         <v>423</v>
       </c>
       <c r="F309" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H309" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I309" s="3" t="s">
         <v>425</v>
@@ -31167,13 +31167,13 @@
         <v>423</v>
       </c>
       <c r="F310" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H310" s="2">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I310" s="3" t="s">
         <v>425</v>
@@ -31224,13 +31224,13 @@
         <v>423</v>
       </c>
       <c r="F311" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H311" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I311" s="3" t="s">
         <v>425</v>
@@ -31290,13 +31290,13 @@
         <v>423</v>
       </c>
       <c r="F312" s="2">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H312" s="2">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="I312" s="3" t="s">
         <v>425</v>
@@ -31360,13 +31360,13 @@
         <v>423</v>
       </c>
       <c r="F313" s="2">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H313" s="2">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="I313" s="3" t="s">
         <v>425</v>
@@ -31430,13 +31430,13 @@
         <v>423</v>
       </c>
       <c r="F314" s="2">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H314" s="2">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="I314" s="3" t="s">
         <v>425</v>
@@ -31500,13 +31500,13 @@
         <v>423</v>
       </c>
       <c r="F315" s="2">
-        <v>1407</v>
+        <v>1451</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H315" s="2">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="I315" s="3" t="s">
         <v>425</v>
@@ -31570,13 +31570,13 @@
         <v>423</v>
       </c>
       <c r="F316" s="2">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H316" s="2">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I316" s="3" t="s">
         <v>425</v>
@@ -31640,13 +31640,13 @@
         <v>423</v>
       </c>
       <c r="F317" s="2">
-        <v>2320</v>
+        <v>2364</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H317" s="2">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="I317" s="3" t="s">
         <v>425</v>
@@ -31714,13 +31714,13 @@
         <v>423</v>
       </c>
       <c r="F318" s="2">
-        <v>2936</v>
+        <v>2980</v>
       </c>
       <c r="G318" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H318" s="2">
-        <v>1445</v>
+        <v>1544</v>
       </c>
       <c r="I318" s="3" t="s">
         <v>425</v>
@@ -31788,13 +31788,13 @@
         <v>423</v>
       </c>
       <c r="F319" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H319" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I319" s="3" t="s">
         <v>425</v>
@@ -31845,13 +31845,13 @@
         <v>423</v>
       </c>
       <c r="F320" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H320" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>425</v>
@@ -31911,13 +31911,13 @@
         <v>423</v>
       </c>
       <c r="F321" s="2">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H321" s="2">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I321" s="3" t="s">
         <v>425</v>
@@ -31981,13 +31981,13 @@
         <v>423</v>
       </c>
       <c r="F322" s="2">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H322" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>425</v>
@@ -32051,13 +32051,13 @@
         <v>423</v>
       </c>
       <c r="F323" s="2">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H323" s="2">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="I323" s="3" t="s">
         <v>425</v>
@@ -32121,13 +32121,13 @@
         <v>423</v>
       </c>
       <c r="F324" s="2">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H324" s="2">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I324" s="3" t="s">
         <v>425</v>
@@ -32191,13 +32191,13 @@
         <v>423</v>
       </c>
       <c r="F325" s="2">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H325" s="2">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I325" s="3" t="s">
         <v>425</v>
@@ -32261,13 +32261,13 @@
         <v>423</v>
       </c>
       <c r="F326" s="2">
-        <v>2109</v>
+        <v>2149</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H326" s="2">
-        <v>1034</v>
+        <v>1124</v>
       </c>
       <c r="I326" s="3" t="s">
         <v>425</v>
@@ -32335,13 +32335,13 @@
         <v>423</v>
       </c>
       <c r="F327" s="2">
-        <v>2669</v>
+        <v>2709</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H327" s="2">
-        <v>1314</v>
+        <v>1404</v>
       </c>
       <c r="I327" s="3" t="s">
         <v>425</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3627,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X4" workbookViewId="0">
       <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
@@ -9793,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X327"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10052,7 +10052,7 @@
         <v>423</v>
       </c>
       <c r="F4" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>424</v>
@@ -10064,7 +10064,7 @@
         <v>425</v>
       </c>
       <c r="J4" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>423</v>
@@ -10110,19 +10110,19 @@
         <v>423</v>
       </c>
       <c r="F5" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H5" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J5" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>423</v>
@@ -10176,37 +10176,37 @@
         <v>423</v>
       </c>
       <c r="F6" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H6" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J6" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L6" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P6" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>575</v>
@@ -10246,37 +10246,37 @@
         <v>423</v>
       </c>
       <c r="F7" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H7" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J7" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L7" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N7" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P7" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>575</v>
@@ -10316,37 +10316,37 @@
         <v>423</v>
       </c>
       <c r="F8" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H8" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J8" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L8" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N8" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P8" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>575</v>
@@ -10386,37 +10386,37 @@
         <v>423</v>
       </c>
       <c r="F9" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H9" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J9" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L9" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P9" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>575</v>
@@ -10456,37 +10456,37 @@
         <v>423</v>
       </c>
       <c r="F10" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H10" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J10" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L10" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N10" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P10" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>575</v>
@@ -10526,37 +10526,37 @@
         <v>423</v>
       </c>
       <c r="F11" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H11" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J11" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L11" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N11" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P11" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>575</v>
@@ -10600,37 +10600,37 @@
         <v>423</v>
       </c>
       <c r="F12" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H12" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J12" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L12" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N12" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P12" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>575</v>
@@ -10674,7 +10674,7 @@
         <v>423</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>424</v>
@@ -10686,7 +10686,7 @@
         <v>425</v>
       </c>
       <c r="J13" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>423</v>
@@ -10731,19 +10731,19 @@
         <v>423</v>
       </c>
       <c r="F14" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H14" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J14" s="2">
-        <v>1220</v>
+        <v>1125</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>423</v>
@@ -10797,37 +10797,37 @@
         <v>423</v>
       </c>
       <c r="F15" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H15" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J15" s="2">
-        <v>2450</v>
+        <v>2365</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L15" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P15" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>575</v>
@@ -10867,37 +10867,37 @@
         <v>423</v>
       </c>
       <c r="F16" s="2">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H16" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J16" s="2">
-        <v>3610</v>
+        <v>3605</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L16" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N16" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P16" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>575</v>
@@ -10937,37 +10937,37 @@
         <v>423</v>
       </c>
       <c r="F17" s="2">
-        <v>970</v>
+        <v>1005</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H17" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J17" s="2">
-        <v>4950</v>
+        <v>5055</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L17" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N17" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P17" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>575</v>
@@ -11007,37 +11007,37 @@
         <v>423</v>
       </c>
       <c r="F18" s="2">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H18" s="2">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J18" s="2">
-        <v>6550</v>
+        <v>6755</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L18" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N18" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P18" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>575</v>
@@ -11077,37 +11077,37 @@
         <v>423</v>
       </c>
       <c r="F19" s="2">
-        <v>1682</v>
+        <v>1735</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H19" s="2">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J19" s="2">
-        <v>8510</v>
+        <v>8705</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L19" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N19" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P19" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>575</v>
@@ -11147,37 +11147,37 @@
         <v>423</v>
       </c>
       <c r="F20" s="2">
-        <v>2162</v>
+        <v>2215</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H20" s="2">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J20" s="2">
-        <v>10910</v>
+        <v>11105</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L20" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N20" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P20" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>575</v>
@@ -11221,37 +11221,37 @@
         <v>423</v>
       </c>
       <c r="F21" s="2">
-        <v>2822</v>
+        <v>2805</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H21" s="2">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J21" s="2">
-        <v>14210</v>
+        <v>14055</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L21" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N21" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P21" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>575</v>
@@ -11295,7 +11295,7 @@
         <v>423</v>
       </c>
       <c r="F22" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>424</v>
@@ -11307,7 +11307,7 @@
         <v>425</v>
       </c>
       <c r="J22" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>423</v>
@@ -11352,19 +11352,19 @@
         <v>423</v>
       </c>
       <c r="F23" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H23" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J23" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>423</v>
@@ -11418,37 +11418,37 @@
         <v>423</v>
       </c>
       <c r="F24" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H24" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J24" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L24" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P24" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>575</v>
@@ -11488,37 +11488,37 @@
         <v>423</v>
       </c>
       <c r="F25" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H25" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J25" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L25" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N25" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P25" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>575</v>
@@ -11558,37 +11558,37 @@
         <v>423</v>
       </c>
       <c r="F26" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H26" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J26" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L26" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N26" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P26" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>575</v>
@@ -11628,37 +11628,37 @@
         <v>423</v>
       </c>
       <c r="F27" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H27" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J27" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L27" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N27" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P27" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>575</v>
@@ -11698,37 +11698,37 @@
         <v>423</v>
       </c>
       <c r="F28" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H28" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J28" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L28" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N28" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P28" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>575</v>
@@ -11768,37 +11768,37 @@
         <v>423</v>
       </c>
       <c r="F29" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H29" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J29" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L29" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N29" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P29" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>575</v>
@@ -11842,37 +11842,37 @@
         <v>423</v>
       </c>
       <c r="F30" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H30" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J30" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L30" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N30" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P30" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>575</v>
@@ -11916,7 +11916,7 @@
         <v>423</v>
       </c>
       <c r="F31" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>424</v>
@@ -11928,7 +11928,7 @@
         <v>425</v>
       </c>
       <c r="J31" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>423</v>
@@ -11973,19 +11973,19 @@
         <v>423</v>
       </c>
       <c r="F32" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H32" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J32" s="2">
-        <v>1525</v>
+        <v>1406</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>423</v>
@@ -12039,37 +12039,37 @@
         <v>423</v>
       </c>
       <c r="F33" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H33" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J33" s="2">
-        <v>3063</v>
+        <v>2956</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L33" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N33" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P33" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>575</v>
@@ -12109,37 +12109,37 @@
         <v>423</v>
       </c>
       <c r="F34" s="2">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H34" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J34" s="2">
-        <v>4513</v>
+        <v>4506</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L34" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N34" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P34" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>575</v>
@@ -12179,37 +12179,37 @@
         <v>423</v>
       </c>
       <c r="F35" s="2">
-        <v>1213</v>
+        <v>1256</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H35" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J35" s="2">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L35" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N35" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P35" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>575</v>
@@ -12249,37 +12249,37 @@
         <v>423</v>
       </c>
       <c r="F36" s="2">
-        <v>1613</v>
+        <v>1681</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H36" s="2">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J36" s="2">
-        <v>8188</v>
+        <v>8444</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L36" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N36" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P36" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>575</v>
@@ -12319,37 +12319,37 @@
         <v>423</v>
       </c>
       <c r="F37" s="2">
-        <v>2103</v>
+        <v>2169</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H37" s="2">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J37" s="2">
-        <v>10638</v>
+        <v>10881</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L37" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N37" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P37" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>575</v>
@@ -12389,37 +12389,37 @@
         <v>423</v>
       </c>
       <c r="F38" s="2">
-        <v>2703</v>
+        <v>2769</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H38" s="2">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J38" s="2">
-        <v>13638</v>
+        <v>13881</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L38" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N38" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P38" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>575</v>
@@ -12463,37 +12463,37 @@
         <v>423</v>
       </c>
       <c r="F39" s="2">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H39" s="2">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J39" s="2">
-        <v>17763</v>
+        <v>17569</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L39" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N39" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P39" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>575</v>
@@ -12537,7 +12537,7 @@
         <v>423</v>
       </c>
       <c r="F40" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>424</v>
@@ -12549,7 +12549,7 @@
         <v>425</v>
       </c>
       <c r="J40" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>423</v>
@@ -12594,19 +12594,19 @@
         <v>423</v>
       </c>
       <c r="F41" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H41" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J41" s="2">
-        <v>1525</v>
+        <v>1406</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>423</v>
@@ -12660,37 +12660,37 @@
         <v>423</v>
       </c>
       <c r="F42" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H42" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J42" s="2">
-        <v>3063</v>
+        <v>2956</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L42" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N42" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P42" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>575</v>
@@ -12730,37 +12730,37 @@
         <v>423</v>
       </c>
       <c r="F43" s="2">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H43" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J43" s="2">
-        <v>4513</v>
+        <v>4506</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L43" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N43" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P43" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>575</v>
@@ -12800,37 +12800,37 @@
         <v>423</v>
       </c>
       <c r="F44" s="2">
-        <v>1213</v>
+        <v>1256</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H44" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J44" s="2">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L44" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N44" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P44" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>575</v>
@@ -12870,37 +12870,37 @@
         <v>423</v>
       </c>
       <c r="F45" s="2">
-        <v>1613</v>
+        <v>1681</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H45" s="2">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J45" s="2">
-        <v>8188</v>
+        <v>8444</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L45" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N45" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P45" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>575</v>
@@ -12940,37 +12940,37 @@
         <v>423</v>
       </c>
       <c r="F46" s="2">
-        <v>2103</v>
+        <v>2169</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H46" s="2">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J46" s="2">
-        <v>10638</v>
+        <v>10881</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L46" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N46" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P46" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>575</v>
@@ -13010,37 +13010,37 @@
         <v>423</v>
       </c>
       <c r="F47" s="2">
-        <v>2703</v>
+        <v>2769</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H47" s="2">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J47" s="2">
-        <v>13638</v>
+        <v>13881</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L47" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N47" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P47" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>575</v>
@@ -13084,37 +13084,37 @@
         <v>423</v>
       </c>
       <c r="F48" s="2">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H48" s="2">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J48" s="2">
-        <v>17763</v>
+        <v>17569</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L48" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N48" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P48" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>575</v>
@@ -13158,7 +13158,7 @@
         <v>423</v>
       </c>
       <c r="F49" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>424</v>
@@ -13170,7 +13170,7 @@
         <v>425</v>
       </c>
       <c r="J49" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>423</v>
@@ -13215,19 +13215,19 @@
         <v>423</v>
       </c>
       <c r="F50" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H50" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J50" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>423</v>
@@ -13281,37 +13281,37 @@
         <v>423</v>
       </c>
       <c r="F51" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H51" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J51" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L51" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N51" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P51" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>575</v>
@@ -13351,37 +13351,37 @@
         <v>423</v>
       </c>
       <c r="F52" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H52" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J52" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L52" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N52" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P52" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>575</v>
@@ -13421,37 +13421,37 @@
         <v>423</v>
       </c>
       <c r="F53" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H53" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J53" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L53" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N53" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P53" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>575</v>
@@ -13491,37 +13491,37 @@
         <v>423</v>
       </c>
       <c r="F54" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H54" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J54" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L54" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N54" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P54" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>575</v>
@@ -13561,37 +13561,37 @@
         <v>423</v>
       </c>
       <c r="F55" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H55" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J55" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L55" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N55" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P55" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>575</v>
@@ -13631,37 +13631,37 @@
         <v>423</v>
       </c>
       <c r="F56" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H56" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J56" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L56" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N56" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P56" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>575</v>
@@ -13705,37 +13705,37 @@
         <v>423</v>
       </c>
       <c r="F57" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H57" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J57" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L57" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N57" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P57" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>575</v>
@@ -13779,7 +13779,7 @@
         <v>423</v>
       </c>
       <c r="F58" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>424</v>
@@ -13791,7 +13791,7 @@
         <v>425</v>
       </c>
       <c r="J58" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>423</v>
@@ -13836,19 +13836,19 @@
         <v>423</v>
       </c>
       <c r="F59" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H59" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J59" s="2">
-        <v>1525</v>
+        <v>1406</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>423</v>
@@ -13902,37 +13902,37 @@
         <v>423</v>
       </c>
       <c r="F60" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H60" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J60" s="2">
-        <v>3063</v>
+        <v>2956</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L60" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N60" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P60" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>575</v>
@@ -13972,37 +13972,37 @@
         <v>423</v>
       </c>
       <c r="F61" s="2">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H61" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J61" s="2">
-        <v>4513</v>
+        <v>4506</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L61" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N61" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P61" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>575</v>
@@ -14042,37 +14042,37 @@
         <v>423</v>
       </c>
       <c r="F62" s="2">
-        <v>1213</v>
+        <v>1256</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H62" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J62" s="2">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L62" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N62" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P62" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>575</v>
@@ -14112,37 +14112,37 @@
         <v>423</v>
       </c>
       <c r="F63" s="2">
-        <v>1613</v>
+        <v>1681</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H63" s="2">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J63" s="2">
-        <v>8188</v>
+        <v>8444</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L63" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N63" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P63" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>575</v>
@@ -14182,37 +14182,37 @@
         <v>423</v>
       </c>
       <c r="F64" s="2">
-        <v>2103</v>
+        <v>2169</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H64" s="2">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J64" s="2">
-        <v>10638</v>
+        <v>10881</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L64" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N64" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P64" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>575</v>
@@ -14252,37 +14252,37 @@
         <v>423</v>
       </c>
       <c r="F65" s="2">
-        <v>2703</v>
+        <v>2769</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H65" s="2">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J65" s="2">
-        <v>13638</v>
+        <v>13881</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L65" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N65" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P65" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>575</v>
@@ -14326,37 +14326,37 @@
         <v>423</v>
       </c>
       <c r="F66" s="2">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H66" s="2">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J66" s="2">
-        <v>17763</v>
+        <v>17569</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L66" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N66" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P66" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>575</v>
@@ -14400,7 +14400,7 @@
         <v>423</v>
       </c>
       <c r="F67" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>424</v>
@@ -14412,7 +14412,7 @@
         <v>425</v>
       </c>
       <c r="J67" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>423</v>
@@ -14457,19 +14457,19 @@
         <v>423</v>
       </c>
       <c r="F68" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H68" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J68" s="2">
-        <v>1220</v>
+        <v>1125</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>423</v>
@@ -14523,37 +14523,37 @@
         <v>423</v>
       </c>
       <c r="F69" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H69" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J69" s="2">
-        <v>2450</v>
+        <v>2365</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L69" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N69" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P69" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>575</v>
@@ -14593,37 +14593,37 @@
         <v>423</v>
       </c>
       <c r="F70" s="2">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H70" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J70" s="2">
-        <v>3610</v>
+        <v>3605</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L70" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N70" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P70" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>575</v>
@@ -14663,37 +14663,37 @@
         <v>423</v>
       </c>
       <c r="F71" s="2">
-        <v>970</v>
+        <v>1005</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H71" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J71" s="2">
-        <v>4950</v>
+        <v>5055</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L71" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N71" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P71" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>575</v>
@@ -14733,37 +14733,37 @@
         <v>423</v>
       </c>
       <c r="F72" s="2">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H72" s="2">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J72" s="2">
-        <v>6550</v>
+        <v>6755</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L72" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N72" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P72" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>575</v>
@@ -14803,37 +14803,37 @@
         <v>423</v>
       </c>
       <c r="F73" s="2">
-        <v>1682</v>
+        <v>1735</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H73" s="2">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J73" s="2">
-        <v>8510</v>
+        <v>8705</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L73" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N73" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P73" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>575</v>
@@ -14873,37 +14873,37 @@
         <v>423</v>
       </c>
       <c r="F74" s="2">
-        <v>2162</v>
+        <v>2215</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H74" s="2">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J74" s="2">
-        <v>10910</v>
+        <v>11105</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L74" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N74" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P74" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>575</v>
@@ -14947,37 +14947,37 @@
         <v>423</v>
       </c>
       <c r="F75" s="2">
-        <v>2822</v>
+        <v>2805</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H75" s="2">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J75" s="2">
-        <v>14210</v>
+        <v>14055</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L75" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N75" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P75" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>575</v>
@@ -15021,7 +15021,7 @@
         <v>423</v>
       </c>
       <c r="F76" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>424</v>
@@ -15033,7 +15033,7 @@
         <v>425</v>
       </c>
       <c r="J76" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>423</v>
@@ -15078,19 +15078,19 @@
         <v>423</v>
       </c>
       <c r="F77" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H77" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J77" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>423</v>
@@ -15144,37 +15144,37 @@
         <v>423</v>
       </c>
       <c r="F78" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H78" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J78" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L78" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N78" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P78" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>575</v>
@@ -15214,37 +15214,37 @@
         <v>423</v>
       </c>
       <c r="F79" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H79" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J79" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L79" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N79" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P79" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>575</v>
@@ -15284,37 +15284,37 @@
         <v>423</v>
       </c>
       <c r="F80" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H80" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J80" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L80" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N80" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P80" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>575</v>
@@ -15354,37 +15354,37 @@
         <v>423</v>
       </c>
       <c r="F81" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H81" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J81" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L81" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N81" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P81" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>575</v>
@@ -15424,37 +15424,37 @@
         <v>423</v>
       </c>
       <c r="F82" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H82" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J82" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L82" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N82" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P82" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>575</v>
@@ -15494,37 +15494,37 @@
         <v>423</v>
       </c>
       <c r="F83" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H83" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J83" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L83" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N83" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P83" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>575</v>
@@ -15568,37 +15568,37 @@
         <v>423</v>
       </c>
       <c r="F84" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H84" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J84" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L84" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N84" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P84" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q84" s="3" t="s">
         <v>575</v>
@@ -15642,7 +15642,7 @@
         <v>423</v>
       </c>
       <c r="F85" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>424</v>
@@ -15654,7 +15654,7 @@
         <v>425</v>
       </c>
       <c r="J85" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>423</v>
@@ -15699,19 +15699,19 @@
         <v>423</v>
       </c>
       <c r="F86" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H86" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J86" s="2">
-        <v>1525</v>
+        <v>1406</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>423</v>
@@ -15765,37 +15765,37 @@
         <v>423</v>
       </c>
       <c r="F87" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H87" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J87" s="2">
-        <v>3063</v>
+        <v>2956</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L87" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N87" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P87" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>575</v>
@@ -15835,37 +15835,37 @@
         <v>423</v>
       </c>
       <c r="F88" s="2">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H88" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J88" s="2">
-        <v>4513</v>
+        <v>4506</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L88" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N88" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P88" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>575</v>
@@ -15905,37 +15905,37 @@
         <v>423</v>
       </c>
       <c r="F89" s="2">
-        <v>1213</v>
+        <v>1256</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H89" s="2">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J89" s="2">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L89" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N89" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P89" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>575</v>
@@ -15975,37 +15975,37 @@
         <v>423</v>
       </c>
       <c r="F90" s="2">
-        <v>1613</v>
+        <v>1681</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H90" s="2">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J90" s="2">
-        <v>8188</v>
+        <v>8444</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L90" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N90" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P90" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>575</v>
@@ -16045,37 +16045,37 @@
         <v>423</v>
       </c>
       <c r="F91" s="2">
-        <v>2103</v>
+        <v>2169</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H91" s="2">
-        <v>1039</v>
+        <v>1065</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J91" s="2">
-        <v>10638</v>
+        <v>10881</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L91" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N91" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P91" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>575</v>
@@ -16115,37 +16115,37 @@
         <v>423</v>
       </c>
       <c r="F92" s="2">
-        <v>2703</v>
+        <v>2769</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H92" s="2">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J92" s="2">
-        <v>13638</v>
+        <v>13881</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L92" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N92" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P92" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>575</v>
@@ -16189,37 +16189,37 @@
         <v>423</v>
       </c>
       <c r="F93" s="2">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H93" s="2">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J93" s="2">
-        <v>17763</v>
+        <v>17569</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L93" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N93" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P93" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Q93" s="3" t="s">
         <v>575</v>
@@ -16263,7 +16263,7 @@
         <v>423</v>
       </c>
       <c r="F94" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>424</v>
@@ -16275,7 +16275,7 @@
         <v>425</v>
       </c>
       <c r="J94" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>423</v>
@@ -16320,19 +16320,19 @@
         <v>423</v>
       </c>
       <c r="F95" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H95" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J95" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>423</v>
@@ -16386,37 +16386,37 @@
         <v>423</v>
       </c>
       <c r="F96" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H96" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J96" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L96" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N96" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P96" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q96" s="3" t="s">
         <v>575</v>
@@ -16456,37 +16456,37 @@
         <v>423</v>
       </c>
       <c r="F97" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H97" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J97" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L97" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N97" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P97" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q97" s="3" t="s">
         <v>575</v>
@@ -16526,37 +16526,37 @@
         <v>423</v>
       </c>
       <c r="F98" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H98" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J98" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L98" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N98" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P98" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>575</v>
@@ -16596,37 +16596,37 @@
         <v>423</v>
       </c>
       <c r="F99" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H99" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J99" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L99" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N99" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P99" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q99" s="3" t="s">
         <v>575</v>
@@ -16666,37 +16666,37 @@
         <v>423</v>
       </c>
       <c r="F100" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H100" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J100" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L100" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N100" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P100" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>575</v>
@@ -16736,37 +16736,37 @@
         <v>423</v>
       </c>
       <c r="F101" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H101" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J101" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L101" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N101" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P101" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>575</v>
@@ -16810,37 +16810,37 @@
         <v>423</v>
       </c>
       <c r="F102" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H102" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J102" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L102" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N102" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P102" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>575</v>
@@ -16884,7 +16884,7 @@
         <v>423</v>
       </c>
       <c r="F103" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>424</v>
@@ -16896,7 +16896,7 @@
         <v>425</v>
       </c>
       <c r="J103" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>423</v>
@@ -16941,19 +16941,19 @@
         <v>423</v>
       </c>
       <c r="F104" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H104" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J104" s="2">
-        <v>1220</v>
+        <v>1125</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>423</v>
@@ -17007,37 +17007,37 @@
         <v>423</v>
       </c>
       <c r="F105" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H105" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J105" s="2">
-        <v>2450</v>
+        <v>2365</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L105" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N105" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P105" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q105" s="3" t="s">
         <v>575</v>
@@ -17077,37 +17077,37 @@
         <v>423</v>
       </c>
       <c r="F106" s="2">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H106" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J106" s="2">
-        <v>3610</v>
+        <v>3605</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L106" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N106" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P106" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q106" s="3" t="s">
         <v>575</v>
@@ -17147,37 +17147,37 @@
         <v>423</v>
       </c>
       <c r="F107" s="2">
-        <v>970</v>
+        <v>1005</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H107" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J107" s="2">
-        <v>4950</v>
+        <v>5055</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L107" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N107" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P107" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q107" s="3" t="s">
         <v>575</v>
@@ -17217,37 +17217,37 @@
         <v>423</v>
       </c>
       <c r="F108" s="2">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H108" s="2">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J108" s="2">
-        <v>6550</v>
+        <v>6755</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L108" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N108" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P108" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q108" s="3" t="s">
         <v>575</v>
@@ -17287,37 +17287,37 @@
         <v>423</v>
       </c>
       <c r="F109" s="2">
-        <v>1682</v>
+        <v>1735</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H109" s="2">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J109" s="2">
-        <v>8510</v>
+        <v>8705</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L109" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N109" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P109" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q109" s="3" t="s">
         <v>575</v>
@@ -17357,37 +17357,37 @@
         <v>423</v>
       </c>
       <c r="F110" s="2">
-        <v>2162</v>
+        <v>2215</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H110" s="2">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J110" s="2">
-        <v>10910</v>
+        <v>11105</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L110" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N110" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P110" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q110" s="3" t="s">
         <v>575</v>
@@ -17431,37 +17431,37 @@
         <v>423</v>
       </c>
       <c r="F111" s="2">
-        <v>2822</v>
+        <v>2805</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H111" s="2">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J111" s="2">
-        <v>14210</v>
+        <v>14055</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L111" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N111" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P111" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q111" s="3" t="s">
         <v>575</v>
@@ -17505,7 +17505,7 @@
         <v>423</v>
       </c>
       <c r="F112" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>424</v>
@@ -17517,7 +17517,7 @@
         <v>425</v>
       </c>
       <c r="J112" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>423</v>
@@ -17562,19 +17562,19 @@
         <v>423</v>
       </c>
       <c r="F113" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H113" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J113" s="2">
-        <v>1220</v>
+        <v>1125</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>423</v>
@@ -17628,37 +17628,37 @@
         <v>423</v>
       </c>
       <c r="F114" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H114" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J114" s="2">
-        <v>2450</v>
+        <v>2365</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L114" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N114" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P114" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q114" s="3" t="s">
         <v>575</v>
@@ -17698,37 +17698,37 @@
         <v>423</v>
       </c>
       <c r="F115" s="2">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H115" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J115" s="2">
-        <v>3610</v>
+        <v>3605</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L115" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N115" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P115" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q115" s="3" t="s">
         <v>575</v>
@@ -17768,37 +17768,37 @@
         <v>423</v>
       </c>
       <c r="F116" s="2">
-        <v>970</v>
+        <v>1005</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H116" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J116" s="2">
-        <v>4950</v>
+        <v>5055</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L116" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N116" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P116" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q116" s="3" t="s">
         <v>575</v>
@@ -17838,37 +17838,37 @@
         <v>423</v>
       </c>
       <c r="F117" s="2">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H117" s="2">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J117" s="2">
-        <v>6550</v>
+        <v>6755</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L117" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N117" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P117" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q117" s="3" t="s">
         <v>575</v>
@@ -17908,37 +17908,37 @@
         <v>423</v>
       </c>
       <c r="F118" s="2">
-        <v>1682</v>
+        <v>1735</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H118" s="2">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J118" s="2">
-        <v>8510</v>
+        <v>8705</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L118" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N118" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P118" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q118" s="3" t="s">
         <v>575</v>
@@ -17978,37 +17978,37 @@
         <v>423</v>
       </c>
       <c r="F119" s="2">
-        <v>2162</v>
+        <v>2215</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H119" s="2">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J119" s="2">
-        <v>10910</v>
+        <v>11105</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L119" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N119" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P119" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q119" s="3" t="s">
         <v>575</v>
@@ -18052,37 +18052,37 @@
         <v>423</v>
       </c>
       <c r="F120" s="2">
-        <v>2822</v>
+        <v>2805</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H120" s="2">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J120" s="2">
-        <v>14210</v>
+        <v>14055</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L120" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N120" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P120" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q120" s="3" t="s">
         <v>575</v>
@@ -18126,7 +18126,7 @@
         <v>423</v>
       </c>
       <c r="F121" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>424</v>
@@ -18138,7 +18138,7 @@
         <v>425</v>
       </c>
       <c r="J121" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>423</v>
@@ -18183,19 +18183,19 @@
         <v>423</v>
       </c>
       <c r="F122" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H122" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J122" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>423</v>
@@ -18249,37 +18249,37 @@
         <v>423</v>
       </c>
       <c r="F123" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H123" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J123" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L123" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N123" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P123" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q123" s="3" t="s">
         <v>575</v>
@@ -18319,37 +18319,37 @@
         <v>423</v>
       </c>
       <c r="F124" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H124" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J124" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L124" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N124" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P124" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q124" s="3" t="s">
         <v>575</v>
@@ -18389,37 +18389,37 @@
         <v>423</v>
       </c>
       <c r="F125" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H125" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J125" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L125" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N125" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P125" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>575</v>
@@ -18459,37 +18459,37 @@
         <v>423</v>
       </c>
       <c r="F126" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H126" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J126" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L126" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N126" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P126" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q126" s="3" t="s">
         <v>575</v>
@@ -18529,37 +18529,37 @@
         <v>423</v>
       </c>
       <c r="F127" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H127" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J127" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L127" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M127" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N127" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P127" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q127" s="3" t="s">
         <v>575</v>
@@ -18599,37 +18599,37 @@
         <v>423</v>
       </c>
       <c r="F128" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H128" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J128" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L128" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M128" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N128" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P128" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q128" s="3" t="s">
         <v>575</v>
@@ -18673,37 +18673,37 @@
         <v>423</v>
       </c>
       <c r="F129" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H129" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J129" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L129" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N129" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P129" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q129" s="3" t="s">
         <v>575</v>
@@ -18747,7 +18747,7 @@
         <v>423</v>
       </c>
       <c r="F130" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>424</v>
@@ -18759,7 +18759,7 @@
         <v>425</v>
       </c>
       <c r="J130" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>423</v>
@@ -18804,19 +18804,19 @@
         <v>423</v>
       </c>
       <c r="F131" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H131" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J131" s="2">
-        <v>1342</v>
+        <v>1238</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>423</v>
@@ -18870,37 +18870,37 @@
         <v>423</v>
       </c>
       <c r="F132" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H132" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J132" s="2">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L132" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M132" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N132" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P132" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q132" s="3" t="s">
         <v>575</v>
@@ -18940,37 +18940,37 @@
         <v>423</v>
       </c>
       <c r="F133" s="2">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H133" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J133" s="2">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L133" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N133" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P133" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q133" s="3" t="s">
         <v>575</v>
@@ -19010,37 +19010,37 @@
         <v>423</v>
       </c>
       <c r="F134" s="2">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H134" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J134" s="2">
-        <v>5445</v>
+        <v>5561</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L134" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N134" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P134" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q134" s="3" t="s">
         <v>575</v>
@@ -19080,37 +19080,37 @@
         <v>423</v>
       </c>
       <c r="F135" s="2">
-        <v>1419</v>
+        <v>1480</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H135" s="2">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J135" s="2">
-        <v>7205</v>
+        <v>7431</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L135" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N135" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P135" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q135" s="3" t="s">
         <v>575</v>
@@ -19150,37 +19150,37 @@
         <v>423</v>
       </c>
       <c r="F136" s="2">
-        <v>1850</v>
+        <v>1909</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H136" s="2">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J136" s="2">
-        <v>9361</v>
+        <v>9576</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L136" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N136" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P136" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q136" s="3" t="s">
         <v>575</v>
@@ -19220,37 +19220,37 @@
         <v>423</v>
       </c>
       <c r="F137" s="2">
-        <v>2378</v>
+        <v>2437</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H137" s="2">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J137" s="2">
-        <v>12001</v>
+        <v>12216</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L137" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N137" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P137" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q137" s="3" t="s">
         <v>575</v>
@@ -19294,37 +19294,37 @@
         <v>423</v>
       </c>
       <c r="F138" s="2">
-        <v>3104</v>
+        <v>3086</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H138" s="2">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J138" s="2">
-        <v>15631</v>
+        <v>15461</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>423</v>
       </c>
       <c r="L138" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N138" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>425</v>
       </c>
       <c r="P138" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Q138" s="3" t="s">
         <v>575</v>
@@ -19368,19 +19368,19 @@
         <v>423</v>
       </c>
       <c r="F139" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H139" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J139" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>423</v>
@@ -19425,19 +19425,19 @@
         <v>423</v>
       </c>
       <c r="F140" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H140" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J140" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>423</v>
@@ -19491,19 +19491,19 @@
         <v>423</v>
       </c>
       <c r="F141" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H141" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J141" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>423</v>
@@ -19561,19 +19561,19 @@
         <v>423</v>
       </c>
       <c r="F142" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H142" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J142" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>423</v>
@@ -19631,19 +19631,19 @@
         <v>423</v>
       </c>
       <c r="F143" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H143" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J143" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>423</v>
@@ -19701,19 +19701,19 @@
         <v>423</v>
       </c>
       <c r="F144" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H144" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J144" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>423</v>
@@ -19771,19 +19771,19 @@
         <v>423</v>
       </c>
       <c r="F145" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H145" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J145" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>423</v>
@@ -19841,19 +19841,19 @@
         <v>423</v>
       </c>
       <c r="F146" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H146" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J146" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>423</v>
@@ -19915,19 +19915,19 @@
         <v>423</v>
       </c>
       <c r="F147" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H147" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J147" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K147" s="3" t="s">
         <v>423</v>
@@ -19989,19 +19989,19 @@
         <v>423</v>
       </c>
       <c r="F148" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H148" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J148" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>423</v>
@@ -20046,19 +20046,19 @@
         <v>423</v>
       </c>
       <c r="F149" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H149" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J149" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>423</v>
@@ -20112,19 +20112,19 @@
         <v>423</v>
       </c>
       <c r="F150" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H150" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J150" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>423</v>
@@ -20182,19 +20182,19 @@
         <v>423</v>
       </c>
       <c r="F151" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H151" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J151" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>423</v>
@@ -20252,19 +20252,19 @@
         <v>423</v>
       </c>
       <c r="F152" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H152" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J152" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>423</v>
@@ -20322,19 +20322,19 @@
         <v>423</v>
       </c>
       <c r="F153" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H153" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J153" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K153" s="3" t="s">
         <v>423</v>
@@ -20392,19 +20392,19 @@
         <v>423</v>
       </c>
       <c r="F154" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H154" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J154" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>423</v>
@@ -20462,19 +20462,19 @@
         <v>423</v>
       </c>
       <c r="F155" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H155" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J155" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>423</v>
@@ -20536,19 +20536,19 @@
         <v>423</v>
       </c>
       <c r="F156" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H156" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J156" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>423</v>
@@ -20610,19 +20610,19 @@
         <v>423</v>
       </c>
       <c r="F157" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H157" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J157" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>423</v>
@@ -20667,19 +20667,19 @@
         <v>423</v>
       </c>
       <c r="F158" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H158" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J158" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>423</v>
@@ -20733,19 +20733,19 @@
         <v>423</v>
       </c>
       <c r="F159" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H159" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J159" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>423</v>
@@ -20803,19 +20803,19 @@
         <v>423</v>
       </c>
       <c r="F160" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H160" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J160" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>423</v>
@@ -20873,19 +20873,19 @@
         <v>423</v>
       </c>
       <c r="F161" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H161" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J161" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>423</v>
@@ -20943,19 +20943,19 @@
         <v>423</v>
       </c>
       <c r="F162" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H162" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I162" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J162" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K162" s="3" t="s">
         <v>423</v>
@@ -21013,19 +21013,19 @@
         <v>423</v>
       </c>
       <c r="F163" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H163" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J163" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>423</v>
@@ -21083,19 +21083,19 @@
         <v>423</v>
       </c>
       <c r="F164" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H164" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J164" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>423</v>
@@ -21157,19 +21157,19 @@
         <v>423</v>
       </c>
       <c r="F165" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H165" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J165" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>423</v>
@@ -21231,19 +21231,19 @@
         <v>423</v>
       </c>
       <c r="F166" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H166" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J166" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>423</v>
@@ -21288,19 +21288,19 @@
         <v>423</v>
       </c>
       <c r="F167" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H167" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J167" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>423</v>
@@ -21354,19 +21354,19 @@
         <v>423</v>
       </c>
       <c r="F168" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H168" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J168" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K168" s="3" t="s">
         <v>423</v>
@@ -21424,19 +21424,19 @@
         <v>423</v>
       </c>
       <c r="F169" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H169" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J169" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>423</v>
@@ -21494,19 +21494,19 @@
         <v>423</v>
       </c>
       <c r="F170" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H170" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J170" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>423</v>
@@ -21564,19 +21564,19 @@
         <v>423</v>
       </c>
       <c r="F171" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H171" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J171" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K171" s="3" t="s">
         <v>423</v>
@@ -21634,19 +21634,19 @@
         <v>423</v>
       </c>
       <c r="F172" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H172" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J172" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K172" s="3" t="s">
         <v>423</v>
@@ -21704,19 +21704,19 @@
         <v>423</v>
       </c>
       <c r="F173" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H173" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J173" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>423</v>
@@ -21778,19 +21778,19 @@
         <v>423</v>
       </c>
       <c r="F174" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H174" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J174" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K174" s="3" t="s">
         <v>423</v>
@@ -21852,19 +21852,19 @@
         <v>423</v>
       </c>
       <c r="F175" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H175" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J175" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K175" s="3" t="s">
         <v>423</v>
@@ -21909,19 +21909,19 @@
         <v>423</v>
       </c>
       <c r="F176" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H176" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J176" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K176" s="3" t="s">
         <v>423</v>
@@ -21975,19 +21975,19 @@
         <v>423</v>
       </c>
       <c r="F177" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H177" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J177" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K177" s="3" t="s">
         <v>423</v>
@@ -22045,19 +22045,19 @@
         <v>423</v>
       </c>
       <c r="F178" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H178" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J178" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>423</v>
@@ -22115,19 +22115,19 @@
         <v>423</v>
       </c>
       <c r="F179" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H179" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J179" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>423</v>
@@ -22185,19 +22185,19 @@
         <v>423</v>
       </c>
       <c r="F180" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H180" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I180" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J180" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K180" s="3" t="s">
         <v>423</v>
@@ -22255,19 +22255,19 @@
         <v>423</v>
       </c>
       <c r="F181" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H181" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J181" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>423</v>
@@ -22325,19 +22325,19 @@
         <v>423</v>
       </c>
       <c r="F182" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H182" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I182" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J182" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K182" s="3" t="s">
         <v>423</v>
@@ -22399,19 +22399,19 @@
         <v>423</v>
       </c>
       <c r="F183" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H183" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I183" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J183" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K183" s="3" t="s">
         <v>423</v>
@@ -22473,19 +22473,19 @@
         <v>423</v>
       </c>
       <c r="F184" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H184" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J184" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K184" s="3" t="s">
         <v>423</v>
@@ -22530,19 +22530,19 @@
         <v>423</v>
       </c>
       <c r="F185" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H185" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J185" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K185" s="3" t="s">
         <v>423</v>
@@ -22596,19 +22596,19 @@
         <v>423</v>
       </c>
       <c r="F186" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H186" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J186" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>423</v>
@@ -22666,19 +22666,19 @@
         <v>423</v>
       </c>
       <c r="F187" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H187" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I187" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J187" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>423</v>
@@ -22736,19 +22736,19 @@
         <v>423</v>
       </c>
       <c r="F188" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H188" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J188" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>423</v>
@@ -22806,19 +22806,19 @@
         <v>423</v>
       </c>
       <c r="F189" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H189" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J189" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>423</v>
@@ -22876,19 +22876,19 @@
         <v>423</v>
       </c>
       <c r="F190" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H190" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J190" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>423</v>
@@ -22946,19 +22946,19 @@
         <v>423</v>
       </c>
       <c r="F191" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H191" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I191" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J191" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>423</v>
@@ -23020,19 +23020,19 @@
         <v>423</v>
       </c>
       <c r="F192" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H192" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J192" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>423</v>
@@ -23094,19 +23094,19 @@
         <v>423</v>
       </c>
       <c r="F193" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H193" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J193" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>423</v>
@@ -23151,19 +23151,19 @@
         <v>423</v>
       </c>
       <c r="F194" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H194" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J194" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>423</v>
@@ -23217,19 +23217,19 @@
         <v>423</v>
       </c>
       <c r="F195" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H195" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J195" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>423</v>
@@ -23287,19 +23287,19 @@
         <v>423</v>
       </c>
       <c r="F196" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H196" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I196" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J196" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K196" s="3" t="s">
         <v>423</v>
@@ -23357,19 +23357,19 @@
         <v>423</v>
       </c>
       <c r="F197" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H197" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J197" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K197" s="3" t="s">
         <v>423</v>
@@ -23427,19 +23427,19 @@
         <v>423</v>
       </c>
       <c r="F198" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H198" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I198" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J198" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K198" s="3" t="s">
         <v>423</v>
@@ -23497,19 +23497,19 @@
         <v>423</v>
       </c>
       <c r="F199" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H199" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I199" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J199" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K199" s="3" t="s">
         <v>423</v>
@@ -23567,19 +23567,19 @@
         <v>423</v>
       </c>
       <c r="F200" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H200" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J200" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K200" s="3" t="s">
         <v>423</v>
@@ -23641,19 +23641,19 @@
         <v>423</v>
       </c>
       <c r="F201" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H201" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J201" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K201" s="3" t="s">
         <v>423</v>
@@ -23715,19 +23715,19 @@
         <v>423</v>
       </c>
       <c r="F202" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H202" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J202" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K202" s="3" t="s">
         <v>423</v>
@@ -23772,19 +23772,19 @@
         <v>423</v>
       </c>
       <c r="F203" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H203" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I203" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J203" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K203" s="3" t="s">
         <v>423</v>
@@ -23838,19 +23838,19 @@
         <v>423</v>
       </c>
       <c r="F204" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H204" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I204" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J204" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K204" s="3" t="s">
         <v>423</v>
@@ -23908,19 +23908,19 @@
         <v>423</v>
       </c>
       <c r="F205" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H205" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J205" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K205" s="3" t="s">
         <v>423</v>
@@ -23978,19 +23978,19 @@
         <v>423</v>
       </c>
       <c r="F206" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H206" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J206" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K206" s="3" t="s">
         <v>423</v>
@@ -24048,19 +24048,19 @@
         <v>423</v>
       </c>
       <c r="F207" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H207" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J207" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K207" s="3" t="s">
         <v>423</v>
@@ -24118,19 +24118,19 @@
         <v>423</v>
       </c>
       <c r="F208" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H208" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J208" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K208" s="3" t="s">
         <v>423</v>
@@ -24188,19 +24188,19 @@
         <v>423</v>
       </c>
       <c r="F209" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H209" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J209" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K209" s="3" t="s">
         <v>423</v>
@@ -24262,19 +24262,19 @@
         <v>423</v>
       </c>
       <c r="F210" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H210" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J210" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K210" s="3" t="s">
         <v>423</v>
@@ -24336,19 +24336,19 @@
         <v>423</v>
       </c>
       <c r="F211" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H211" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J211" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K211" s="3" t="s">
         <v>423</v>
@@ -24393,19 +24393,19 @@
         <v>423</v>
       </c>
       <c r="F212" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H212" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I212" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J212" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K212" s="3" t="s">
         <v>423</v>
@@ -24459,19 +24459,19 @@
         <v>423</v>
       </c>
       <c r="F213" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H213" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J213" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K213" s="3" t="s">
         <v>423</v>
@@ -24529,19 +24529,19 @@
         <v>423</v>
       </c>
       <c r="F214" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H214" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J214" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K214" s="3" t="s">
         <v>423</v>
@@ -24599,19 +24599,19 @@
         <v>423</v>
       </c>
       <c r="F215" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H215" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J215" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K215" s="3" t="s">
         <v>423</v>
@@ -24669,19 +24669,19 @@
         <v>423</v>
       </c>
       <c r="F216" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H216" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J216" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K216" s="3" t="s">
         <v>423</v>
@@ -24739,19 +24739,19 @@
         <v>423</v>
       </c>
       <c r="F217" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H217" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J217" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K217" s="3" t="s">
         <v>423</v>
@@ -24809,19 +24809,19 @@
         <v>423</v>
       </c>
       <c r="F218" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H218" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J218" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K218" s="3" t="s">
         <v>423</v>
@@ -24883,19 +24883,19 @@
         <v>423</v>
       </c>
       <c r="F219" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H219" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J219" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K219" s="3" t="s">
         <v>423</v>
@@ -24957,19 +24957,19 @@
         <v>423</v>
       </c>
       <c r="F220" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H220" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J220" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>423</v>
@@ -25014,19 +25014,19 @@
         <v>423</v>
       </c>
       <c r="F221" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H221" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J221" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K221" s="3" t="s">
         <v>423</v>
@@ -25080,19 +25080,19 @@
         <v>423</v>
       </c>
       <c r="F222" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H222" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J222" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K222" s="3" t="s">
         <v>423</v>
@@ -25150,19 +25150,19 @@
         <v>423</v>
       </c>
       <c r="F223" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H223" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J223" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K223" s="3" t="s">
         <v>423</v>
@@ -25220,19 +25220,19 @@
         <v>423</v>
       </c>
       <c r="F224" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H224" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J224" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K224" s="3" t="s">
         <v>423</v>
@@ -25290,19 +25290,19 @@
         <v>423</v>
       </c>
       <c r="F225" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H225" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J225" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K225" s="3" t="s">
         <v>423</v>
@@ -25360,19 +25360,19 @@
         <v>423</v>
       </c>
       <c r="F226" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H226" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J226" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K226" s="3" t="s">
         <v>423</v>
@@ -25430,19 +25430,19 @@
         <v>423</v>
       </c>
       <c r="F227" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H227" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J227" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K227" s="3" t="s">
         <v>423</v>
@@ -25504,19 +25504,19 @@
         <v>423</v>
       </c>
       <c r="F228" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H228" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J228" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K228" s="3" t="s">
         <v>423</v>
@@ -25578,19 +25578,19 @@
         <v>423</v>
       </c>
       <c r="F229" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H229" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I229" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J229" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K229" s="3" t="s">
         <v>423</v>
@@ -25635,19 +25635,19 @@
         <v>423</v>
       </c>
       <c r="F230" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H230" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J230" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K230" s="3" t="s">
         <v>423</v>
@@ -25701,19 +25701,19 @@
         <v>423</v>
       </c>
       <c r="F231" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H231" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J231" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K231" s="3" t="s">
         <v>423</v>
@@ -25771,19 +25771,19 @@
         <v>423</v>
       </c>
       <c r="F232" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H232" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J232" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K232" s="3" t="s">
         <v>423</v>
@@ -25841,19 +25841,19 @@
         <v>423</v>
       </c>
       <c r="F233" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H233" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J233" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K233" s="3" t="s">
         <v>423</v>
@@ -25911,19 +25911,19 @@
         <v>423</v>
       </c>
       <c r="F234" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H234" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J234" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K234" s="3" t="s">
         <v>423</v>
@@ -25981,19 +25981,19 @@
         <v>423</v>
       </c>
       <c r="F235" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H235" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J235" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K235" s="3" t="s">
         <v>423</v>
@@ -26051,19 +26051,19 @@
         <v>423</v>
       </c>
       <c r="F236" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H236" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J236" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K236" s="3" t="s">
         <v>423</v>
@@ -26125,19 +26125,19 @@
         <v>423</v>
       </c>
       <c r="F237" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H237" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I237" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J237" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K237" s="3" t="s">
         <v>423</v>
@@ -26199,19 +26199,19 @@
         <v>423</v>
       </c>
       <c r="F238" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H238" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J238" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K238" s="3" t="s">
         <v>423</v>
@@ -26256,19 +26256,19 @@
         <v>423</v>
       </c>
       <c r="F239" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H239" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J239" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K239" s="3" t="s">
         <v>423</v>
@@ -26322,19 +26322,19 @@
         <v>423</v>
       </c>
       <c r="F240" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H240" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J240" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K240" s="3" t="s">
         <v>423</v>
@@ -26392,19 +26392,19 @@
         <v>423</v>
       </c>
       <c r="F241" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H241" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I241" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J241" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>423</v>
@@ -26462,19 +26462,19 @@
         <v>423</v>
       </c>
       <c r="F242" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H242" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J242" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K242" s="3" t="s">
         <v>423</v>
@@ -26532,19 +26532,19 @@
         <v>423</v>
       </c>
       <c r="F243" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H243" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I243" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J243" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K243" s="3" t="s">
         <v>423</v>
@@ -26602,19 +26602,19 @@
         <v>423</v>
       </c>
       <c r="F244" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H244" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J244" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K244" s="3" t="s">
         <v>423</v>
@@ -26672,19 +26672,19 @@
         <v>423</v>
       </c>
       <c r="F245" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H245" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J245" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K245" s="3" t="s">
         <v>423</v>
@@ -26746,19 +26746,19 @@
         <v>423</v>
       </c>
       <c r="F246" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H246" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J246" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K246" s="3" t="s">
         <v>423</v>
@@ -26820,19 +26820,19 @@
         <v>423</v>
       </c>
       <c r="F247" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H247" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J247" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K247" s="3" t="s">
         <v>423</v>
@@ -26877,19 +26877,19 @@
         <v>423</v>
       </c>
       <c r="F248" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H248" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J248" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K248" s="3" t="s">
         <v>423</v>
@@ -26943,19 +26943,19 @@
         <v>423</v>
       </c>
       <c r="F249" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H249" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J249" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K249" s="3" t="s">
         <v>423</v>
@@ -27013,19 +27013,19 @@
         <v>423</v>
       </c>
       <c r="F250" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H250" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J250" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K250" s="3" t="s">
         <v>423</v>
@@ -27083,19 +27083,19 @@
         <v>423</v>
       </c>
       <c r="F251" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H251" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J251" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K251" s="3" t="s">
         <v>423</v>
@@ -27153,19 +27153,19 @@
         <v>423</v>
       </c>
       <c r="F252" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H252" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J252" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K252" s="3" t="s">
         <v>423</v>
@@ -27223,19 +27223,19 @@
         <v>423</v>
       </c>
       <c r="F253" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H253" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J253" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>423</v>
@@ -27293,19 +27293,19 @@
         <v>423</v>
       </c>
       <c r="F254" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H254" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J254" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K254" s="3" t="s">
         <v>423</v>
@@ -27367,19 +27367,19 @@
         <v>423</v>
       </c>
       <c r="F255" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H255" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J255" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K255" s="3" t="s">
         <v>423</v>
@@ -27441,19 +27441,19 @@
         <v>423</v>
       </c>
       <c r="F256" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H256" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I256" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J256" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K256" s="3" t="s">
         <v>423</v>
@@ -27498,19 +27498,19 @@
         <v>423</v>
       </c>
       <c r="F257" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H257" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J257" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K257" s="3" t="s">
         <v>423</v>
@@ -27564,19 +27564,19 @@
         <v>423</v>
       </c>
       <c r="F258" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H258" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J258" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K258" s="3" t="s">
         <v>423</v>
@@ -27634,19 +27634,19 @@
         <v>423</v>
       </c>
       <c r="F259" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H259" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J259" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K259" s="3" t="s">
         <v>423</v>
@@ -27704,19 +27704,19 @@
         <v>423</v>
       </c>
       <c r="F260" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H260" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I260" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J260" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K260" s="3" t="s">
         <v>423</v>
@@ -27774,19 +27774,19 @@
         <v>423</v>
       </c>
       <c r="F261" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H261" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I261" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J261" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K261" s="3" t="s">
         <v>423</v>
@@ -27844,19 +27844,19 @@
         <v>423</v>
       </c>
       <c r="F262" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H262" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J262" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K262" s="3" t="s">
         <v>423</v>
@@ -27914,19 +27914,19 @@
         <v>423</v>
       </c>
       <c r="F263" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H263" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I263" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J263" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K263" s="3" t="s">
         <v>423</v>
@@ -27988,19 +27988,19 @@
         <v>423</v>
       </c>
       <c r="F264" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H264" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J264" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K264" s="3" t="s">
         <v>423</v>
@@ -28062,19 +28062,19 @@
         <v>423</v>
       </c>
       <c r="F265" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H265" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J265" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K265" s="3" t="s">
         <v>423</v>
@@ -28119,19 +28119,19 @@
         <v>423</v>
       </c>
       <c r="F266" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H266" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J266" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K266" s="3" t="s">
         <v>423</v>
@@ -28185,19 +28185,19 @@
         <v>423</v>
       </c>
       <c r="F267" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H267" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I267" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J267" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K267" s="3" t="s">
         <v>423</v>
@@ -28255,19 +28255,19 @@
         <v>423</v>
       </c>
       <c r="F268" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H268" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I268" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J268" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K268" s="3" t="s">
         <v>423</v>
@@ -28325,19 +28325,19 @@
         <v>423</v>
       </c>
       <c r="F269" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H269" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I269" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J269" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K269" s="3" t="s">
         <v>423</v>
@@ -28395,19 +28395,19 @@
         <v>423</v>
       </c>
       <c r="F270" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H270" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I270" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J270" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K270" s="3" t="s">
         <v>423</v>
@@ -28465,19 +28465,19 @@
         <v>423</v>
       </c>
       <c r="F271" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H271" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J271" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K271" s="3" t="s">
         <v>423</v>
@@ -28535,19 +28535,19 @@
         <v>423</v>
       </c>
       <c r="F272" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H272" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J272" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K272" s="3" t="s">
         <v>423</v>
@@ -28609,19 +28609,19 @@
         <v>423</v>
       </c>
       <c r="F273" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H273" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J273" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K273" s="3" t="s">
         <v>423</v>
@@ -28683,19 +28683,19 @@
         <v>423</v>
       </c>
       <c r="F274" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H274" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I274" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J274" s="2">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="K274" s="3" t="s">
         <v>423</v>
@@ -28740,19 +28740,19 @@
         <v>423</v>
       </c>
       <c r="F275" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H275" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I275" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J275" s="2">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="K275" s="3" t="s">
         <v>423</v>
@@ -28806,19 +28806,19 @@
         <v>423</v>
       </c>
       <c r="F276" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H276" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I276" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J276" s="2">
-        <v>2569</v>
+        <v>2631</v>
       </c>
       <c r="K276" s="3" t="s">
         <v>423</v>
@@ -28876,19 +28876,19 @@
         <v>423</v>
       </c>
       <c r="F277" s="2">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H277" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="I277" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J277" s="2">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="K277" s="3" t="s">
         <v>423</v>
@@ -28946,19 +28946,19 @@
         <v>423</v>
       </c>
       <c r="F278" s="2">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H278" s="2">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J278" s="2">
-        <v>5656</v>
+        <v>5719</v>
       </c>
       <c r="K278" s="3" t="s">
         <v>423</v>
@@ -29016,19 +29016,19 @@
         <v>423</v>
       </c>
       <c r="F279" s="2">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H279" s="2">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J279" s="2">
-        <v>7744</v>
+        <v>7806</v>
       </c>
       <c r="K279" s="3" t="s">
         <v>423</v>
@@ -29086,19 +29086,19 @@
         <v>423</v>
       </c>
       <c r="F280" s="2">
-        <v>2124</v>
+        <v>2099</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H280" s="2">
-        <v>1124</v>
+        <v>1061</v>
       </c>
       <c r="I280" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J280" s="2">
-        <v>10119</v>
+        <v>10181</v>
       </c>
       <c r="K280" s="3" t="s">
         <v>423</v>
@@ -29156,19 +29156,19 @@
         <v>423</v>
       </c>
       <c r="F281" s="2">
-        <v>2686</v>
+        <v>2661</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H281" s="2">
-        <v>1405</v>
+        <v>1343</v>
       </c>
       <c r="I281" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J281" s="2">
-        <v>12931</v>
+        <v>12994</v>
       </c>
       <c r="K281" s="3" t="s">
         <v>423</v>
@@ -29230,19 +29230,19 @@
         <v>423</v>
       </c>
       <c r="F282" s="2">
-        <v>3386</v>
+        <v>3361</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H282" s="2">
-        <v>1755</v>
+        <v>1693</v>
       </c>
       <c r="I282" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J282" s="2">
-        <v>16431</v>
+        <v>16494</v>
       </c>
       <c r="K282" s="3" t="s">
         <v>423</v>
@@ -29304,19 +29304,19 @@
         <v>423</v>
       </c>
       <c r="F283" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H283" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J283" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K283" s="3" t="s">
         <v>423</v>
@@ -29361,19 +29361,19 @@
         <v>423</v>
       </c>
       <c r="F284" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H284" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I284" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J284" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K284" s="3" t="s">
         <v>423</v>
@@ -29427,19 +29427,19 @@
         <v>423</v>
       </c>
       <c r="F285" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H285" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J285" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K285" s="3" t="s">
         <v>423</v>
@@ -29497,19 +29497,19 @@
         <v>423</v>
       </c>
       <c r="F286" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H286" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J286" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K286" s="3" t="s">
         <v>423</v>
@@ -29567,19 +29567,19 @@
         <v>423</v>
       </c>
       <c r="F287" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H287" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J287" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K287" s="3" t="s">
         <v>423</v>
@@ -29637,19 +29637,19 @@
         <v>423</v>
       </c>
       <c r="F288" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H288" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I288" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J288" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K288" s="3" t="s">
         <v>423</v>
@@ -29707,19 +29707,19 @@
         <v>423</v>
       </c>
       <c r="F289" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H289" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I289" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J289" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K289" s="3" t="s">
         <v>423</v>
@@ -29777,19 +29777,19 @@
         <v>423</v>
       </c>
       <c r="F290" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H290" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J290" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K290" s="3" t="s">
         <v>423</v>
@@ -29851,19 +29851,19 @@
         <v>423</v>
       </c>
       <c r="F291" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H291" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I291" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J291" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K291" s="3" t="s">
         <v>423</v>
@@ -29925,19 +29925,19 @@
         <v>423</v>
       </c>
       <c r="F292" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H292" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I292" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J292" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K292" s="3" t="s">
         <v>423</v>
@@ -29982,19 +29982,19 @@
         <v>423</v>
       </c>
       <c r="F293" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H293" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I293" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J293" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K293" s="3" t="s">
         <v>423</v>
@@ -30048,19 +30048,19 @@
         <v>423</v>
       </c>
       <c r="F294" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H294" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I294" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J294" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K294" s="3" t="s">
         <v>423</v>
@@ -30118,19 +30118,19 @@
         <v>423</v>
       </c>
       <c r="F295" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H295" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J295" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K295" s="3" t="s">
         <v>423</v>
@@ -30188,19 +30188,19 @@
         <v>423</v>
       </c>
       <c r="F296" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H296" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I296" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J296" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K296" s="3" t="s">
         <v>423</v>
@@ -30258,19 +30258,19 @@
         <v>423</v>
       </c>
       <c r="F297" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H297" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J297" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K297" s="3" t="s">
         <v>423</v>
@@ -30328,19 +30328,19 @@
         <v>423</v>
       </c>
       <c r="F298" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H298" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I298" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J298" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K298" s="3" t="s">
         <v>423</v>
@@ -30398,19 +30398,19 @@
         <v>423</v>
       </c>
       <c r="F299" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H299" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I299" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J299" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K299" s="3" t="s">
         <v>423</v>
@@ -30472,19 +30472,19 @@
         <v>423</v>
       </c>
       <c r="F300" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H300" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I300" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J300" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K300" s="3" t="s">
         <v>423</v>
@@ -30546,19 +30546,19 @@
         <v>423</v>
       </c>
       <c r="F301" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H301" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I301" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J301" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K301" s="3" t="s">
         <v>423</v>
@@ -30603,19 +30603,19 @@
         <v>423</v>
       </c>
       <c r="F302" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H302" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I302" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J302" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K302" s="3" t="s">
         <v>423</v>
@@ -30669,19 +30669,19 @@
         <v>423</v>
       </c>
       <c r="F303" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H303" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I303" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J303" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K303" s="3" t="s">
         <v>423</v>
@@ -30739,19 +30739,19 @@
         <v>423</v>
       </c>
       <c r="F304" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H304" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I304" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J304" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K304" s="3" t="s">
         <v>423</v>
@@ -30809,19 +30809,19 @@
         <v>423</v>
       </c>
       <c r="F305" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H305" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I305" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J305" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K305" s="3" t="s">
         <v>423</v>
@@ -30879,19 +30879,19 @@
         <v>423</v>
       </c>
       <c r="F306" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H306" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I306" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J306" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K306" s="3" t="s">
         <v>423</v>
@@ -30949,19 +30949,19 @@
         <v>423</v>
       </c>
       <c r="F307" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H307" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I307" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J307" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K307" s="3" t="s">
         <v>423</v>
@@ -31019,19 +31019,19 @@
         <v>423</v>
       </c>
       <c r="F308" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H308" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J308" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K308" s="3" t="s">
         <v>423</v>
@@ -31093,19 +31093,19 @@
         <v>423</v>
       </c>
       <c r="F309" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H309" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I309" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J309" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K309" s="3" t="s">
         <v>423</v>
@@ -31167,19 +31167,19 @@
         <v>423</v>
       </c>
       <c r="F310" s="2">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H310" s="2">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I310" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J310" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K310" s="3" t="s">
         <v>423</v>
@@ -31224,19 +31224,19 @@
         <v>423</v>
       </c>
       <c r="F311" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H311" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I311" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J311" s="2">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="K311" s="3" t="s">
         <v>423</v>
@@ -31290,19 +31290,19 @@
         <v>423</v>
       </c>
       <c r="F312" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H312" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="I312" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J312" s="2">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="K312" s="3" t="s">
         <v>423</v>
@@ -31360,19 +31360,19 @@
         <v>423</v>
       </c>
       <c r="F313" s="2">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H313" s="2">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="I313" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J313" s="2">
-        <v>3493</v>
+        <v>3548</v>
       </c>
       <c r="K313" s="3" t="s">
         <v>423</v>
@@ -31430,19 +31430,19 @@
         <v>423</v>
       </c>
       <c r="F314" s="2">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H314" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="I314" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J314" s="2">
-        <v>4978</v>
+        <v>5033</v>
       </c>
       <c r="K314" s="3" t="s">
         <v>423</v>
@@ -31500,19 +31500,19 @@
         <v>423</v>
       </c>
       <c r="F315" s="2">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H315" s="2">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="I315" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J315" s="2">
-        <v>6815</v>
+        <v>6870</v>
       </c>
       <c r="K315" s="3" t="s">
         <v>423</v>
@@ -31570,19 +31570,19 @@
         <v>423</v>
       </c>
       <c r="F316" s="2">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H316" s="2">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="I316" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J316" s="2">
-        <v>8905</v>
+        <v>8960</v>
       </c>
       <c r="K316" s="3" t="s">
         <v>423</v>
@@ -31640,19 +31640,19 @@
         <v>423</v>
       </c>
       <c r="F317" s="2">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H317" s="2">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="I317" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J317" s="2">
-        <v>11380</v>
+        <v>11435</v>
       </c>
       <c r="K317" s="3" t="s">
         <v>423</v>
@@ -31714,19 +31714,19 @@
         <v>423</v>
       </c>
       <c r="F318" s="2">
-        <v>2980</v>
+        <v>2958</v>
       </c>
       <c r="G318" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H318" s="2">
-        <v>1544</v>
+        <v>1489</v>
       </c>
       <c r="I318" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J318" s="2">
-        <v>14460</v>
+        <v>14515</v>
       </c>
       <c r="K318" s="3" t="s">
         <v>423</v>
@@ -31788,19 +31788,19 @@
         <v>423</v>
       </c>
       <c r="F319" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H319" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I319" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J319" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K319" s="3" t="s">
         <v>423</v>
@@ -31845,19 +31845,19 @@
         <v>423</v>
       </c>
       <c r="F320" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H320" s="2">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J320" s="2">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="K320" s="3" t="s">
         <v>423</v>
@@ -31911,19 +31911,19 @@
         <v>423</v>
       </c>
       <c r="F321" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H321" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I321" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J321" s="2">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="K321" s="3" t="s">
         <v>423</v>
@@ -31981,19 +31981,19 @@
         <v>423</v>
       </c>
       <c r="F322" s="2">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H322" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J322" s="2">
-        <v>3175</v>
+        <v>3225</v>
       </c>
       <c r="K322" s="3" t="s">
         <v>423</v>
@@ -32051,19 +32051,19 @@
         <v>423</v>
       </c>
       <c r="F323" s="2">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H323" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I323" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J323" s="2">
-        <v>4525</v>
+        <v>4575</v>
       </c>
       <c r="K323" s="3" t="s">
         <v>423</v>
@@ -32121,19 +32121,19 @@
         <v>423</v>
       </c>
       <c r="F324" s="2">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H324" s="2">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="I324" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J324" s="2">
-        <v>6195</v>
+        <v>6245</v>
       </c>
       <c r="K324" s="3" t="s">
         <v>423</v>
@@ -32191,19 +32191,19 @@
         <v>423</v>
       </c>
       <c r="F325" s="2">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H325" s="2">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="I325" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J325" s="2">
-        <v>8095</v>
+        <v>8145</v>
       </c>
       <c r="K325" s="3" t="s">
         <v>423</v>
@@ -32261,19 +32261,19 @@
         <v>423</v>
       </c>
       <c r="F326" s="2">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H326" s="2">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="I326" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J326" s="2">
-        <v>10345</v>
+        <v>10395</v>
       </c>
       <c r="K326" s="3" t="s">
         <v>423</v>
@@ -32335,19 +32335,19 @@
         <v>423</v>
       </c>
       <c r="F327" s="2">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>424</v>
       </c>
       <c r="H327" s="2">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="I327" s="3" t="s">
         <v>425</v>
       </c>
       <c r="J327" s="2">
-        <v>13145</v>
+        <v>13195</v>
       </c>
       <c r="K327" s="3" t="s">
         <v>423</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10212" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10224" uniqueCount="688">
   <si>
     <t>sheet名</t>
   </si>
@@ -3121,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -81019,10 +81019,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -81119,7 +81119,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
         <v>100</v>
@@ -81142,7 +81142,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3">
         <v>150</v>
@@ -81173,7 +81173,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -81182,21 +81182,21 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="3">
-        <v>60</v>
-      </c>
       <c r="G7" s="3">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -81205,21 +81205,21 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E8" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
       </c>
       <c r="G8" s="3">
-        <v>950</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -81228,21 +81228,21 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
         <v>80</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
-        <v>1350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -81251,21 +81251,21 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <v>2250</v>
+        <v>950</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -81274,21 +81274,21 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E11" s="3">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3">
-        <v>3650</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -81297,498 +81297,774 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E12" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>656</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>100</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>150</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E16" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G16" s="3">
-        <v>400</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E17" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G17" s="3">
-        <v>550</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E18" s="3">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G18" s="3">
-        <v>700</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E19" s="3">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F19" s="3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G19" s="3">
-        <v>950</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E20" s="3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F20" s="3">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G20" s="3">
-        <v>1200</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E21" s="3">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="G21" s="3">
-        <v>1350</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E22" s="3">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F22" s="3">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G22" s="3">
-        <v>1550</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E23" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F23" s="3">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="G23" s="3">
-        <v>1750</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E24" s="3">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>594</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
         <v>100</v>
-      </c>
-      <c r="F25" s="3">
-        <v>105</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2250</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E26" s="3">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3">
-        <v>2550</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="3">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E27" s="3">
-        <v>110</v>
-      </c>
       <c r="F27" s="3">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3">
-        <v>2850</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E28" s="3">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3">
-        <v>3250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E29" s="3">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F29" s="3">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G29" s="3">
-        <v>3650</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E30" s="3">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G30" s="3">
-        <v>4100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E31" s="3">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="G31" s="3">
-        <v>4600</v>
+        <v>950</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E32" s="3">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="F32" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3">
-        <v>5250</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
       </c>
       <c r="C33" s="3">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E33" s="3">
+        <v>80</v>
+      </c>
+      <c r="F33" s="3">
+        <v>85</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E34" s="3">
+        <v>85</v>
+      </c>
+      <c r="F34" s="3">
+        <v>90</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E35" s="3">
+        <v>90</v>
+      </c>
+      <c r="F35" s="3">
+        <v>95</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E36" s="3">
+        <v>95</v>
+      </c>
+      <c r="F36" s="3">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>105</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E38" s="3">
+        <v>105</v>
+      </c>
+      <c r="F38" s="3">
+        <v>110</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E39" s="3">
+        <v>110</v>
+      </c>
+      <c r="F39" s="3">
+        <v>115</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E40" s="3">
+        <v>115</v>
+      </c>
+      <c r="F40" s="3">
+        <v>120</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E41" s="3">
+        <v>120</v>
+      </c>
+      <c r="F41" s="3">
+        <v>125</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E42" s="3">
+        <v>125</v>
+      </c>
+      <c r="F42" s="3">
+        <v>130</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E43" s="3">
+        <v>130</v>
+      </c>
+      <c r="F43" s="3">
+        <v>135</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E44" s="3">
+        <v>135</v>
+      </c>
+      <c r="F44" s="3">
+        <v>140</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
         <v>21</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E45" s="3">
         <v>140</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F45" s="3">
         <v>150</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
     </row>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF7433-B236-422E-91DC-B59F635AE377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC4DE5-14E2-469F-9532-439B496FC337}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3265,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10247,7 +10247,7 @@
       <c r="C43" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="3">
         <v>0</v>
       </c>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC4DE5-14E2-469F-9532-439B496FC337}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BF$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10572" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10572" uniqueCount="749">
   <si>
     <t>sheet名</t>
   </si>
@@ -2127,14 +2126,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>@1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>@2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ZSP[1]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2182,14 +2173,6 @@
   </si>
   <si>
     <t>姬烟华</t>
-  </si>
-  <si>
-    <t>@1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>@2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>幻</t>
@@ -2378,11 +2361,132 @@
     <t>燕青碎片</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>常服曹焱兵专属技能-1</t>
+  </si>
+  <si>
+    <r>
+      <t>常服曹焱兵专属技能-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮专属技能-1</t>
+  </si>
+  <si>
+    <t>曹玄亮专属技能-2</t>
+  </si>
+  <si>
+    <t>战斗夏玲专属技能-1</t>
+  </si>
+  <si>
+    <t>战斗夏玲专属技能-2</t>
+  </si>
+  <si>
+    <t>项昆仑专属技能-1</t>
+  </si>
+  <si>
+    <t>项昆仑专属技能-2</t>
+  </si>
+  <si>
+    <t>刘羽禅专属技能-1</t>
+  </si>
+  <si>
+    <t>刘羽禅专属技能-2</t>
+  </si>
+  <si>
+    <t>红莲缇娜专属技能-1</t>
+  </si>
+  <si>
+    <t>红莲缇娜专属技能-2</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵专属技能-1</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵专属技能-2</t>
+  </si>
+  <si>
+    <t>黑尔坎普专属技能-1</t>
+  </si>
+  <si>
+    <t>黑尔坎普专属技能-2</t>
+  </si>
+  <si>
+    <t>北落师门专属技能-1</t>
+  </si>
+  <si>
+    <t>北落师门专属技能-2</t>
+  </si>
+  <si>
+    <t>盖文专属技能-1</t>
+  </si>
+  <si>
+    <t>盖文专属技能-2</t>
+  </si>
+  <si>
+    <t>阎风吒专属技能-1</t>
+  </si>
+  <si>
+    <t>阎风吒专属技能-2</t>
+  </si>
+  <si>
+    <t>南御夫专属技能-1</t>
+  </si>
+  <si>
+    <t>南御夫专属技能-2</t>
+  </si>
+  <si>
+    <t>吉拉专属技能-1</t>
+  </si>
+  <si>
+    <t>吉拉专属技能-2</t>
+  </si>
+  <si>
+    <t>吕仙宫专属技能-1</t>
+  </si>
+  <si>
+    <t>吕仙宫专属技能-2</t>
+  </si>
+  <si>
+    <t>阎巧巧专属技能-1</t>
+  </si>
+  <si>
+    <t>阎巧巧专属技能-2</t>
+  </si>
+  <si>
+    <t>诸葛一心专属技能-1</t>
+  </si>
+  <si>
+    <t>诸葛一心专属技能-2</t>
+  </si>
+  <si>
+    <t>姬烟华专属技能-1</t>
+  </si>
+  <si>
+    <t>姬烟华专属技能-2</t>
+  </si>
+  <si>
+    <t>幻专属技能-1</t>
+  </si>
+  <si>
+    <t>幻专属技能-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2607,19 +2711,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2891,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -3169,10 +3273,10 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>34</v>
@@ -3262,11 +3366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3290,8 +3394,9 @@
     <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.875" customWidth="1"/>
     <col min="30" max="33" width="11.125" customWidth="1"/>
-    <col min="34" max="34" width="14.75" customWidth="1"/>
-    <col min="35" max="39" width="16" customWidth="1"/>
+    <col min="34" max="34" width="20.75" customWidth="1"/>
+    <col min="35" max="35" width="20.375" customWidth="1"/>
+    <col min="36" max="39" width="16" customWidth="1"/>
     <col min="40" max="40" width="22.875" customWidth="1"/>
     <col min="41" max="41" width="13.75" customWidth="1"/>
     <col min="42" max="42" width="17.375" customWidth="1"/>
@@ -3325,16 +3430,16 @@
         <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>46</v>
@@ -3391,7 +3496,7 @@
         <v>63</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>64</v>
@@ -3403,28 +3508,28 @@
         <v>636</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>66</v>
@@ -3567,7 +3672,7 @@
         <v>89</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AC2" t="s">
         <v>93</v>
@@ -3591,16 +3696,16 @@
         <v>655</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="AN2" t="s">
         <v>89</v>
@@ -3683,10 +3788,10 @@
         <v>103</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>104</v>
@@ -3743,7 +3848,7 @@
         <v>121</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>122</v>
@@ -3767,16 +3872,16 @@
         <v>654</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>124</v>
@@ -3836,7 +3941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
@@ -3936,17 +4041,17 @@
       <c r="AG4" s="6">
         <v>0.2</v>
       </c>
-      <c r="AH4" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>657</v>
+      <c r="AH4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL4" s="8">
         <v>5000</v>
@@ -4111,17 +4216,17 @@
       <c r="AG5" s="6">
         <v>0.2</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>657</v>
+      <c r="AH5" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL5" s="8">
         <v>5000</v>
@@ -4199,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>164</v>
@@ -4285,16 +4390,16 @@
         <v>0.2</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>656</v>
+        <v>717</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL6" s="8">
         <v>5000</v>
@@ -4460,16 +4565,16 @@
         <v>0.2</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL7" s="8">
         <v>5000</v>
@@ -4635,16 +4740,16 @@
         <v>0.2</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>656</v>
+        <v>721</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>657</v>
+        <v>722</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL8" s="8">
         <v>5000</v>
@@ -4717,14 +4822,14 @@
         <v>1101006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>190</v>
@@ -4810,16 +4915,16 @@
         <v>0.2</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>656</v>
+        <v>723</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>657</v>
+        <v>724</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK9" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL9" s="8">
         <v>5000</v>
@@ -4832,7 +4937,7 @@
       </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AQ9" s="4">
         <v>30</v>
@@ -4901,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>199</v>
@@ -4987,16 +5092,16 @@
         <v>0.2</v>
       </c>
       <c r="AH10" s="7" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL10" s="8">
         <v>5000</v>
@@ -5069,14 +5174,14 @@
         <v>1101008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>207</v>
@@ -5162,16 +5267,16 @@
         <v>0.2</v>
       </c>
       <c r="AH11" s="7" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL11" s="8">
         <v>5000</v>
@@ -5184,7 +5289,7 @@
       </c>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AQ11" s="4">
         <v>20</v>
@@ -5335,16 +5440,16 @@
         <v>0.2</v>
       </c>
       <c r="AH12" s="7" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL12" s="8">
         <v>5000</v>
@@ -5512,16 +5617,16 @@
         <v>0.2</v>
       </c>
       <c r="AH13" s="7" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="AJ13" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK13" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL13" s="8">
         <v>5000</v>
@@ -5689,16 +5794,16 @@
         <v>0.2</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL14" s="8">
         <v>5000</v>
@@ -5864,16 +5969,16 @@
         <v>0.2</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK15" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL15" s="8">
         <v>5000</v>
@@ -6037,16 +6142,16 @@
         <v>0.2</v>
       </c>
       <c r="AH16" s="7" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK16" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL16" s="8">
         <v>5000</v>
@@ -6210,16 +6315,16 @@
         <v>0.2</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK17" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL17" s="8">
         <v>5000</v>
@@ -6387,16 +6492,16 @@
         <v>0.2</v>
       </c>
       <c r="AH18" s="7" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK18" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL18" s="8">
         <v>5000</v>
@@ -6467,7 +6572,7 @@
         <v>1101017</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D19" s="4" t="b">
         <v>1</v>
@@ -6476,10 +6581,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6562,16 +6667,16 @@
         <v>0.2</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>672</v>
+        <v>744</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK19" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL19" s="8">
         <v>5000</v>
@@ -6642,7 +6747,7 @@
         <v>1101020</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D20" s="4" t="b">
         <v>1</v>
@@ -6651,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6737,16 +6842,16 @@
         <v>0.2</v>
       </c>
       <c r="AH20" s="7" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK20" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL20" s="8">
         <v>5000</v>
@@ -6817,17 +6922,17 @@
         <v>1101022</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6910,16 +7015,16 @@
         <v>0.2</v>
       </c>
       <c r="AH21" s="7" t="s">
-        <v>656</v>
+        <v>747</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>657</v>
+        <v>748</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AK21" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AL21" s="8">
         <v>5000</v>
@@ -8017,7 +8122,7 @@
       </c>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AQ28" s="4">
         <v>30</v>
@@ -10245,17 +10350,17 @@
         <v>1102022</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" ref="H43" si="3">"ui_dtex_Name_"&amp;B43</f>
@@ -10497,10 +10602,10 @@
       </c>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR44" s="3">
         <v>1701003</v>
@@ -10654,10 +10759,10 @@
       </c>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR45" s="3">
         <v>1701003</v>
@@ -10811,10 +10916,10 @@
       </c>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR46" s="3">
         <v>1701003</v>
@@ -10968,10 +11073,10 @@
       </c>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR47" s="3">
         <v>1701003</v>
@@ -11125,10 +11230,10 @@
       </c>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR48" s="3">
         <v>1701003</v>
@@ -11282,10 +11387,10 @@
       </c>
       <c r="AO49" s="4"/>
       <c r="AP49" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AR49" s="3">
         <v>1701003</v>
@@ -11335,6 +11440,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:BF49"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11342,7 +11448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72552,7 +72658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -72623,7 +72729,7 @@
         <v>550</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -72673,7 +72779,7 @@
         <v>505</v>
       </c>
       <c r="P2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -72719,7 +72825,7 @@
         <v>560</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -73822,7 +73928,7 @@
         <v>5000</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H29" s="3">
         <v>30</v>
@@ -73858,7 +73964,7 @@
         <v>8000</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H30" s="3">
         <v>30</v>
@@ -73898,7 +74004,7 @@
         <v>16000</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H31" s="3">
         <v>50</v>
@@ -73942,7 +74048,7 @@
         <v>25000</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H32" s="3">
         <v>80</v>
@@ -73990,7 +74096,7 @@
         <v>33000</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H33" s="3">
         <v>120</v>
@@ -74254,7 +74360,7 @@
         <v>5000</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H39" s="3">
         <v>20</v>
@@ -74290,7 +74396,7 @@
         <v>8000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H40" s="3">
         <v>20</v>
@@ -74330,7 +74436,7 @@
         <v>16000</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H41" s="3">
         <v>35</v>
@@ -74374,7 +74480,7 @@
         <v>25000</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H42" s="3">
         <v>60</v>
@@ -74422,7 +74528,7 @@
         <v>33000</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H43" s="3">
         <v>90</v>
@@ -77926,7 +78032,7 @@
         <v>5000</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H124" s="3">
         <v>30</v>
@@ -77962,7 +78068,7 @@
         <v>8000</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H125" s="3">
         <v>30</v>
@@ -78002,7 +78108,7 @@
         <v>16000</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H126" s="3">
         <v>50</v>
@@ -78046,7 +78152,7 @@
         <v>25000</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H127" s="3">
         <v>80</v>
@@ -78094,7 +78200,7 @@
         <v>33000</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H128" s="3">
         <v>120</v>
@@ -78985,7 +79091,7 @@
         <v>0.4</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -80952,7 +81058,7 @@
         <v>5000</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H194" s="3">
         <v>20</v>
@@ -80988,7 +81094,7 @@
         <v>8000</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H195" s="3">
         <v>20</v>
@@ -81028,7 +81134,7 @@
         <v>16000</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H196" s="3">
         <v>35</v>
@@ -81072,7 +81178,7 @@
         <v>25000</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H197" s="3">
         <v>60</v>
@@ -81120,7 +81226,7 @@
         <v>33000</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H198" s="3">
         <v>90</v>
@@ -81168,7 +81274,7 @@
         <v>5000</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H199" s="3">
         <v>20</v>
@@ -81204,7 +81310,7 @@
         <v>8000</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H200" s="3">
         <v>20</v>
@@ -81244,7 +81350,7 @@
         <v>16000</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H201" s="3">
         <v>35</v>
@@ -81288,7 +81394,7 @@
         <v>25000</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H202" s="3">
         <v>60</v>
@@ -81336,7 +81442,7 @@
         <v>33000</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H203" s="3">
         <v>90</v>
@@ -81372,7 +81478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -81529,7 +81635,7 @@
         <v>1701006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>191</v>
@@ -81563,7 +81669,7 @@
         <v>1701008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>208</v>
@@ -81852,7 +81958,7 @@
         <v>1702007</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>334</v>
@@ -82107,10 +82213,10 @@
         <v>1702022</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>570</v>
@@ -82127,7 +82233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView topLeftCell="A120" workbookViewId="0">
@@ -84744,7 +84850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -84764,10 +84870,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -84787,10 +84893,10 @@
         <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
@@ -84810,7 +84916,7 @@
         <v>582</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>509</v>
@@ -85802,7 +85908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -85898,7 +86004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86127,7 +86233,7 @@
         <v>625</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>332</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="卡牌攻略" sheetId="33" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BF$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BD$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10572" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10530" uniqueCount="741">
   <si>
     <t>sheet名</t>
   </si>
@@ -2222,38 +2222,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ZSId[1]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSPic[1]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属技能图1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属技能图2</t>
-  </si>
-  <si>
-    <t>pic1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2267,10 +2236,6 @@
   </si>
   <si>
     <t>张飞满星效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSPic[2]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2481,6 +2446,10 @@
   </si>
   <si>
     <t>幻专属技能-2</t>
+  </si>
+  <si>
+    <t>skill_id:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3367,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF49"/>
+  <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3396,24 +3365,24 @@
     <col min="30" max="33" width="11.125" customWidth="1"/>
     <col min="34" max="34" width="20.75" customWidth="1"/>
     <col min="35" max="35" width="20.375" customWidth="1"/>
-    <col min="36" max="39" width="16" customWidth="1"/>
-    <col min="40" max="40" width="22.875" customWidth="1"/>
-    <col min="41" max="41" width="13.75" customWidth="1"/>
-    <col min="42" max="42" width="17.375" customWidth="1"/>
-    <col min="43" max="43" width="13.625" customWidth="1"/>
-    <col min="44" max="44" width="11.25" customWidth="1"/>
-    <col min="45" max="45" width="14.25" customWidth="1"/>
-    <col min="46" max="46" width="29.75" customWidth="1"/>
-    <col min="47" max="48" width="25.125" customWidth="1"/>
-    <col min="49" max="49" width="21.125" customWidth="1"/>
-    <col min="50" max="52" width="26.375" customWidth="1"/>
-    <col min="53" max="54" width="16" customWidth="1"/>
-    <col min="55" max="56" width="25.75" customWidth="1"/>
-    <col min="57" max="57" width="29.625" customWidth="1"/>
-    <col min="58" max="58" width="16.875" customWidth="1"/>
+    <col min="36" max="37" width="16" customWidth="1"/>
+    <col min="38" max="38" width="22.875" customWidth="1"/>
+    <col min="39" max="39" width="13.75" customWidth="1"/>
+    <col min="40" max="40" width="17.375" customWidth="1"/>
+    <col min="41" max="41" width="13.625" customWidth="1"/>
+    <col min="42" max="42" width="11.25" customWidth="1"/>
+    <col min="43" max="43" width="14.25" customWidth="1"/>
+    <col min="44" max="44" width="29.75" customWidth="1"/>
+    <col min="45" max="46" width="25.125" customWidth="1"/>
+    <col min="47" max="47" width="21.125" customWidth="1"/>
+    <col min="48" max="50" width="26.375" customWidth="1"/>
+    <col min="51" max="52" width="16" customWidth="1"/>
+    <col min="53" max="54" width="25.75" customWidth="1"/>
+    <col min="55" max="55" width="29.625" customWidth="1"/>
+    <col min="56" max="56" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3514,82 +3483,76 @@
         <v>657</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>658</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>695</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>696</v>
+        <v>67</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -3672,13 +3635,13 @@
         <v>89</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>93</v>
+        <v>740</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>740</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>639</v>
@@ -3696,37 +3659,37 @@
         <v>655</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>700</v>
+        <v>691</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>93</v>
       </c>
       <c r="AN2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" t="s">
         <v>89</v>
       </c>
-      <c r="AO2" t="s">
-        <v>93</v>
-      </c>
       <c r="AP2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AQ2" t="s">
         <v>89</v>
       </c>
       <c r="AR2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AS2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AU2" t="s">
         <v>90</v>
@@ -3741,31 +3704,25 @@
         <v>90</v>
       </c>
       <c r="AY2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AZ2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="BA2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BB2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BC2" t="s">
         <v>97</v>
       </c>
       <c r="BD2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3872,76 +3829,70 @@
         <v>654</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>697</v>
+        <v>124</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>698</v>
+        <v>125</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF3" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
@@ -4042,81 +3993,75 @@
         <v>0.2</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL4" s="8">
+        <v>705</v>
+      </c>
+      <c r="AJ4" s="8">
         <v>5000</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AK4" s="8">
         <v>5000</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AL4" s="3">
         <v>0</v>
       </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4" t="s">
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AO4" s="4">
         <v>30</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AP4" s="3">
         <v>1701001</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AQ4" s="3">
         <v>30</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>148</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="AY4" s="4">
         <v>124.7</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="AZ4" s="3">
         <v>14.2</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF4" s="3">
-        <f t="shared" ref="BF4:BF42" si="0">2^M4+2^4*2^(K4-1)+2^6*2^(N4-1)+2^8*2^O4</f>
+      <c r="BD4" s="3">
+        <f t="shared" ref="BD4:BD42" si="0">2^M4+2^4*2^(K4-1)+2^6*2^(N4-1)+2^8*2^O4</f>
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1101002</v>
       </c>
@@ -4217,79 +4162,73 @@
         <v>0.2</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL5" s="8">
+        <v>707</v>
+      </c>
+      <c r="AJ5" s="8">
         <v>5000</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AK5" s="8">
         <v>5000</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AL5" s="3">
         <v>0</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4" t="s">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AO5" s="4">
         <v>20</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AP5" s="3">
         <v>1701002</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AQ5" s="3">
         <v>20</v>
       </c>
+      <c r="AR5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AT5" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="4">
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="4">
         <v>86</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="AZ5" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF5" s="3">
+      <c r="BD5" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1101003</v>
       </c>
@@ -4304,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>164</v>
@@ -4390,81 +4329,75 @@
         <v>0.2</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL6" s="8">
+        <v>709</v>
+      </c>
+      <c r="AJ6" s="8">
         <v>5000</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AK6" s="8">
         <v>5000</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AL6" s="3">
         <v>0</v>
       </c>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4" t="s">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AO6" s="4">
         <v>30</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AP6" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AQ6" s="3">
         <v>30</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU6" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="AY6" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="AZ6" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF6" s="3">
+      <c r="BD6" s="3">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1101004</v>
       </c>
@@ -4565,81 +4498,75 @@
         <v>0.2</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL7" s="8">
+        <v>711</v>
+      </c>
+      <c r="AJ7" s="8">
         <v>5000</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AK7" s="8">
         <v>5000</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AL7" s="3">
         <v>0</v>
       </c>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4" t="s">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AO7" s="4">
         <v>45</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AP7" s="3">
         <v>1701004</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AQ7" s="3">
         <v>45</v>
       </c>
+      <c r="AR7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="AT7" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AU7" s="3" t="s">
         <v>176</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BA7" s="4">
+      <c r="AY7" s="4">
         <v>0</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="AZ7" s="3">
         <v>0</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF7" s="3">
+      <c r="BD7" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1101005</v>
       </c>
@@ -4740,81 +4667,75 @@
         <v>0.2</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="AJ8" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK8" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL8" s="8">
+        <v>713</v>
+      </c>
+      <c r="AJ8" s="8">
         <v>5000</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AK8" s="8">
         <v>5000</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AL8" s="3">
         <v>0</v>
       </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4" t="s">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AO8" s="4">
         <v>45</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AP8" s="3">
         <v>1701005</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AQ8" s="3">
         <v>45</v>
       </c>
+      <c r="AR8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT8" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AU8" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="AY8" s="4">
         <v>0</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="AZ8" s="3">
         <v>0</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF8" s="3">
+      <c r="BD8" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1101006</v>
       </c>
@@ -4822,14 +4743,14 @@
         <v>1101006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>190</v>
@@ -4915,81 +4836,75 @@
         <v>0.2</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="AJ9" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK9" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL9" s="8">
+        <v>715</v>
+      </c>
+      <c r="AJ9" s="8">
         <v>5000</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AK9" s="8">
         <v>5000</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AL9" s="3">
         <v>0</v>
       </c>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="AQ9" s="4">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AO9" s="4">
         <v>30</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AP9" s="3">
         <v>1701006</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AQ9" s="3">
         <v>30</v>
       </c>
+      <c r="AR9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AT9" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AU9" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="BA9" s="4">
+      <c r="AY9" s="4">
         <v>0</v>
       </c>
-      <c r="BB9" s="3">
+      <c r="AZ9" s="3">
         <v>0</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF9" s="3">
+      <c r="BD9" s="3">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1101007</v>
       </c>
@@ -5006,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>199</v>
@@ -5092,81 +5007,75 @@
         <v>0.2</v>
       </c>
       <c r="AH10" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL10" s="8">
+        <v>717</v>
+      </c>
+      <c r="AJ10" s="8">
         <v>5000</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AK10" s="8">
         <v>5000</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AL10" s="3">
         <v>0</v>
       </c>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4" t="s">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AO10" s="4">
         <v>45</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AP10" s="3">
         <v>1701007</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AQ10" s="3">
         <v>45</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AR10" s="4" t="s">
         <v>201</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="AU10" s="3" t="s">
         <v>202</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="AY10" s="4">
         <v>124.7</v>
       </c>
-      <c r="BB10" s="3">
+      <c r="AZ10" s="3">
         <v>14.2</v>
+      </c>
+      <c r="BA10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF10" s="3">
+      <c r="BD10" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1101008</v>
       </c>
@@ -5174,14 +5083,14 @@
         <v>1101008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>207</v>
@@ -5267,79 +5176,73 @@
         <v>0.2</v>
       </c>
       <c r="AH11" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL11" s="8">
+        <v>719</v>
+      </c>
+      <c r="AJ11" s="8">
         <v>5000</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AK11" s="8">
         <v>5000</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AL11" s="3">
         <v>0</v>
       </c>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="AQ11" s="4">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AO11" s="4">
         <v>20</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AP11" s="3">
         <v>1701008</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AQ11" s="3">
         <v>20</v>
       </c>
+      <c r="AR11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="AT11" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AU11" s="3" t="s">
         <v>210</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="4">
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="4">
         <v>22</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="AZ11" s="3">
         <v>-86.1</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF11" s="3">
+      <c r="BD11" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1101009</v>
       </c>
@@ -5440,81 +5343,75 @@
         <v>0.2</v>
       </c>
       <c r="AH12" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL12" s="8">
+        <v>721</v>
+      </c>
+      <c r="AJ12" s="8">
         <v>5000</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AK12" s="8">
         <v>5000</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AL12" s="3">
         <v>0</v>
       </c>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4" t="s">
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AO12" s="4">
         <v>30</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AP12" s="3">
         <v>1701009</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="AQ12" s="3">
         <v>30</v>
       </c>
+      <c r="AR12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="AT12" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AU12" s="3" t="s">
         <v>218</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AX12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY12" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BA12" s="3">
+      <c r="AY12" s="3">
         <v>0</v>
       </c>
-      <c r="BB12" s="3">
+      <c r="AZ12" s="3">
         <v>0</v>
+      </c>
+      <c r="BA12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB12" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF12" s="3">
+      <c r="BD12" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1101010</v>
       </c>
@@ -5617,81 +5514,75 @@
         <v>0.2</v>
       </c>
       <c r="AH13" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL13" s="8">
+        <v>723</v>
+      </c>
+      <c r="AJ13" s="8">
         <v>5000</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AK13" s="8">
         <v>5000</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AL13" s="3">
         <v>0</v>
       </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4" t="s">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AO13" s="4">
         <v>45</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AP13" s="3">
         <v>1701010</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AQ13" s="3">
         <v>45</v>
       </c>
+      <c r="AR13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="AT13" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AU13" s="3" t="s">
         <v>227</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="BA13" s="3">
+      <c r="AY13" s="3">
         <v>0</v>
       </c>
-      <c r="BB13" s="3">
+      <c r="AZ13" s="3">
         <v>0</v>
+      </c>
+      <c r="BA13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF13" s="3">
+      <c r="BD13" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1101011</v>
       </c>
@@ -5794,81 +5685,75 @@
         <v>0.2</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL14" s="8">
+        <v>725</v>
+      </c>
+      <c r="AJ14" s="8">
         <v>5000</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AK14" s="8">
         <v>5000</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AL14" s="3">
         <v>0</v>
       </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4" t="s">
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AQ14" s="4">
+      <c r="AO14" s="4">
         <v>30</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AP14" s="3">
         <v>1701011</v>
       </c>
-      <c r="AS14" s="3">
+      <c r="AQ14" s="3">
         <v>30</v>
       </c>
+      <c r="AR14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="AT14" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AU14" s="3" t="s">
         <v>236</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="BA14" s="3">
+      <c r="AY14" s="3">
         <v>0</v>
       </c>
-      <c r="BB14" s="3">
+      <c r="AZ14" s="3">
         <v>0</v>
+      </c>
+      <c r="BA14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB14" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF14" s="3">
+      <c r="BD14" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1101012</v>
       </c>
@@ -5969,79 +5854,73 @@
         <v>0.2</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="AJ15" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK15" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL15" s="8">
+        <v>727</v>
+      </c>
+      <c r="AJ15" s="8">
         <v>5000</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AK15" s="8">
         <v>5000</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AL15" s="3">
         <v>0</v>
       </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4" t="s">
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AQ15" s="4">
+      <c r="AO15" s="4">
         <v>20</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AP15" s="3">
         <v>1701012</v>
       </c>
-      <c r="AS15" s="3">
+      <c r="AQ15" s="3">
         <v>20</v>
       </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AR15" s="3" t="s">
         <v>244</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="AU15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AV15" s="4" t="s">
-        <v>246</v>
+      <c r="AV15" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AX15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY15" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3">
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3">
         <v>0</v>
       </c>
-      <c r="BB15" s="3">
+      <c r="AZ15" s="3">
         <v>0</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB15" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD15" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF15" s="3">
+      <c r="BD15" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1101013</v>
       </c>
@@ -6142,79 +6021,73 @@
         <v>0.2</v>
       </c>
       <c r="AH16" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK16" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL16" s="8">
+        <v>729</v>
+      </c>
+      <c r="AJ16" s="8">
         <v>5000</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AK16" s="8">
         <v>5000</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AL16" s="3">
         <v>0</v>
       </c>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4" t="s">
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="AO16" s="4">
         <v>20</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AP16" s="3">
         <v>1701013</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AQ16" s="3">
         <v>20</v>
       </c>
+      <c r="AR16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="AT16" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AU16" s="3" t="s">
         <v>253</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AW16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX16" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AY16" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3">
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3">
         <v>0</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="AZ16" s="3">
         <v>0</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB16" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF16" s="3">
+      <c r="BD16" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1101014</v>
       </c>
@@ -6315,81 +6188,75 @@
         <v>0.2</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK17" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL17" s="8">
+        <v>731</v>
+      </c>
+      <c r="AJ17" s="8">
         <v>5000</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AK17" s="8">
         <v>5000</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AL17" s="3">
         <v>0</v>
       </c>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4" t="s">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="AO17" s="4">
         <v>30</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AP17" s="3">
         <v>1701014</v>
       </c>
-      <c r="AS17" s="3">
+      <c r="AQ17" s="3">
         <v>30</v>
       </c>
+      <c r="AR17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="AT17" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AU17" s="3" t="s">
         <v>261</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AX17" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY17" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ17" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BA17" s="3">
+      <c r="AY17" s="3">
         <v>0</v>
       </c>
-      <c r="BB17" s="3">
+      <c r="AZ17" s="3">
         <v>0</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB17" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF17" s="3">
+      <c r="BD17" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1101015</v>
       </c>
@@ -6492,79 +6359,73 @@
         <v>0.2</v>
       </c>
       <c r="AH18" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="AJ18" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK18" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL18" s="8">
+        <v>733</v>
+      </c>
+      <c r="AJ18" s="8">
         <v>5000</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AK18" s="8">
         <v>5000</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AL18" s="3">
         <v>0</v>
       </c>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4" t="s">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="AO18" s="4">
         <v>20</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AP18" s="3">
         <v>1701015</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AQ18" s="3">
         <v>20</v>
       </c>
+      <c r="AR18" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="AT18" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AU18" s="3" t="s">
         <v>270</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY18" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3">
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3">
         <v>0</v>
       </c>
-      <c r="BB18" s="3">
+      <c r="AZ18" s="3">
         <v>0</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF18" s="3">
+      <c r="BD18" s="3">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1101017</v>
       </c>
@@ -6667,79 +6528,73 @@
         <v>0.2</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="AJ19" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK19" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL19" s="8">
+        <v>735</v>
+      </c>
+      <c r="AJ19" s="8">
         <v>5000</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AK19" s="8">
         <v>5000</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AL19" s="3">
         <v>0</v>
       </c>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4" t="s">
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AQ19" s="4">
+      <c r="AO19" s="4">
         <v>45</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AP19" s="3">
         <v>1701017</v>
       </c>
-      <c r="AS19" s="3">
+      <c r="AQ19" s="3">
         <v>45</v>
       </c>
+      <c r="AR19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="AT19" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AU19" s="3" t="s">
         <v>270</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW19" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX19" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY19" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3">
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3">
         <v>0</v>
       </c>
-      <c r="BB19" s="3">
+      <c r="AZ19" s="3">
         <v>0</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB19" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF19" s="3">
+      <c r="BD19" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1101020</v>
       </c>
@@ -6842,79 +6697,73 @@
         <v>0.2</v>
       </c>
       <c r="AH20" s="7" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="AJ20" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK20" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL20" s="8">
+        <v>737</v>
+      </c>
+      <c r="AJ20" s="8">
         <v>5000</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AK20" s="8">
         <v>5000</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AL20" s="3">
         <v>0</v>
       </c>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4" t="s">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AQ20" s="4">
+      <c r="AO20" s="4">
         <v>45</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AP20" s="3">
         <v>1701020</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AQ20" s="3">
         <v>45</v>
       </c>
+      <c r="AR20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="AT20" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AU20" s="3" t="s">
         <v>270</v>
       </c>
       <c r="AV20" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW20" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY20" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3">
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3">
         <v>0</v>
       </c>
-      <c r="BB20" s="3">
+      <c r="AZ20" s="3">
         <v>0</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB20" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF20" s="3">
+      <c r="BD20" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1101022</v>
       </c>
@@ -7015,79 +6864,73 @@
         <v>0.2</v>
       </c>
       <c r="AH21" s="7" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK21" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL21" s="8">
+        <v>739</v>
+      </c>
+      <c r="AJ21" s="8">
         <v>5000</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AK21" s="8">
         <v>5000</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AL21" s="3">
         <v>0</v>
       </c>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4" t="s">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="AO21" s="4">
         <v>20</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AP21" s="3">
         <v>1701022</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AQ21" s="3">
         <v>20</v>
       </c>
+      <c r="AR21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="AT21" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AU21" s="3" t="s">
         <v>270</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX21" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3">
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3">
         <v>0</v>
       </c>
-      <c r="BB21" s="3">
+      <c r="AZ21" s="3">
         <v>0</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB21" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF21" s="3">
+      <c r="BD21" s="3">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1102001</v>
       </c>
@@ -7185,66 +7028,64 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3">
+      <c r="AL22" s="3">
         <v>2</v>
       </c>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4" t="s">
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AQ22" s="4">
+      <c r="AO22" s="4">
         <v>45</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AP22" s="3">
         <v>1702001</v>
       </c>
-      <c r="AS22" s="3">
+      <c r="AQ22" s="3">
         <v>45</v>
       </c>
+      <c r="AR22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="AT22" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AU22" s="3" t="s">
         <v>281</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AW22" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AX22" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AY22" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ22" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BA22" s="3">
+      <c r="AY22" s="3">
         <v>-172.3</v>
       </c>
-      <c r="BB22" s="3">
+      <c r="AZ22" s="3">
         <v>-15.7</v>
+      </c>
+      <c r="BA22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB22" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE22" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF22" s="3">
+      <c r="BD22" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1102002</v>
       </c>
@@ -7340,66 +7181,64 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3">
+      <c r="AL23" s="3">
         <v>2</v>
       </c>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4" t="s">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AQ23" s="4">
+      <c r="AO23" s="4">
         <v>30</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AP23" s="3">
         <v>1702002</v>
       </c>
-      <c r="AS23" s="3">
+      <c r="AQ23" s="3">
         <v>30</v>
       </c>
+      <c r="AR23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="AT23" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AU23" s="3" t="s">
         <v>291</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AW23" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AX23" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AY23" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ23" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="BA23" s="3">
+      <c r="AY23" s="3">
         <v>-172.3</v>
       </c>
-      <c r="BB23" s="3">
+      <c r="AZ23" s="3">
         <v>-15.7</v>
+      </c>
+      <c r="BA23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB23" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF23" s="3">
+      <c r="BD23" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1102003</v>
       </c>
@@ -7497,66 +7336,64 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3">
+      <c r="AL24" s="3">
         <v>2</v>
       </c>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4" t="s">
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AQ24" s="4">
+      <c r="AO24" s="4">
         <v>30</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AP24" s="3">
         <v>1702003</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AQ24" s="3">
         <v>30</v>
       </c>
+      <c r="AR24" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="AT24" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AU24" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AV24" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AW24" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AX24" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY24" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ24" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="BA24" s="4">
+      <c r="AY24" s="4">
         <v>0</v>
       </c>
-      <c r="BB24" s="3">
+      <c r="AZ24" s="3">
         <v>0</v>
+      </c>
+      <c r="BA24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB24" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF24" s="3">
+      <c r="BD24" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1102004</v>
       </c>
@@ -7652,64 +7489,62 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3">
+      <c r="AL25" s="3">
         <v>2</v>
       </c>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4" t="s">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AO25" s="4">
         <v>20</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AP25" s="3">
         <v>1702004</v>
       </c>
-      <c r="AS25" s="3">
+      <c r="AQ25" s="3">
         <v>20</v>
       </c>
+      <c r="AR25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="AT25" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AU25" s="3" t="s">
         <v>310</v>
       </c>
       <c r="AV25" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AW25" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX25" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AY25" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="4">
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="4">
         <v>106.1</v>
       </c>
-      <c r="BB25" s="3">
+      <c r="AZ25" s="3">
         <v>-15.7</v>
+      </c>
+      <c r="BA25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB25" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF25" s="3">
+      <c r="BD25" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1102005</v>
       </c>
@@ -7805,66 +7640,64 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3">
+      <c r="AL26" s="3">
         <v>2</v>
       </c>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4" t="s">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AQ26" s="4">
+      <c r="AO26" s="4">
         <v>30</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AP26" s="3">
         <v>1702005</v>
       </c>
-      <c r="AS26" s="3">
+      <c r="AQ26" s="3">
         <v>30</v>
       </c>
+      <c r="AR26" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS26" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="AT26" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AU26" s="3" t="s">
         <v>318</v>
       </c>
       <c r="AV26" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AW26" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AX26" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY26" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AZ26" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="BA26" s="3">
+      <c r="AY26" s="3">
         <v>0</v>
       </c>
-      <c r="BB26" s="3">
+      <c r="AZ26" s="3">
         <v>0</v>
+      </c>
+      <c r="BA26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB26" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF26" s="3">
+      <c r="BD26" s="3">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1102006</v>
       </c>
@@ -7960,66 +7793,64 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3">
+      <c r="AL27" s="3">
         <v>2</v>
       </c>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4" t="s">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AQ27" s="4">
+      <c r="AO27" s="4">
         <v>45</v>
       </c>
-      <c r="AR27" s="3">
+      <c r="AP27" s="3">
         <v>1702006</v>
       </c>
-      <c r="AS27" s="3">
+      <c r="AQ27" s="3">
         <v>45</v>
       </c>
+      <c r="AR27" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="AT27" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AU27" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AV27" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AW27" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AX27" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY27" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AZ27" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="BA27" s="3">
+      <c r="AY27" s="3">
         <v>0</v>
       </c>
-      <c r="BB27" s="3">
+      <c r="AZ27" s="3">
         <v>0</v>
+      </c>
+      <c r="BA27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB27" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC27" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF27" s="3">
+      <c r="BD27" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1102007</v>
       </c>
@@ -8115,66 +7946,64 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3">
+      <c r="AL28" s="3">
         <v>2</v>
       </c>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="AQ28" s="4">
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="AO28" s="4">
         <v>30</v>
       </c>
-      <c r="AR28" s="3">
+      <c r="AP28" s="3">
         <v>1702007</v>
       </c>
-      <c r="AS28" s="3">
+      <c r="AQ28" s="3">
         <v>30</v>
       </c>
+      <c r="AR28" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS28" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="AT28" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AU28" s="3" t="s">
         <v>336</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AW28" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AX28" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AY28" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AZ28" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="BA28" s="3">
+      <c r="AY28" s="3">
         <v>0</v>
       </c>
-      <c r="BB28" s="3">
+      <c r="AZ28" s="3">
         <v>0</v>
+      </c>
+      <c r="BA28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB28" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF28" s="3">
+      <c r="BD28" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1102008</v>
       </c>
@@ -8270,66 +8099,64 @@
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3">
+      <c r="AL29" s="3">
         <v>2</v>
       </c>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4" t="s">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="AQ29" s="4">
+      <c r="AO29" s="4">
         <v>45</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AP29" s="3">
         <v>1702008</v>
       </c>
-      <c r="AS29" s="3">
+      <c r="AQ29" s="3">
         <v>45</v>
       </c>
+      <c r="AR29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS29" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="AT29" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AU29" s="3" t="s">
         <v>344</v>
       </c>
       <c r="AV29" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AW29" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AX29" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY29" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AZ29" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="BA29" s="3">
+      <c r="AY29" s="3">
         <v>0</v>
       </c>
-      <c r="BB29" s="3">
+      <c r="AZ29" s="3">
         <v>0</v>
+      </c>
+      <c r="BA29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB29" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC29" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF29" s="3">
+      <c r="BD29" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1102009</v>
       </c>
@@ -8427,66 +8254,64 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3">
+      <c r="AL30" s="3">
         <v>2</v>
       </c>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4" t="s">
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="AQ30" s="4">
+      <c r="AO30" s="4">
         <v>45</v>
       </c>
-      <c r="AR30" s="3">
+      <c r="AP30" s="3">
         <v>1702009</v>
       </c>
-      <c r="AS30" s="3">
+      <c r="AQ30" s="3">
         <v>45</v>
       </c>
+      <c r="AR30" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS30" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="AT30" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AU30" s="3" t="s">
         <v>353</v>
       </c>
       <c r="AV30" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AW30" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AX30" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AY30" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AZ30" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="BA30" s="3">
+      <c r="AY30" s="3">
         <v>0</v>
       </c>
-      <c r="BB30" s="3">
+      <c r="AZ30" s="3">
         <v>0</v>
+      </c>
+      <c r="BA30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB30" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF30" s="3">
+      <c r="BD30" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1102010</v>
       </c>
@@ -8582,66 +8407,64 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3">
+      <c r="AL31" s="3">
         <v>2</v>
       </c>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4" t="s">
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="AQ31" s="4">
+      <c r="AO31" s="4">
         <v>45</v>
       </c>
-      <c r="AR31" s="3">
+      <c r="AP31" s="3">
         <v>1702010</v>
       </c>
-      <c r="AS31" s="3">
+      <c r="AQ31" s="3">
         <v>45</v>
       </c>
+      <c r="AR31" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS31" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="AT31" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AU31" s="3" t="s">
         <v>362</v>
       </c>
       <c r="AV31" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AW31" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AX31" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AY31" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ31" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="BA31" s="3">
+      <c r="AY31" s="3">
         <v>0</v>
       </c>
-      <c r="BB31" s="3">
+      <c r="AZ31" s="3">
         <v>0</v>
+      </c>
+      <c r="BA31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB31" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF31" s="3">
+      <c r="BD31" s="3">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1102011</v>
       </c>
@@ -8739,66 +8562,64 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3">
+      <c r="AL32" s="3">
         <v>2</v>
       </c>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4" t="s">
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="AQ32" s="4">
+      <c r="AO32" s="4">
         <v>45</v>
       </c>
-      <c r="AR32" s="3">
+      <c r="AP32" s="3">
         <v>1702011</v>
       </c>
-      <c r="AS32" s="3">
+      <c r="AQ32" s="3">
         <v>45</v>
       </c>
+      <c r="AR32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS32" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="AT32" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AU32" s="3" t="s">
         <v>372</v>
       </c>
       <c r="AV32" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AW32" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AX32" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AY32" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ32" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="BA32" s="3">
+      <c r="AY32" s="3">
         <v>0</v>
       </c>
-      <c r="BB32" s="3">
+      <c r="AZ32" s="3">
         <v>0</v>
+      </c>
+      <c r="BA32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB32" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF32" s="3">
+      <c r="BD32" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1102012</v>
       </c>
@@ -8894,66 +8715,64 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3">
+      <c r="AL33" s="3">
         <v>2</v>
       </c>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4" t="s">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AQ33" s="4">
+      <c r="AO33" s="4">
         <v>45</v>
       </c>
-      <c r="AR33" s="3">
+      <c r="AP33" s="3">
         <v>1702012</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AQ33" s="3">
         <v>45</v>
       </c>
+      <c r="AR33" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="AT33" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AU33" s="3" t="s">
         <v>381</v>
       </c>
       <c r="AV33" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AW33" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AX33" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AY33" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AZ33" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="BA33" s="3">
+      <c r="AY33" s="3">
         <v>0</v>
       </c>
-      <c r="BB33" s="3">
+      <c r="AZ33" s="3">
         <v>0</v>
+      </c>
+      <c r="BA33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB33" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF33" s="3">
+      <c r="BD33" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1102013</v>
       </c>
@@ -9051,64 +8870,62 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3">
+      <c r="AL34" s="3">
         <v>2</v>
       </c>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4" t="s">
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AQ34" s="4">
+      <c r="AO34" s="4">
         <v>20</v>
       </c>
-      <c r="AR34" s="3">
+      <c r="AP34" s="3">
         <v>1702013</v>
       </c>
-      <c r="AS34" s="3">
+      <c r="AQ34" s="3">
         <v>20</v>
       </c>
+      <c r="AR34" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS34" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="AT34" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AU34" s="3" t="s">
         <v>391</v>
       </c>
       <c r="AV34" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AW34" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AX34" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AY34" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3">
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3">
         <v>0</v>
       </c>
-      <c r="BB34" s="3">
+      <c r="AZ34" s="3">
         <v>0</v>
+      </c>
+      <c r="BA34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB34" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF34" s="3">
+      <c r="BD34" s="3">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1102014</v>
       </c>
@@ -9206,66 +9023,64 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3">
+      <c r="AL35" s="3">
         <v>2</v>
       </c>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4" t="s">
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AQ35" s="4">
+      <c r="AO35" s="4">
         <v>30</v>
       </c>
-      <c r="AR35" s="3">
+      <c r="AP35" s="3">
         <v>1702014</v>
       </c>
-      <c r="AS35" s="3">
+      <c r="AQ35" s="3">
         <v>30</v>
       </c>
+      <c r="AR35" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS35" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="AT35" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AU35" s="3" t="s">
         <v>399</v>
       </c>
       <c r="AV35" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AW35" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AX35" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AY35" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ35" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="BA35" s="3">
+      <c r="AY35" s="3">
         <v>0</v>
       </c>
-      <c r="BB35" s="3">
+      <c r="AZ35" s="3">
         <v>0</v>
+      </c>
+      <c r="BA35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB35" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF35" s="3">
+      <c r="BD35" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1102015</v>
       </c>
@@ -9361,64 +9176,62 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3">
+      <c r="AL36" s="3">
         <v>2</v>
       </c>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4" t="s">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="AQ36" s="4">
+      <c r="AO36" s="4">
         <v>20</v>
       </c>
-      <c r="AR36" s="3">
+      <c r="AP36" s="3">
         <v>1702015</v>
       </c>
-      <c r="AS36" s="3">
+      <c r="AQ36" s="3">
         <v>20</v>
       </c>
+      <c r="AR36" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS36" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="AT36" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AU36" s="3" t="s">
         <v>408</v>
       </c>
       <c r="AV36" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AW36" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX36" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="AY36" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="4">
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="4">
         <v>208.7</v>
       </c>
-      <c r="BB36" s="3">
+      <c r="AZ36" s="3">
         <v>-5.5</v>
+      </c>
+      <c r="BA36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB36" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF36" s="3">
+      <c r="BD36" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1102016</v>
       </c>
@@ -9514,66 +9327,64 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3">
+      <c r="AL37" s="3">
         <v>2</v>
       </c>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4" t="s">
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="AQ37" s="4">
+      <c r="AO37" s="4">
         <v>45</v>
       </c>
-      <c r="AR37" s="3">
+      <c r="AP37" s="3">
         <v>1702016</v>
       </c>
-      <c r="AS37" s="3">
+      <c r="AQ37" s="3">
         <v>45</v>
       </c>
+      <c r="AR37" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="AT37" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AU37" s="3" t="s">
         <v>417</v>
       </c>
       <c r="AV37" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AW37" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AX37" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="AY37" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="AZ37" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="BA37" s="3">
+      <c r="AY37" s="3">
         <v>0</v>
       </c>
-      <c r="BB37" s="3">
+      <c r="AZ37" s="3">
         <v>0</v>
+      </c>
+      <c r="BA37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB37" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC37" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF37" s="3">
+      <c r="BD37" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1102017</v>
       </c>
@@ -9669,66 +9480,64 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3">
+      <c r="AL38" s="3">
         <v>2</v>
       </c>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4" t="s">
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AQ38" s="4">
+      <c r="AO38" s="4">
         <v>30</v>
       </c>
-      <c r="AR38" s="3">
+      <c r="AP38" s="3">
         <v>1702017</v>
       </c>
-      <c r="AS38" s="3">
+      <c r="AQ38" s="3">
         <v>30</v>
       </c>
+      <c r="AR38" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AS38" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="AT38" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AU38" s="3" t="s">
         <v>426</v>
       </c>
       <c r="AV38" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AW38" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AX38" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AY38" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AZ38" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="BA38" s="3">
+      <c r="AY38" s="3">
         <v>0</v>
       </c>
-      <c r="BB38" s="3">
+      <c r="AZ38" s="3">
         <v>0</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB38" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC38" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF38" s="3">
+      <c r="BD38" s="3">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1102018</v>
       </c>
@@ -9824,64 +9633,62 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3">
+      <c r="AL39" s="3">
         <v>2</v>
       </c>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4" t="s">
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="AQ39" s="4">
+      <c r="AO39" s="4">
         <v>20</v>
       </c>
-      <c r="AR39" s="3">
+      <c r="AP39" s="3">
         <v>1702018</v>
       </c>
-      <c r="AS39" s="3">
+      <c r="AQ39" s="3">
         <v>20</v>
       </c>
+      <c r="AR39" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS39" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="AT39" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AU39" s="3" t="s">
         <v>435</v>
       </c>
       <c r="AV39" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AW39" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AX39" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AY39" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3">
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3">
         <v>0</v>
       </c>
-      <c r="BB39" s="3">
+      <c r="AZ39" s="3">
         <v>0</v>
+      </c>
+      <c r="BA39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB39" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD39" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF39" s="3">
+      <c r="BD39" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1102019</v>
       </c>
@@ -9977,64 +9784,62 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3">
+      <c r="AL40" s="3">
         <v>2</v>
       </c>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4" t="s">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="AQ40" s="4">
+      <c r="AO40" s="4">
         <v>20</v>
       </c>
-      <c r="AR40" s="3">
+      <c r="AP40" s="3">
         <v>1702019</v>
       </c>
-      <c r="AS40" s="3">
+      <c r="AQ40" s="3">
         <v>20</v>
       </c>
+      <c r="AR40" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS40" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="AT40" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AU40" s="3" t="s">
         <v>443</v>
       </c>
       <c r="AV40" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AW40" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="AX40" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AY40" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3">
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3">
         <v>0</v>
       </c>
-      <c r="BB40" s="3">
+      <c r="AZ40" s="3">
         <v>0</v>
+      </c>
+      <c r="BA40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB40" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF40" s="3">
+      <c r="BD40" s="3">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1102020</v>
       </c>
@@ -10130,66 +9935,64 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3">
+      <c r="AL41" s="3">
         <v>2</v>
       </c>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4" t="s">
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="AQ41" s="4">
+      <c r="AO41" s="4">
         <v>30</v>
       </c>
-      <c r="AR41" s="3">
+      <c r="AP41" s="3">
         <v>1702020</v>
       </c>
-      <c r="AS41" s="3">
+      <c r="AQ41" s="3">
         <v>30</v>
       </c>
+      <c r="AR41" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS41" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="AT41" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AU41" s="3" t="s">
         <v>451</v>
       </c>
       <c r="AV41" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AW41" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AX41" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AY41" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AZ41" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="BA41" s="3">
+      <c r="AY41" s="3">
         <v>0</v>
       </c>
-      <c r="BB41" s="3">
+      <c r="AZ41" s="3">
         <v>0</v>
+      </c>
+      <c r="BA41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB41" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF41" s="3">
+      <c r="BD41" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1102021</v>
       </c>
@@ -10285,64 +10088,62 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3">
+      <c r="AL42" s="3">
         <v>2</v>
       </c>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4" t="s">
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AQ42" s="4">
+      <c r="AO42" s="4">
         <v>20</v>
       </c>
-      <c r="AR42" s="3">
+      <c r="AP42" s="3">
         <v>1702021</v>
       </c>
-      <c r="AS42" s="3">
+      <c r="AQ42" s="3">
         <v>20</v>
       </c>
+      <c r="AR42" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS42" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="AT42" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AU42" s="3" t="s">
         <v>460</v>
       </c>
       <c r="AV42" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AW42" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="AX42" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AY42" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3">
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3">
         <v>0</v>
       </c>
-      <c r="BB42" s="3">
+      <c r="AZ42" s="3">
         <v>0</v>
+      </c>
+      <c r="BA42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB42" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF42" s="3">
+      <c r="BD42" s="3">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1102022</v>
       </c>
@@ -10350,17 +10151,17 @@
         <v>1102022</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" ref="H43" si="3">"ui_dtex_Name_"&amp;B43</f>
@@ -10438,66 +10239,64 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3">
+      <c r="AL43" s="3">
         <v>2</v>
       </c>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4" t="s">
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AQ43" s="4">
+      <c r="AO43" s="4">
         <v>45</v>
       </c>
-      <c r="AR43" s="3">
+      <c r="AP43" s="3">
         <v>1702001</v>
       </c>
-      <c r="AS43" s="3">
+      <c r="AQ43" s="3">
         <v>45</v>
       </c>
+      <c r="AR43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS43" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="AT43" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AU43" s="3" t="s">
         <v>281</v>
       </c>
       <c r="AV43" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AW43" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AX43" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AY43" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ43" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BA43" s="3">
+      <c r="AY43" s="3">
         <v>-172.3</v>
       </c>
-      <c r="BB43" s="3">
+      <c r="AZ43" s="3">
         <v>-15.7</v>
+      </c>
+      <c r="BA43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB43" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF43" s="3">
-        <f t="shared" ref="BF43" si="5">2^M43+2^4*2^(K43-1)+2^6*2^(N43-1)+2^8*2^O43</f>
+      <c r="BD43" s="3">
+        <f t="shared" ref="BD43" si="5">2^M43+2^4*2^(K43-1)+2^6*2^(N43-1)+2^8*2^O43</f>
         <v>610</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1101101</v>
       </c>
@@ -10595,66 +10394,64 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3">
+      <c r="AL44" s="3">
         <v>0</v>
       </c>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4" t="s">
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ44" s="4" t="s">
+      <c r="AO44" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR44" s="3">
+      <c r="AP44" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS44" s="3">
+      <c r="AQ44" s="3">
         <v>30</v>
       </c>
-      <c r="AT44" s="4" t="s">
+      <c r="AR44" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT44" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU44" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV44" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW44" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA44" s="4">
+      <c r="AY44" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB44" s="3">
+      <c r="AZ44" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB44" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC44" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE44" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF44" s="3">
-        <f t="shared" ref="BF44" si="6">2^M44+2^4*2^(K44-1)+2^6*2^(N44-1)+2^8*2^O44</f>
+      <c r="BD44" s="3">
+        <f t="shared" ref="BD44" si="6">2^M44+2^4*2^(K44-1)+2^6*2^(N44-1)+2^8*2^O44</f>
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1101102</v>
       </c>
@@ -10752,66 +10549,64 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3">
+      <c r="AL45" s="3">
         <v>0</v>
       </c>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4" t="s">
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ45" s="4" t="s">
+      <c r="AO45" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR45" s="3">
+      <c r="AP45" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS45" s="3">
+      <c r="AQ45" s="3">
         <v>30</v>
       </c>
-      <c r="AT45" s="4" t="s">
+      <c r="AR45" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT45" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU45" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV45" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW45" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA45" s="4">
+      <c r="AY45" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB45" s="3">
+      <c r="AZ45" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB45" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD45" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF45" s="3">
-        <f t="shared" ref="BF45:BF49" si="7">2^M45+2^4*2^(K45-1)+2^6*2^(N45-1)+2^8*2^O45</f>
+      <c r="BD45" s="3">
+        <f t="shared" ref="BD45:BD49" si="7">2^M45+2^4*2^(K45-1)+2^6*2^(N45-1)+2^8*2^O45</f>
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1101103</v>
       </c>
@@ -10909,66 +10704,64 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3">
+      <c r="AL46" s="3">
         <v>0</v>
       </c>
-      <c r="AO46" s="4"/>
-      <c r="AP46" s="4" t="s">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ46" s="4" t="s">
+      <c r="AO46" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR46" s="3">
+      <c r="AP46" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS46" s="3">
+      <c r="AQ46" s="3">
         <v>30</v>
       </c>
-      <c r="AT46" s="4" t="s">
+      <c r="AR46" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT46" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU46" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV46" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW46" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX46" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY46" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA46" s="4">
+      <c r="AY46" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB46" s="3">
+      <c r="AZ46" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB46" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD46" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF46" s="3">
+      <c r="BD46" s="3">
         <f t="shared" si="7"/>
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1101104</v>
       </c>
@@ -11066,66 +10859,64 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3">
+      <c r="AL47" s="3">
         <v>0</v>
       </c>
-      <c r="AO47" s="4"/>
-      <c r="AP47" s="4" t="s">
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ47" s="4" t="s">
+      <c r="AO47" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR47" s="3">
+      <c r="AP47" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS47" s="3">
+      <c r="AQ47" s="3">
         <v>30</v>
       </c>
-      <c r="AT47" s="4" t="s">
+      <c r="AR47" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT47" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU47" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV47" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW47" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY47" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA47" s="4">
+      <c r="AY47" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB47" s="3">
+      <c r="AZ47" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB47" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE47" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF47" s="3">
+      <c r="BD47" s="3">
         <f t="shared" si="7"/>
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1101105</v>
       </c>
@@ -11223,66 +11014,64 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3">
+      <c r="AL48" s="3">
         <v>0</v>
       </c>
-      <c r="AO48" s="4"/>
-      <c r="AP48" s="4" t="s">
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ48" s="4" t="s">
+      <c r="AO48" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR48" s="3">
+      <c r="AP48" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS48" s="3">
+      <c r="AQ48" s="3">
         <v>30</v>
       </c>
-      <c r="AT48" s="4" t="s">
+      <c r="AR48" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT48" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU48" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV48" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW48" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX48" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY48" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ48" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA48" s="4">
+      <c r="AY48" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB48" s="3">
+      <c r="AZ48" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB48" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF48" s="3">
+      <c r="BD48" s="3">
         <f t="shared" si="7"/>
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1101106</v>
       </c>
@@ -11380,67 +11169,65 @@
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3">
+      <c r="AL49" s="3">
         <v>0</v>
       </c>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="4" t="s">
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AQ49" s="4" t="s">
+      <c r="AO49" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AR49" s="3">
+      <c r="AP49" s="3">
         <v>1701003</v>
       </c>
-      <c r="AS49" s="3">
+      <c r="AQ49" s="3">
         <v>30</v>
       </c>
-      <c r="AT49" s="4" t="s">
+      <c r="AR49" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="AS49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT49" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="AU49" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AV49" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW49" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BA49" s="4">
+      <c r="AY49" s="4">
         <v>23.8</v>
       </c>
-      <c r="BB49" s="3">
+      <c r="AZ49" s="3">
         <v>-16.91</v>
+      </c>
+      <c r="BA49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB49" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="BC49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BD49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF49" s="3">
+      <c r="BD49" s="3">
         <f t="shared" si="7"/>
         <v>401</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BF49"/>
+  <autoFilter ref="A3:BD49"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -72729,7 +72516,7 @@
         <v>550</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -72779,7 +72566,7 @@
         <v>505</v>
       </c>
       <c r="P2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -72825,7 +72612,7 @@
         <v>560</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -73928,7 +73715,7 @@
         <v>5000</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H29" s="3">
         <v>30</v>
@@ -73964,7 +73751,7 @@
         <v>8000</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H30" s="3">
         <v>30</v>
@@ -74004,7 +73791,7 @@
         <v>16000</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H31" s="3">
         <v>50</v>
@@ -74048,7 +73835,7 @@
         <v>25000</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H32" s="3">
         <v>80</v>
@@ -74096,7 +73883,7 @@
         <v>33000</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H33" s="3">
         <v>120</v>
@@ -74360,7 +74147,7 @@
         <v>5000</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H39" s="3">
         <v>20</v>
@@ -74396,7 +74183,7 @@
         <v>8000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H40" s="3">
         <v>20</v>
@@ -74436,7 +74223,7 @@
         <v>16000</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H41" s="3">
         <v>35</v>
@@ -74480,7 +74267,7 @@
         <v>25000</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H42" s="3">
         <v>60</v>
@@ -74528,7 +74315,7 @@
         <v>33000</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H43" s="3">
         <v>90</v>
@@ -78032,7 +77819,7 @@
         <v>5000</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H124" s="3">
         <v>30</v>
@@ -78068,7 +77855,7 @@
         <v>8000</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H125" s="3">
         <v>30</v>
@@ -78108,7 +77895,7 @@
         <v>16000</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H126" s="3">
         <v>50</v>
@@ -78152,7 +77939,7 @@
         <v>25000</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H127" s="3">
         <v>80</v>
@@ -78200,7 +77987,7 @@
         <v>33000</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H128" s="3">
         <v>120</v>
@@ -79091,7 +78878,7 @@
         <v>0.4</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -81058,7 +80845,7 @@
         <v>5000</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H194" s="3">
         <v>20</v>
@@ -81094,7 +80881,7 @@
         <v>8000</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H195" s="3">
         <v>20</v>
@@ -81134,7 +80921,7 @@
         <v>16000</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H196" s="3">
         <v>35</v>
@@ -81178,7 +80965,7 @@
         <v>25000</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H197" s="3">
         <v>60</v>
@@ -81226,7 +81013,7 @@
         <v>33000</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H198" s="3">
         <v>90</v>
@@ -81274,7 +81061,7 @@
         <v>5000</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H199" s="3">
         <v>20</v>
@@ -81310,7 +81097,7 @@
         <v>8000</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H200" s="3">
         <v>20</v>
@@ -81350,7 +81137,7 @@
         <v>16000</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H201" s="3">
         <v>35</v>
@@ -81394,7 +81181,7 @@
         <v>25000</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H202" s="3">
         <v>60</v>
@@ -81442,7 +81229,7 @@
         <v>33000</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H203" s="3">
         <v>90</v>
@@ -81635,7 +81422,7 @@
         <v>1701006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>191</v>
@@ -81669,7 +81456,7 @@
         <v>1701008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>208</v>
@@ -81958,7 +81745,7 @@
         <v>1702007</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>334</v>
@@ -82213,10 +82000,10 @@
         <v>1702022</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>570</v>
@@ -84853,8 +84640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -86233,7 +86020,7 @@
         <v>625</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>332</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB2D3D-A4D0-4B0E-AE57-EF5201265486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BD$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2455,7 +2456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2680,19 +2681,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2964,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -3335,11 +3336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10153,9 +10154,11 @@
       <c r="C43" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>700</v>
@@ -11227,7 +11230,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BD49"/>
+  <autoFilter ref="A3:BD49" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11235,7 +11238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72445,7 +72448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -81265,7 +81268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -82020,7 +82023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView topLeftCell="A120" workbookViewId="0">
@@ -84637,11 +84640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -85695,7 +85698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -85791,7 +85794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB2D3D-A4D0-4B0E-AE57-EF5201265486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABA72AC-5F06-4791-8161-767F604786A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10530" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10530" uniqueCount="757">
   <si>
     <t>sheet名</t>
   </si>
@@ -2452,6 +2452,55 @@
     <t>skill_id:e&lt;&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardface_zgyx_1101017</t>
+  </si>
+  <si>
+    <t>head_zgyx_1101017</t>
+  </si>
+  <si>
+    <t>headbig_zgyx_1101017</t>
+  </si>
+  <si>
+    <t>draw_zgyx_1101017</t>
+  </si>
+  <si>
+    <t>cutin_zgyx_1101017</t>
+  </si>
+  <si>
+    <t>cardface_jyh_1101020</t>
+  </si>
+  <si>
+    <t>head_jyh_1101020</t>
+  </si>
+  <si>
+    <t>headbig_jyh_1101020</t>
+  </si>
+  <si>
+    <t>draw_jyh_1101020</t>
+  </si>
+  <si>
+    <t>cutin_jyh_1101020</t>
+  </si>
+  <si>
+    <t>cardface_h_1101022</t>
+  </si>
+  <si>
+    <t>head_h_1101022</t>
+  </si>
+  <si>
+    <t>headbig_h_1101022</t>
+  </si>
+  <si>
+    <t>draw_h_1101022</t>
+  </si>
+  <si>
+    <t>cutin_h_1101022</t>
+  </si>
 </sst>
 </file>
 
@@ -3339,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="AM4" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3905,7 +3954,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>144</v>
@@ -4072,9 +4121,11 @@
       <c r="C5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>155</v>
@@ -4237,11 +4288,13 @@
         <v>1101003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>741</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>692</v>
@@ -4410,7 +4463,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>172</v>
@@ -4579,7 +4632,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>181</v>
@@ -4748,7 +4801,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>693</v>
@@ -4771,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -4915,9 +4968,7 @@
       <c r="C10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -5088,7 +5139,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>696</v>
@@ -5255,7 +5306,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>214</v>
@@ -5422,9 +5473,7 @@
       <c r="C13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3">
         <v>1</v>
       </c>
@@ -5593,9 +5642,7 @@
       <c r="C14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -5766,7 +5813,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>241</v>
@@ -5789,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -5933,7 +5980,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>249</v>
@@ -6100,7 +6147,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>257</v>
@@ -6267,9 +6314,7 @@
       <c r="C18" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="3">
         <v>1</v>
       </c>
@@ -6436,9 +6481,7 @@
       <c r="C19" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D19" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="3">
         <v>1</v>
       </c>
@@ -6557,22 +6600,22 @@
         <v>45</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>269</v>
+        <v>742</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>270</v>
+        <v>743</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>271</v>
+        <v>744</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>270</v>
+        <v>743</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>272</v>
+        <v>745</v>
       </c>
       <c r="AW19" s="3" t="s">
-        <v>273</v>
+        <v>746</v>
       </c>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3">
@@ -6605,9 +6648,7 @@
       <c r="C20" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D20" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -6726,22 +6767,22 @@
         <v>45</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>269</v>
+        <v>747</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>270</v>
+        <v>748</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>271</v>
+        <v>749</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>270</v>
+        <v>748</v>
       </c>
       <c r="AV20" s="3" t="s">
-        <v>272</v>
+        <v>750</v>
       </c>
       <c r="AW20" s="3" t="s">
-        <v>273</v>
+        <v>751</v>
       </c>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3">
@@ -6776,7 +6817,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>669</v>
@@ -6893,22 +6934,22 @@
         <v>20</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>269</v>
+        <v>752</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>270</v>
+        <v>753</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>271</v>
+        <v>754</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>270</v>
+        <v>753</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>272</v>
+        <v>755</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>273</v>
+        <v>756</v>
       </c>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3">
@@ -6941,9 +6982,7 @@
       <c r="C22" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="3">
         <v>1</v>
       </c>
@@ -7098,7 +7137,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>286</v>
@@ -7249,9 +7288,7 @@
       <c r="C24" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D24" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="3">
         <v>1</v>
       </c>
@@ -7406,7 +7443,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>306</v>
@@ -7557,7 +7594,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>314</v>
@@ -7710,7 +7747,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>323</v>
@@ -7863,7 +7900,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>332</v>
@@ -8016,7 +8053,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>341</v>
@@ -8039,7 +8076,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>1</v>
@@ -8167,9 +8204,7 @@
       <c r="C30" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D30" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="3">
         <v>1</v>
       </c>
@@ -8324,7 +8359,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>358</v>
@@ -8475,9 +8510,7 @@
       <c r="C32" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="3">
         <v>1</v>
       </c>
@@ -8632,7 +8665,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>377</v>
@@ -8783,9 +8816,7 @@
       <c r="C34" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D34" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="3">
         <v>1</v>
       </c>
@@ -8936,9 +8967,7 @@
       <c r="C35" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D35" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="3">
         <v>1</v>
       </c>
@@ -9093,7 +9122,7 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>404</v>
@@ -9244,7 +9273,7 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>413</v>
@@ -9397,7 +9426,7 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>422</v>
@@ -9550,7 +9579,7 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>431</v>
@@ -9701,7 +9730,7 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>439</v>
@@ -9724,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" s="3">
         <v>1</v>
@@ -9852,7 +9881,7 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>447</v>
@@ -10005,7 +10034,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>456</v>
@@ -10154,11 +10183,9 @@
       <c r="C43" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D43" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>700</v>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3384,11 +3384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -89472,7 +89472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C877844-3AB8-4497-BF33-D8052D76159E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,12 +26,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BD$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2501,7 +2501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2726,19 +2726,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -3381,14 +3381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11256,7 +11256,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BD45"/>
+  <autoFilter ref="A3:BD45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11264,7 +11264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77271,7 +77271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86091,7 +86091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86846,7 +86846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -89469,7 +89469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -90527,7 +90527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -90623,7 +90623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/card.卡牌表.xlsx
+++ b/Excel/镇魂街/card.卡牌表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063D6BFC-D962-42FB-A35E-3FE20F56A04A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,11 +26,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡牌!$A$3:$BD$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10404" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="765">
   <si>
     <t>sheet名</t>
   </si>
@@ -2496,11 +2498,23 @@
     <t>烈风螳螂碎片</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>NativeSkill</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认武灵技</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2725,19 +2739,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3009,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -3380,14 +3394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BB16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="BH31" sqref="BH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3427,10 +3441,10 @@
     <col min="51" max="52" width="16" customWidth="1"/>
     <col min="53" max="54" width="25.75" customWidth="1"/>
     <col min="55" max="55" width="29.625" customWidth="1"/>
-    <col min="56" max="56" width="16.875" customWidth="1"/>
+    <col min="56" max="57" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3599,8 +3613,11 @@
       <c r="BD1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="BE1" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -3769,8 +3786,11 @@
       <c r="BD2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:56" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE2" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3939,8 +3959,11 @@
       <c r="BD3" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE3" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
@@ -4108,8 +4131,9 @@
         <f t="shared" ref="BD4:BD39" si="0">2^M4+2^4*2^(K4-1)+2^6*2^(N4-1)+2^8*2^O4</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE4" s="3"/>
+    </row>
+    <row r="5" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1101002</v>
       </c>
@@ -4277,8 +4301,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE5" s="3"/>
+    </row>
+    <row r="6" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1101003</v>
       </c>
@@ -4448,8 +4473,9 @@
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="7" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE6" s="3"/>
+    </row>
+    <row r="7" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1101004</v>
       </c>
@@ -4617,8 +4643,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="8" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE7" s="3"/>
+    </row>
+    <row r="8" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1101005</v>
       </c>
@@ -4786,8 +4813,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="9" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE8" s="3"/>
+    </row>
+    <row r="9" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1101006</v>
       </c>
@@ -4955,8 +4983,9 @@
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="10" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE9" s="3"/>
+    </row>
+    <row r="10" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1101007</v>
       </c>
@@ -5124,8 +5153,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="11" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE10" s="3"/>
+    </row>
+    <row r="11" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1101008</v>
       </c>
@@ -5291,8 +5321,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE11" s="3"/>
+    </row>
+    <row r="12" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1101009</v>
       </c>
@@ -5460,8 +5491,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE12" s="3"/>
+    </row>
+    <row r="13" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1101010</v>
       </c>
@@ -5629,8 +5661,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="14" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE13" s="3"/>
+    </row>
+    <row r="14" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1101011</v>
       </c>
@@ -5798,8 +5831,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="15" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE14" s="3"/>
+    </row>
+    <row r="15" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1101012</v>
       </c>
@@ -5965,8 +5999,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="16" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE15" s="3"/>
+    </row>
+    <row r="16" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1101013</v>
       </c>
@@ -6132,8 +6167,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="17" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE16" s="3"/>
+    </row>
+    <row r="17" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1101014</v>
       </c>
@@ -6301,8 +6337,9 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE17" s="3"/>
+    </row>
+    <row r="18" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1101015</v>
       </c>
@@ -6468,8 +6505,9 @@
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="19" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE18" s="3"/>
+    </row>
+    <row r="19" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1102001</v>
       </c>
@@ -6621,8 +6659,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE19" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1102002</v>
       </c>
@@ -6774,8 +6815,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="21" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE20" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1102003</v>
       </c>
@@ -6927,8 +6971,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="22" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE21" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1102004</v>
       </c>
@@ -7078,8 +7125,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="23" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE22" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1102005</v>
       </c>
@@ -7231,8 +7281,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-    </row>
-    <row r="24" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE23" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1102006</v>
       </c>
@@ -7384,8 +7437,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="25" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE24" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1102007</v>
       </c>
@@ -7537,8 +7593,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="26" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE25" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1102008</v>
       </c>
@@ -7690,8 +7749,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="27" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE26" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1102009</v>
       </c>
@@ -7843,8 +7905,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="28" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE27" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1102010</v>
       </c>
@@ -7996,8 +8061,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-    </row>
-    <row r="29" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE28" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1102011</v>
       </c>
@@ -8149,8 +8217,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="30" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE29" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1102012</v>
       </c>
@@ -8302,8 +8373,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="31" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE30" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1102013</v>
       </c>
@@ -8453,8 +8527,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE31" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1102014</v>
       </c>
@@ -8606,8 +8683,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="33" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE32" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1102015</v>
       </c>
@@ -8757,8 +8837,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="34" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE33" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1102016</v>
       </c>
@@ -8910,8 +8993,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-    </row>
-    <row r="35" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE34" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1102017</v>
       </c>
@@ -9063,8 +9149,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-    </row>
-    <row r="36" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE35" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1102018</v>
       </c>
@@ -9214,8 +9303,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="37" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE36" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1102019</v>
       </c>
@@ -9365,8 +9457,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="38" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE37" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1102020</v>
       </c>
@@ -9518,8 +9613,11 @@
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-    </row>
-    <row r="39" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE38" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1102021</v>
       </c>
@@ -9669,8 +9767,11 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="40" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE39" s="3">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1101101</v>
       </c>
@@ -9824,8 +9925,9 @@
         <f t="shared" ref="BD40" si="3">2^M40+2^4*2^(K40-1)+2^6*2^(N40-1)+2^8*2^O40</f>
         <v>401</v>
       </c>
-    </row>
-    <row r="41" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE40" s="3"/>
+    </row>
+    <row r="41" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1101102</v>
       </c>
@@ -9979,8 +10081,9 @@
         <f t="shared" ref="BD41:BD45" si="4">2^M41+2^4*2^(K41-1)+2^6*2^(N41-1)+2^8*2^O41</f>
         <v>401</v>
       </c>
-    </row>
-    <row r="42" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE41" s="3"/>
+    </row>
+    <row r="42" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1101103</v>
       </c>
@@ -10134,8 +10237,9 @@
         <f t="shared" si="4"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="43" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE42" s="3"/>
+    </row>
+    <row r="43" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1101104</v>
       </c>
@@ -10289,8 +10393,9 @@
         <f t="shared" si="4"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="44" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE43" s="3"/>
+    </row>
+    <row r="44" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1101105</v>
       </c>
@@ -10444,8 +10549,9 @@
         <f t="shared" si="4"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="45" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE44" s="3"/>
+    </row>
+    <row r="45" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1101106</v>
       </c>
@@ -10599,8 +10705,9 @@
         <f t="shared" si="4"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="46" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE45" s="3"/>
+    </row>
+    <row r="46" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1101017</v>
       </c>
@@ -10766,8 +10873,9 @@
         <f>2^M46+2^4*2^(K46-1)+2^6*2^(N46-1)+2^8*2^O46</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="47" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE46" s="3"/>
+    </row>
+    <row r="47" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1101020</v>
       </c>
@@ -10933,8 +11041,9 @@
         <f>2^M47+2^4*2^(K47-1)+2^6*2^(N47-1)+2^8*2^O47</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="48" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE47" s="3"/>
+    </row>
+    <row r="48" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1101022</v>
       </c>
@@ -11100,8 +11209,9 @@
         <f>2^M48+2^4*2^(K48-1)+2^6*2^(N48-1)+2^8*2^O48</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="49" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BE48" s="3"/>
+    </row>
+    <row r="49" spans="1:57" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1102022</v>
       </c>
@@ -11253,9 +11363,10 @@
         <f t="shared" ref="BD49" si="7">2^M49+2^4*2^(K49-1)+2^6*2^(N49-1)+2^8*2^O49</f>
         <v>610</v>
       </c>
+      <c r="BE49" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BD45"/>
+  <autoFilter ref="A3:BD45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11263,7 +11374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77270,7 +77381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86090,7 +86201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86845,7 +86956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -89468,11 +89579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -89569,7 +89680,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>50</v>
@@ -89592,7 +89703,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>
@@ -89615,7 +89726,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>150</v>
@@ -89638,7 +89749,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>200</v>
@@ -89661,7 +89772,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>250</v>
@@ -89684,7 +89795,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>350</v>
@@ -89707,7 +89818,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>450</v>
@@ -89730,7 +89841,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>550</v>
@@ -89753,7 +89864,7 @@
         <v>80</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
@@ -89776,7 +89887,7 @@
         <v>85</v>
       </c>
       <c r="F13" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>700</v>
@@ -89799,7 +89910,7 @@
         <v>90</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
@@ -89822,7 +89933,7 @@
         <v>95</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -89845,7 +89956,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>1000</v>
@@ -89868,7 +89979,7 @@
         <v>105</v>
       </c>
       <c r="F17" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>1150</v>
@@ -89891,7 +90002,7 @@
         <v>110</v>
       </c>
       <c r="F18" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>1300</v>
@@ -89914,7 +90025,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>1500</v>
@@ -89937,7 +90048,7 @@
         <v>120</v>
       </c>
       <c r="F20" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>1700</v>
@@ -89960,7 +90071,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>1950</v>
@@ -89983,7 +90094,7 @@
         <v>130</v>
       </c>
       <c r="F22" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>2250</v>
@@ -90006,7 +90117,7 @@
         <v>135</v>
       </c>
       <c r="F23" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>2550</v>
@@ -90029,7 +90140,7 @@
         <v>140</v>
       </c>
       <c r="F24" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>3200</v>
@@ -90526,7 +90637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -90622,7 +90733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
